--- a/aerodynamic_analysis_results.xlsx
+++ b/aerodynamic_analysis_results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="29" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="38" uniqueCount="9">
   <si>
     <t>alpha (deg)</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>corr_mu</t>
+  </si>
+  <si>
+    <t>C_L2/C_D2</t>
   </si>
 </sst>
 </file>
@@ -82,7 +85,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H342"/>
+  <dimension ref="A1:I342"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -92,10 +95,11 @@
     <col min="2" max="2" width="14.7109375" customWidth="true"/>
     <col min="3" max="3" width="11.7109375" customWidth="true"/>
     <col min="4" max="4" width="12.7109375" customWidth="true"/>
-    <col min="5" max="5" width="14.7109375" customWidth="true"/>
+    <col min="5" max="5" width="13.7109375" customWidth="true"/>
     <col min="6" max="6" width="14.7109375" customWidth="true"/>
-    <col min="7" max="7" width="15.42578125" customWidth="true"/>
-    <col min="8" max="8" width="6.42578125" customWidth="true"/>
+    <col min="7" max="7" width="14.7109375" customWidth="true"/>
+    <col min="8" max="8" width="15.42578125" customWidth="true"/>
+    <col min="9" max="9" width="6.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -115,12 +119,15 @@
         <v>4</v>
       </c>
       <c r="F1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>7</v>
       </c>
     </row>
@@ -138,13 +145,16 @@
         <v>0.15657029961338331</v>
       </c>
       <c r="E2" s="0">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0">
         <v>2.7350680197023322e-06</v>
       </c>
-      <c r="F2" s="0"/>
-      <c r="G2" s="0">
+      <c r="G2" s="0"/>
+      <c r="H2" s="0">
         <v>0.14941637888295653</v>
       </c>
-      <c r="H2" s="0">
+      <c r="I2" s="0">
         <v>65535</v>
       </c>
     </row>
@@ -162,15 +172,18 @@
         <v>0.15687324189502624</v>
       </c>
       <c r="E3" s="0">
+        <v>0.01440503563395404</v>
+      </c>
+      <c r="F3" s="0">
         <v>0.0026049145810409981</v>
       </c>
-      <c r="F3" s="0">
+      <c r="G3" s="0">
         <v>-0.013558756155783371</v>
       </c>
-      <c r="G3" s="0">
+      <c r="H3" s="0">
         <v>-0.047208920035607553</v>
       </c>
-      <c r="H3" s="0">
+      <c r="I3" s="0">
         <v>-84.25</v>
       </c>
     </row>
@@ -188,15 +201,18 @@
         <v>0.15717856714205208</v>
       </c>
       <c r="E4" s="0">
+        <v>0.028974014889958724</v>
+      </c>
+      <c r="F4" s="0">
         <v>0.0052070951572634836</v>
       </c>
-      <c r="F4" s="0">
+      <c r="G4" s="0">
         <v>-0.02678545106109767</v>
       </c>
-      <c r="G4" s="0">
+      <c r="H4" s="0">
         <v>-0.043909678734517912</v>
       </c>
-      <c r="H4" s="0">
+      <c r="I4" s="0">
         <v>-85.5</v>
       </c>
     </row>
@@ -214,15 +230,18 @@
         <v>0.15748627336048207</v>
       </c>
       <c r="E5" s="0">
+        <v>0.043698437438904288</v>
+      </c>
+      <c r="F5" s="0">
         <v>0.0078092768094216881</v>
       </c>
-      <c r="F5" s="0">
+      <c r="G5" s="0">
         <v>0.043298107582548769</v>
       </c>
-      <c r="G5" s="0">
+      <c r="H5" s="0">
         <v>0.13898358542745295</v>
       </c>
-      <c r="H5" s="0">
+      <c r="I5" s="0">
         <v>93.150000000000006</v>
       </c>
     </row>
@@ -240,15 +259,18 @@
         <v>0.15779635855476937</v>
       </c>
       <c r="E6" s="0">
+        <v>0.058570084704722747</v>
+      </c>
+      <c r="F6" s="0">
         <v>0.010411459549055663</v>
       </c>
-      <c r="F6" s="0">
+      <c r="G6" s="0">
         <v>-0.052386535542009796</v>
       </c>
-      <c r="G6" s="0">
+      <c r="H6" s="0">
         <v>-0.030182935033665748</v>
       </c>
-      <c r="H6" s="0">
+      <c r="I6" s="0">
         <v>-87.999999999999986</v>
       </c>
     </row>
@@ -266,15 +288,18 @@
         <v>0.15810882072781698</v>
       </c>
       <c r="E7" s="0">
+        <v>0.073581011085794457</v>
+      </c>
+      <c r="F7" s="0">
         <v>0.013013643386541677</v>
       </c>
-      <c r="F7" s="0">
+      <c r="G7" s="0">
         <v>0.073659204686964033</v>
       </c>
-      <c r="G7" s="0">
+      <c r="H7" s="0">
         <v>0.11949347381105625</v>
       </c>
-      <c r="H7" s="0">
+      <c r="I7" s="0">
         <v>90.5</v>
       </c>
     </row>
@@ -292,15 +317,18 @@
         <v>0.15842365788099497</v>
       </c>
       <c r="E8" s="0">
+        <v>0.08872353535431908</v>
+      </c>
+      <c r="F8" s="0">
         <v>0.015615828331121531</v>
       </c>
-      <c r="F8" s="0">
+      <c r="G8" s="0">
         <v>-0.075085247812487016</v>
       </c>
-      <c r="G8" s="0">
+      <c r="H8" s="0">
         <v>-0.0062897048588041252</v>
       </c>
-      <c r="H8" s="0">
+      <c r="I8" s="0">
         <v>-90.450000000000003</v>
       </c>
     </row>
@@ -318,15 +346,18 @@
         <v>0.15874086801415771</v>
       </c>
       <c r="E9" s="0">
+        <v>0.1039902322451349</v>
+      </c>
+      <c r="F9" s="0">
         <v>0.01821801439093242</v>
       </c>
-      <c r="F9" s="0">
+      <c r="G9" s="0">
         <v>0.10685780954971127</v>
       </c>
-      <c r="G9" s="0">
+      <c r="H9" s="0">
         <v>0.089060302505844041</v>
       </c>
-      <c r="H9" s="0">
+      <c r="I9" s="0">
         <v>87.75</v>
       </c>
     </row>
@@ -344,15 +375,18 @@
         <v>0.15906044912566158</v>
       </c>
       <c r="E10" s="0">
+        <v>0.11937392424285433</v>
+      </c>
+      <c r="F10" s="0">
         <v>0.0208202015730359</v>
       </c>
-      <c r="F10" s="0">
+      <c r="G10" s="0">
         <v>0.12410865985551761</v>
       </c>
-      <c r="G10" s="0">
+      <c r="H10" s="0">
         <v>0.069555426179165714</v>
       </c>
-      <c r="H10" s="0">
+      <c r="I10" s="0">
         <v>86.350000000000009</v>
       </c>
     </row>
@@ -370,15 +404,18 @@
         <v>0.15938239921238231</v>
       </c>
       <c r="E11" s="0">
+        <v>0.13486767357395091</v>
+      </c>
+      <c r="F11" s="0">
         <v>0.023422389883446807</v>
       </c>
-      <c r="F11" s="0">
+      <c r="G11" s="0">
         <v>0.1411800473090678</v>
       </c>
-      <c r="G11" s="0">
+      <c r="H11" s="0">
         <v>0.047124466239103643</v>
       </c>
-      <c r="H11" s="0">
+      <c r="I11" s="0">
         <v>84.950000000000003</v>
       </c>
     </row>
@@ -396,15 +433,18 @@
         <v>0.15970671626973235</v>
       </c>
       <c r="E12" s="0">
+        <v>0.15046477440848752</v>
+      </c>
+      <c r="F12" s="0">
         <v>0.026024579327162057</v>
       </c>
-      <c r="F12" s="0">
+      <c r="G12" s="0">
         <v>0.15810770349558906</v>
       </c>
-      <c r="G12" s="0">
+      <c r="H12" s="0">
         <v>0.021726536301195407</v>
       </c>
-      <c r="H12" s="0">
+      <c r="I12" s="0">
         <v>83.549999999999997</v>
       </c>
     </row>
@@ -422,15 +462,18 @@
         <v>0.16003339829167845</v>
       </c>
       <c r="E13" s="0">
+        <v>0.16615874527450647</v>
+      </c>
+      <c r="F13" s="0">
         <v>0.028626769908188961</v>
       </c>
-      <c r="F13" s="0">
+      <c r="G13" s="0">
         <v>0.17492689792748434</v>
       </c>
-      <c r="G13" s="0">
+      <c r="H13" s="0">
         <v>-0.0066678948592477916</v>
       </c>
-      <c r="H13" s="0">
+      <c r="I13" s="0">
         <v>82.150000000000006</v>
       </c>
     </row>
@@ -448,15 +491,18 @@
         <v>0.16036244327075924</v>
       </c>
       <c r="E14" s="0">
+        <v>0.18194332168666899</v>
+      </c>
+      <c r="F14" s="0">
         <v>0.03122896162957307</v>
       </c>
-      <c r="F14" s="0">
+      <c r="G14" s="0">
         <v>-0.13255557702667242</v>
       </c>
-      <c r="G14" s="0">
+      <c r="H14" s="0">
         <v>0.13225381673460304</v>
       </c>
-      <c r="H14" s="0">
+      <c r="I14" s="0">
         <v>-97.599999999999994</v>
       </c>
     </row>
@@ -474,15 +520,18 @@
         <v>0.16069384919810248</v>
       </c>
       <c r="E15" s="0">
+        <v>0.19781244898951539</v>
+      </c>
+      <c r="F15" s="0">
         <v>0.033831154493426101</v>
       </c>
-      <c r="F15" s="0">
+      <c r="G15" s="0">
         <v>-0.14043442505485651</v>
       </c>
-      <c r="G15" s="0">
+      <c r="H15" s="0">
         <v>0.16558390138938137</v>
       </c>
-      <c r="H15" s="0">
+      <c r="I15" s="0">
         <v>-98.75</v>
       </c>
     </row>
@@ -500,15 +549,18 @@
         <v>0.16102761406344274</v>
       </c>
       <c r="E16" s="0">
+        <v>0.21376027541466117</v>
+      </c>
+      <c r="F16" s="0">
         <v>0.036433348500953186</v>
       </c>
-      <c r="F16" s="0">
+      <c r="G16" s="0">
         <v>0.22703857835004498</v>
       </c>
-      <c r="G16" s="0">
+      <c r="H16" s="0">
         <v>-0.10998436025714139</v>
       </c>
-      <c r="H16" s="0">
+      <c r="I16" s="0">
         <v>77.900000000000006</v>
       </c>
     </row>
@@ -526,15 +578,18 @@
         <v>0.16136373585513919</v>
       </c>
       <c r="E17" s="0">
+        <v>0.22978114535037641</v>
+      </c>
+      <c r="F17" s="0">
         <v>0.039035543652480235</v>
       </c>
-      <c r="F17" s="0">
+      <c r="G17" s="0">
         <v>0.24376024241950844</v>
       </c>
-      <c r="G17" s="0">
+      <c r="H17" s="0">
         <v>-0.15043065045409768</v>
       </c>
-      <c r="H17" s="0">
+      <c r="I17" s="0">
         <v>76.5</v>
       </c>
     </row>
@@ -552,15 +607,18 @@
         <v>0.16170221256019257</v>
       </c>
       <c r="E18" s="0">
+        <v>0.2458695928212431</v>
+      </c>
+      <c r="F18" s="0">
         <v>0.041637739947480767</v>
       </c>
-      <c r="F18" s="0">
+      <c r="G18" s="0">
         <v>0.26053868607818365</v>
       </c>
-      <c r="G18" s="0">
+      <c r="H18" s="0">
         <v>-0.19385056871620707</v>
       </c>
-      <c r="H18" s="0">
+      <c r="I18" s="0">
         <v>75.099999999999994</v>
       </c>
     </row>
@@ -578,15 +636,18 @@
         <v>0.16204304216426341</v>
       </c>
       <c r="E19" s="0">
+        <v>0.26202033517496476</v>
+      </c>
+      <c r="F19" s="0">
         <v>0.044239937384602225</v>
       </c>
-      <c r="F19" s="0">
+      <c r="G19" s="0">
         <v>0.27545132037175279</v>
       </c>
-      <c r="G19" s="0">
+      <c r="H19" s="0">
         <v>-0.24018714933212731</v>
       </c>
-      <c r="H19" s="0">
+      <c r="I19" s="0">
         <v>73.75</v>
       </c>
     </row>
@@ -604,15 +665,18 @@
         <v>0.16238622265168906</v>
       </c>
       <c r="E20" s="0">
+        <v>0.27822826697290098</v>
+      </c>
+      <c r="F20" s="0">
         <v>0.046842135961692621</v>
       </c>
-      <c r="F20" s="0">
+      <c r="G20" s="0">
         <v>0.29243547293766636</v>
       </c>
-      <c r="G20" s="0">
+      <c r="H20" s="0">
         <v>-0.28943718685140374</v>
       </c>
-      <c r="H20" s="0">
+      <c r="I20" s="0">
         <v>72.349999999999994</v>
       </c>
     </row>
@@ -630,15 +694,18 @@
         <v>0.16273175200550172</v>
       </c>
       <c r="E21" s="0">
+        <v>0.29448845408045632</v>
+      </c>
+      <c r="F21" s="0">
         <v>0.049444335675825825</v>
       </c>
-      <c r="F21" s="0">
+      <c r="G21" s="0">
         <v>0.30761628534461605</v>
       </c>
-      <c r="G21" s="0">
+      <c r="H21" s="0">
         <v>-0.34151131355210651</v>
       </c>
-      <c r="H21" s="0">
+      <c r="I21" s="0">
         <v>71</v>
       </c>
     </row>
@@ -656,15 +723,18 @@
         <v>0.16307962820744573</v>
       </c>
       <c r="E22" s="0">
+        <v>0.31079612795314548</v>
+      </c>
+      <c r="F22" s="0">
         <v>0.052046536523328191</v>
       </c>
-      <c r="F22" s="0">
+      <c r="G22" s="0">
         <v>0.32297282060711963</v>
       </c>
-      <c r="G22" s="0">
+      <c r="H22" s="0">
         <v>-0.39636516196296245</v>
       </c>
-      <c r="H22" s="0">
+      <c r="I22" s="0">
         <v>69.650000000000006</v>
       </c>
     </row>
@@ -682,15 +752,18 @@
         <v>0.16342984923799544</v>
       </c>
       <c r="E23" s="0">
+        <v>0.32714668011384535</v>
+      </c>
+      <c r="F23" s="0">
         <v>0.054648738499802944</v>
       </c>
-      <c r="F23" s="0">
+      <c r="G23" s="0">
         <v>0.33658884341567091</v>
       </c>
-      <c r="G23" s="0">
+      <c r="H23" s="0">
         <v>-0.45393445726156689</v>
       </c>
-      <c r="H23" s="0">
+      <c r="I23" s="0">
         <v>68.34999999999998</v>
       </c>
     </row>
@@ -708,15 +781,18 @@
         <v>0.16378241307637276</v>
       </c>
       <c r="E24" s="0">
+        <v>0.34353565681658293</v>
+      </c>
+      <c r="F24" s="0">
         <v>0.057250941600155807</v>
       </c>
-      <c r="F24" s="0">
+      <c r="G24" s="0">
         <v>0.35043474938634761</v>
       </c>
-      <c r="G24" s="0">
+      <c r="H24" s="0">
         <v>-0.51414898809031806</v>
       </c>
-      <c r="H24" s="0">
+      <c r="I24" s="0">
         <v>67.050000000000011</v>
       </c>
     </row>
@@ -734,15 +810,18 @@
         <v>0.16413731770056472</v>
       </c>
       <c r="E25" s="0">
+        <v>0.35995875389201715</v>
+      </c>
+      <c r="F25" s="0">
         <v>0.059853145818619703</v>
       </c>
-      <c r="F25" s="0">
+      <c r="G25" s="0">
         <v>0.36453272982107837</v>
       </c>
-      <c r="G25" s="0">
+      <c r="H25" s="0">
         <v>-0.57692302953060792</v>
       </c>
-      <c r="H25" s="0">
+      <c r="I25" s="0">
         <v>65.75</v>
       </c>
     </row>
@@ -760,15 +839,18 @@
         <v>0.16449456108734137</v>
       </c>
       <c r="E26" s="0">
+        <v>0.37641181176967725</v>
+      </c>
+      <c r="F26" s="0">
         <v>0.062455351148778787</v>
       </c>
-      <c r="F26" s="0">
+      <c r="G26" s="0">
         <v>0.37697003573461441</v>
       </c>
-      <c r="G26" s="0">
+      <c r="H26" s="0">
         <v>-0.64220521630052418</v>
       </c>
-      <c r="H26" s="0">
+      <c r="I26" s="0">
         <v>64.5</v>
       </c>
     </row>
@@ -786,15 +868,18 @@
         <v>0.16485414121227324</v>
       </c>
       <c r="E27" s="0">
+        <v>0.39289081067196102</v>
+      </c>
+      <c r="F27" s="0">
         <v>0.065057557583593245</v>
       </c>
-      <c r="F27" s="0">
+      <c r="G27" s="0">
         <v>0.3877731997311179</v>
       </c>
-      <c r="G27" s="0">
+      <c r="H27" s="0">
         <v>-0.70993558288923708</v>
       </c>
-      <c r="H27" s="0">
+      <c r="I27" s="0">
         <v>63.300000000000011</v>
       </c>
     </row>
@@ -812,15 +897,18 @@
         <v>0.16521605604974915</v>
       </c>
       <c r="E28" s="0">
+        <v>0.40939186597483462</v>
+      </c>
+      <c r="F28" s="0">
         <v>0.067659765115422418</v>
       </c>
-      <c r="F28" s="0">
+      <c r="G28" s="0">
         <v>0.39889599248238078</v>
       </c>
-      <c r="G28" s="0">
+      <c r="H28" s="0">
         <v>-0.77998594172395952</v>
       </c>
-      <c r="H28" s="0">
+      <c r="I28" s="0">
         <v>62.100000000000001</v>
       </c>
     </row>
@@ -838,15 +926,18 @@
         <v>0.16558030357299397</v>
       </c>
       <c r="E29" s="0">
+        <v>0.42591122373020007</v>
+      </c>
+      <c r="F29" s="0">
         <v>0.070261973736049102</v>
       </c>
-      <c r="F29" s="0">
+      <c r="G29" s="0">
         <v>0.41035484883856044</v>
       </c>
-      <c r="G29" s="0">
+      <c r="H29" s="0">
         <v>-0.85225226476668059</v>
       </c>
-      <c r="H29" s="0">
+      <c r="I29" s="0">
         <v>60.899999999999984</v>
       </c>
     </row>
@@ -864,15 +955,18 @@
         <v>0.16594688175408615</v>
       </c>
       <c r="E30" s="0">
+        <v>0.44244525634488402</v>
+      </c>
+      <c r="F30" s="0">
         <v>0.072864183436701951</v>
       </c>
-      <c r="F30" s="0">
+      <c r="G30" s="0">
         <v>0.42023958201046197</v>
       </c>
-      <c r="G30" s="0">
+      <c r="H30" s="0">
         <v>-0.92672597431321835</v>
       </c>
-      <c r="H30" s="0">
+      <c r="I30" s="0">
         <v>59.749999999999993</v>
       </c>
     </row>
@@ -890,15 +984,18 @@
         <v>0.16631578856397572</v>
       </c>
       <c r="E31" s="0">
+        <v>0.45899045841126745</v>
+      </c>
+      <c r="F31" s="0">
         <v>0.075466394208079074</v>
       </c>
-      <c r="F31" s="0">
+      <c r="G31" s="0">
         <v>0.42856941005645571</v>
       </c>
-      <c r="G31" s="0">
+      <c r="H31" s="0">
         <v>-1.0033458213051916</v>
       </c>
-      <c r="H31" s="0">
+      <c r="I31" s="0">
         <v>58.649999999999991</v>
       </c>
     </row>
@@ -916,15 +1013,18 @@
         <v>0.16668702197250182</v>
       </c>
       <c r="E32" s="0">
+        <v>0.47554344268461129</v>
+      </c>
+      <c r="F32" s="0">
         <v>0.078068606040370303</v>
       </c>
-      <c r="F32" s="0">
+      <c r="G32" s="0">
         <v>0.43728367710761884</v>
       </c>
-      <c r="G32" s="0">
+      <c r="H32" s="0">
         <v>-1.081917600703111</v>
       </c>
-      <c r="H32" s="0">
+      <c r="I32" s="0">
         <v>57.54999999999999</v>
       </c>
     </row>
@@ -942,15 +1042,18 @@
         <v>0.16706057994841059</v>
       </c>
       <c r="E33" s="0">
+        <v>0.4921009362022169</v>
+      </c>
+      <c r="F33" s="0">
         <v>0.080670818923279611</v>
       </c>
-      <c r="F33" s="0">
+      <c r="G33" s="0">
         <v>0.44447257499922721</v>
       </c>
-      <c r="G33" s="0">
+      <c r="H33" s="0">
         <v>-1.1624819020282751</v>
       </c>
-      <c r="H33" s="0">
+      <c r="I33" s="0">
         <v>56.5</v>
       </c>
     </row>
@@ -968,15 +1071,18 @@
         <v>0.16743646045937291</v>
       </c>
       <c r="E34" s="0">
+        <v>0.50865977653963967</v>
+      </c>
+      <c r="F34" s="0">
         <v>0.083273032846047187</v>
       </c>
-      <c r="F34" s="0">
+      <c r="G34" s="0">
         <v>0.45206946131978576</v>
       </c>
-      <c r="G34" s="0">
+      <c r="H34" s="0">
         <v>-1.2448090158212515</v>
       </c>
-      <c r="H34" s="0">
+      <c r="I34" s="0">
         <v>55.449999999999996</v>
       </c>
     </row>
@@ -994,15 +1100,18 @@
         <v>0.16781466147200219</v>
       </c>
       <c r="E35" s="0">
+        <v>0.52521690819926159</v>
+      </c>
+      <c r="F35" s="0">
         <v>0.085875247797470883</v>
       </c>
-      <c r="F35" s="0">
+      <c r="G35" s="0">
         <v>0.4581642959819564</v>
       </c>
-      <c r="G35" s="0">
+      <c r="H35" s="0">
         <v>-1.3289775437973657</v>
       </c>
-      <c r="H35" s="0">
+      <c r="I35" s="0">
         <v>54.449999999999996</v>
       </c>
     </row>
@@ -1020,15 +1129,18 @@
         <v>0.16819518095187216</v>
       </c>
       <c r="E36" s="0">
+        <v>0.54176937912664569</v>
+      </c>
+      <c r="F36" s="0">
         <v>0.088477463765927841</v>
       </c>
-      <c r="F36" s="0">
+      <c r="G36" s="0">
         <v>0.46276733874025233</v>
       </c>
-      <c r="G36" s="0">
+      <c r="H36" s="0">
         <v>-1.4149339508309768</v>
       </c>
-      <c r="H36" s="0">
+      <c r="I36" s="0">
         <v>53.5</v>
       </c>
     </row>
@@ -1046,15 +1158,18 @@
         <v>0.16857801686353474</v>
       </c>
       <c r="E37" s="0">
+        <v>0.55831433735018321</v>
+      </c>
+      <c r="F37" s="0">
         <v>0.091079680739395444</v>
       </c>
-      <c r="F37" s="0">
+      <c r="G37" s="0">
         <v>0.46780439296259324</v>
       </c>
-      <c r="G37" s="0">
+      <c r="H37" s="0">
         <v>-1.5023935910242301</v>
       </c>
-      <c r="H37" s="0">
+      <c r="I37" s="0">
         <v>52.550000000000004</v>
       </c>
     </row>
@@ -1072,15 +1187,18 @@
         <v>0.16896316717053772</v>
       </c>
       <c r="E38" s="0">
+        <v>0.57484902773967073</v>
+      </c>
+      <c r="F38" s="0">
         <v>0.09368189870547225</v>
       </c>
-      <c r="F38" s="0">
+      <c r="G38" s="0">
         <v>0.47328066520571632</v>
       </c>
-      <c r="G38" s="0">
+      <c r="H38" s="0">
         <v>-1.5912442631075669</v>
       </c>
-      <c r="H38" s="0">
+      <c r="I38" s="0">
         <v>51.599999999999994</v>
       </c>
     </row>
@@ -1098,15 +1216,18 @@
         <v>0.16935062983544275</v>
       </c>
       <c r="E39" s="0">
+        <v>0.5913707888795674</v>
+      </c>
+      <c r="F39" s="0">
         <v>0.096284117651398216</v>
       </c>
-      <c r="F39" s="0">
+      <c r="G39" s="0">
         <v>0.47728421066202631</v>
       </c>
-      <c r="G39" s="0">
+      <c r="H39" s="0">
         <v>-1.6816517519702368</v>
       </c>
-      <c r="H39" s="0">
+      <c r="I39" s="0">
         <v>50.699999999999996</v>
       </c>
     </row>
@@ -1124,15 +1245,18 @@
         <v>0.16974040281984315</v>
       </c>
       <c r="E40" s="0">
+        <v>0.60787705005279846</v>
+      </c>
+      <c r="F40" s="0">
         <v>0.098886337564075111</v>
       </c>
-      <c r="F40" s="0">
+      <c r="G40" s="0">
         <v>0.47981949363882781</v>
       </c>
-      <c r="G40" s="0">
+      <c r="H40" s="0">
         <v>-1.7735720607516932</v>
       </c>
-      <c r="H40" s="0">
+      <c r="I40" s="0">
         <v>49.849999999999987</v>
       </c>
     </row>
@@ -1150,15 +1274,18 @@
         <v>0.17013248408438178</v>
       </c>
       <c r="E41" s="0">
+        <v>0.62436532833109248</v>
+      </c>
+      <c r="F41" s="0">
         <v>0.10148855843008593</v>
       </c>
-      <c r="F41" s="0">
+      <c r="G41" s="0">
         <v>0.48280545949492176</v>
       </c>
-      <c r="G41" s="0">
+      <c r="H41" s="0">
         <v>-1.86664154938909</v>
       </c>
-      <c r="H41" s="0">
+      <c r="I41" s="0">
         <v>49</v>
       </c>
     </row>
@@ -1176,15 +1303,18 @@
         <v>0.17052687158876881</v>
       </c>
       <c r="E42" s="0">
+        <v>0.64083322576796942</v>
+      </c>
+      <c r="F42" s="0">
         <v>0.10409078023571497</v>
       </c>
-      <c r="F42" s="0">
+      <c r="G42" s="0">
         <v>0.48432759236152589</v>
       </c>
-      <c r="G42" s="0">
+      <c r="H42" s="0">
         <v>-1.9610988510241187</v>
       </c>
-      <c r="H42" s="0">
+      <c r="I42" s="0">
         <v>48.199999999999989</v>
       </c>
     </row>
@@ -1202,15 +1332,18 @@
         <v>0.17092356329179972</v>
       </c>
       <c r="E43" s="0">
+        <v>0.65727842669059766</v>
+      </c>
+      <c r="F43" s="0">
         <v>0.10669300296696668</v>
       </c>
-      <c r="F43" s="0">
+      <c r="G43" s="0">
         <v>0.48630279007870564</v>
       </c>
-      <c r="G43" s="0">
+      <c r="H43" s="0">
         <v>-2.056540212085296</v>
       </c>
-      <c r="H43" s="0">
+      <c r="I43" s="0">
         <v>47.399999999999999</v>
       </c>
     </row>
@@ -1228,15 +1361,18 @@
         <v>0.17132255715137304</v>
       </c>
       <c r="E44" s="0">
+        <v>0.67369869508688351</v>
+      </c>
+      <c r="F44" s="0">
         <v>0.1092952266095845</v>
       </c>
-      <c r="F44" s="0">
+      <c r="G44" s="0">
         <v>0.48681446105159437</v>
       </c>
-      <c r="G44" s="0">
+      <c r="H44" s="0">
         <v>-2.1532537634100963</v>
       </c>
-      <c r="H44" s="0">
+      <c r="I44" s="0">
         <v>46.649999999999999</v>
       </c>
     </row>
@@ -1254,15 +1390,18 @@
         <v>0.17172385112450861</v>
       </c>
       <c r="E45" s="0">
+        <v>0.69009187208426159</v>
+      </c>
+      <c r="F45" s="0">
         <v>0.11189745114907</v>
       </c>
-      <c r="F45" s="0">
+      <c r="G45" s="0">
         <v>0.4877782227494965</v>
       </c>
-      <c r="G45" s="0">
+      <c r="H45" s="0">
         <v>-2.2507953464542552</v>
       </c>
-      <c r="H45" s="0">
+      <c r="I45" s="0">
         <v>45.899999999999999</v>
       </c>
     </row>
@@ -1280,15 +1419,18 @@
         <v>0.17212744316736497</v>
       </c>
       <c r="E46" s="0">
+        <v>0.70645587351676975</v>
+      </c>
+      <c r="F46" s="0">
         <v>0.11449967657070034</v>
       </c>
-      <c r="F46" s="0">
+      <c r="G46" s="0">
         <v>0.48919291404112841</v>
       </c>
-      <c r="G46" s="0">
+      <c r="H46" s="0">
         <v>-2.3490673929193298</v>
       </c>
-      <c r="H46" s="0">
+      <c r="I46" s="0">
         <v>45.149999999999999</v>
       </c>
     </row>
@@ -1306,15 +1448,18 @@
         <v>0.17253333123525777</v>
       </c>
       <c r="E47" s="0">
+        <v>0.72278868757712633</v>
+      </c>
+      <c r="F47" s="0">
         <v>0.11710190285954686</v>
       </c>
-      <c r="F47" s="0">
+      <c r="G47" s="0">
         <v>0.48913866486674673</v>
       </c>
-      <c r="G47" s="0">
+      <c r="H47" s="0">
         <v>-2.4484340151638602</v>
       </c>
-      <c r="H47" s="0">
+      <c r="I47" s="0">
         <v>44.449999999999996</v>
       </c>
     </row>
@@ -1332,15 +1477,18 @@
         <v>0.17294151328267732</v>
       </c>
       <c r="E48" s="0">
+        <v>0.73908837255062199</v>
+      </c>
+      <c r="F48" s="0">
         <v>0.11970413000049253</v>
       </c>
-      <c r="F48" s="0">
+      <c r="G48" s="0">
         <v>0.48761133022291081</v>
       </c>
-      <c r="G48" s="0">
+      <c r="H48" s="0">
         <v>-2.5488711426018775</v>
       </c>
-      <c r="H48" s="0">
+      <c r="I48" s="0">
         <v>43.799999999999997</v>
       </c>
     </row>
@@ -1358,15 +1506,18 @@
         <v>0.17335198726330686</v>
       </c>
       <c r="E49" s="0">
+        <v>0.75535305462776303</v>
+      </c>
+      <c r="F49" s="0">
         <v>0.12230635797824918</v>
       </c>
-      <c r="F49" s="0">
+      <c r="G49" s="0">
         <v>0.48652576868379993</v>
       </c>
-      <c r="G49" s="0">
+      <c r="H49" s="0">
         <v>-2.6498527517905957</v>
       </c>
-      <c r="H49" s="0">
+      <c r="I49" s="0">
         <v>43.149999999999999</v>
       </c>
     </row>
@@ -1384,15 +1535,18 @@
         <v>0.1737647511300402</v>
       </c>
       <c r="E50" s="0">
+        <v>0.77158092579271398</v>
+      </c>
+      <c r="F50" s="0">
         <v>0.12490858677737483</v>
       </c>
-      <c r="F50" s="0">
+      <c r="G50" s="0">
         <v>0.48587891267104133</v>
       </c>
-      <c r="G50" s="0">
+      <c r="H50" s="0">
         <v>-2.7512921820720089</v>
       </c>
-      <c r="H50" s="0">
+      <c r="I50" s="0">
         <v>42.5</v>
       </c>
     </row>
@@ -1410,15 +1564,18 @@
         <v>0.17417980283500012</v>
       </c>
       <c r="E51" s="0">
+        <v>0.78777024178467603</v>
+      </c>
+      <c r="F51" s="0">
         <v>0.12751081638228978</v>
       </c>
-      <c r="F51" s="0">
+      <c r="G51" s="0">
         <v>0.4856672236891883</v>
       </c>
-      <c r="G51" s="0">
+      <c r="H51" s="0">
         <v>-2.8531047219425729</v>
       </c>
-      <c r="H51" s="0">
+      <c r="I51" s="0">
         <v>41.849999999999987</v>
       </c>
     </row>
@@ -1436,15 +1593,18 @@
         <v>0.1745971403295557</v>
       </c>
       <c r="E52" s="0">
+        <v>0.80391932012948131</v>
+      </c>
+      <c r="F52" s="0">
         <v>0.13011304677729391</v>
       </c>
-      <c r="F52" s="0">
+      <c r="G52" s="0">
         <v>0.48396422876210132</v>
       </c>
-      <c r="G52" s="0">
+      <c r="H52" s="0">
         <v>-2.9557795785553931</v>
       </c>
-      <c r="H52" s="0">
+      <c r="I52" s="0">
         <v>41.249999999999993</v>
       </c>
     </row>
@@ -1462,15 +1622,18 @@
         <v>0.17501676156434098</v>
       </c>
       <c r="E53" s="0">
+        <v>0.82002653823873006</v>
+      </c>
+      <c r="F53" s="0">
         <v>0.13271527794658194</v>
       </c>
-      <c r="F53" s="0">
+      <c r="G53" s="0">
         <v>0.48268649879147613</v>
       </c>
-      <c r="G53" s="0">
+      <c r="H53" s="0">
         <v>-3.0587111658055135</v>
       </c>
-      <c r="H53" s="0">
+      <c r="I53" s="0">
         <v>40.649999999999999</v>
       </c>
     </row>
@@ -1488,15 +1651,18 @@
         <v>0.17543866448927256</v>
       </c>
       <c r="E54" s="0">
+        <v>0.8360903315739483</v>
+      </c>
+      <c r="F54" s="0">
         <v>0.13531750987425933</v>
       </c>
-      <c r="F54" s="0">
+      <c r="G54" s="0">
         <v>0.47990478848173446</v>
       </c>
-      <c r="G54" s="0">
+      <c r="H54" s="0">
         <v>-3.1624375133312337</v>
       </c>
-      <c r="H54" s="0">
+      <c r="I54" s="0">
         <v>40.099999999999994</v>
       </c>
     </row>
@@ -1514,15 +1680,18 @@
         <v>0.17586284705356761</v>
       </c>
       <c r="E55" s="0">
+        <v>0.85210919187331302</v>
+      </c>
+      <c r="F55" s="0">
         <v>0.13791974254435835</v>
       </c>
-      <c r="F55" s="0">
+      <c r="G55" s="0">
         <v>0.47753699697507773</v>
       </c>
-      <c r="G55" s="0">
+      <c r="H55" s="0">
         <v>-3.2663135894924809</v>
       </c>
-      <c r="H55" s="0">
+      <c r="I55" s="0">
         <v>39.549999999999997</v>
       </c>
     </row>
@@ -1540,15 +1709,18 @@
         <v>0.17628930720576197</v>
       </c>
       <c r="E56" s="0">
+        <v>0.86808166543857623</v>
+      </c>
+      <c r="F56" s="0">
         <v>0.14052197594085225</v>
       </c>
-      <c r="F56" s="0">
+      <c r="G56" s="0">
         <v>0.47557822557547247</v>
       </c>
-      <c r="G56" s="0">
+      <c r="H56" s="0">
         <v>-3.370268506441171</v>
       </c>
-      <c r="H56" s="0">
+      <c r="I56" s="0">
         <v>39</v>
       </c>
     </row>
@@ -1566,15 +1738,18 @@
         <v>0.17671804289372828</v>
       </c>
       <c r="E57" s="0">
+        <v>0.88400635147994</v>
+      </c>
+      <c r="F57" s="0">
         <v>0.1431242100476707</v>
       </c>
-      <c r="F57" s="0">
+      <c r="G57" s="0">
         <v>0.47209485903826975</v>
       </c>
-      <c r="G57" s="0">
+      <c r="H57" s="0">
         <v>-3.4749098889971779</v>
       </c>
-      <c r="H57" s="0">
+      <c r="I57" s="0">
         <v>38.500000000000007</v>
       </c>
     </row>
@@ -1592,15 +1767,18 @@
         <v>0.17714905206469375</v>
       </c>
       <c r="E58" s="0">
+        <v>0.89988190051669215</v>
+      </c>
+      <c r="F58" s="0">
         <v>0.14572644484871439</v>
       </c>
-      <c r="F58" s="0">
+      <c r="G58" s="0">
         <v>0.4690076597398094</v>
       </c>
-      <c r="G58" s="0">
+      <c r="H58" s="0">
         <v>-3.5795367672704579</v>
       </c>
-      <c r="H58" s="0">
+      <c r="I58" s="0">
         <v>38</v>
       </c>
     </row>
@@ -1618,15 +1796,18 @@
         <v>0.17758233266525844</v>
       </c>
       <c r="E59" s="0">
+        <v>0.91570701283150691</v>
+      </c>
+      <c r="F59" s="0">
         <v>0.14832868032786839</v>
       </c>
-      <c r="F59" s="0">
+      <c r="G59" s="0">
         <v>0.46631124670210966</v>
       </c>
-      <c r="G59" s="0">
+      <c r="H59" s="0">
         <v>-3.6840861002772352</v>
       </c>
-      <c r="H59" s="0">
+      <c r="I59" s="0">
         <v>37.500000000000007</v>
       </c>
     </row>
@@ -1644,15 +1825,18 @@
         <v>0.17801788264141311</v>
       </c>
       <c r="E60" s="0">
+        <v>0.93148043697640748</v>
+      </c>
+      <c r="F60" s="0">
         <v>0.15093091646901696</v>
       </c>
-      <c r="F60" s="0">
+      <c r="G60" s="0">
         <v>0.46400005623626128</v>
       </c>
-      <c r="G60" s="0">
+      <c r="H60" s="0">
         <v>-3.7884970152534621</v>
       </c>
-      <c r="H60" s="0">
+      <c r="I60" s="0">
         <v>37</v>
       </c>
     </row>
@@ -1670,15 +1854,18 @@
         <v>0.17845569993855737</v>
       </c>
       <c r="E61" s="0">
+        <v>0.94720096832843814</v>
+      </c>
+      <c r="F61" s="0">
         <v>0.1535331532560564</v>
       </c>
-      <c r="F61" s="0">
+      <c r="G61" s="0">
         <v>0.46013468660298107</v>
       </c>
-      <c r="G61" s="0">
+      <c r="H61" s="0">
         <v>-3.893464797374004</v>
       </c>
-      <c r="H61" s="0">
+      <c r="I61" s="0">
         <v>36.549999999999997</v>
       </c>
     </row>
@@ -1696,15 +1883,18 @@
         <v>0.17889578250151777</v>
       </c>
       <c r="E62" s="0">
+        <v>0.96286744769320409</v>
+      </c>
+      <c r="F62" s="0">
         <v>0.15613539067290852</v>
       </c>
-      <c r="F62" s="0">
+      <c r="G62" s="0">
         <v>0.45664053439694158</v>
       </c>
-      <c r="G62" s="0">
+      <c r="H62" s="0">
         <v>-3.9982180047943019</v>
       </c>
-      <c r="H62" s="0">
+      <c r="I62" s="0">
         <v>36.099999999999994</v>
       </c>
     </row>
@@ -1722,15 +1912,18 @@
         <v>0.1793381282745658</v>
       </c>
       <c r="E63" s="0">
+        <v>0.97847875995447608</v>
+      </c>
+      <c r="F63" s="0">
         <v>0.15873762870353367</v>
       </c>
-      <c r="F63" s="0">
+      <c r="G63" s="0">
         <v>0.45351183864365163</v>
       </c>
-      <c r="G63" s="0">
+      <c r="H63" s="0">
         <v>-4.1027031632446676</v>
       </c>
-      <c r="H63" s="0">
+      <c r="I63" s="0">
         <v>35.649999999999991</v>
       </c>
     </row>
@@ -1748,15 +1941,18 @@
         <v>0.17978273520143601</v>
       </c>
       <c r="E64" s="0">
+        <v>0.99403383276815227</v>
+      </c>
+      <c r="F64" s="0">
         <v>0.16133986733194294</v>
       </c>
-      <c r="F64" s="0">
+      <c r="G64" s="0">
         <v>0.45074273974969575</v>
       </c>
-      <c r="G64" s="0">
+      <c r="H64" s="0">
         <v>-4.206868838091312</v>
       </c>
-      <c r="H64" s="0">
+      <c r="I64" s="0">
         <v>35.200000000000003</v>
       </c>
     </row>
@@ -1774,15 +1970,18 @@
         <v>0.18022960122534398</v>
       </c>
       <c r="E65" s="0">
+        <v>1.009531635298925</v>
+      </c>
+      <c r="F65" s="0">
         <v>0.16394210654221067</v>
       </c>
-      <c r="F65" s="0">
+      <c r="G65" s="0">
         <v>0.44638815596806281</v>
       </c>
-      <c r="G65" s="0">
+      <c r="H65" s="0">
         <v>-4.311490710016896</v>
       </c>
-      <c r="H65" s="0">
+      <c r="I65" s="0">
         <v>34.799999999999997</v>
       </c>
     </row>
@@ -1800,15 +1999,18 @@
         <v>0.18067872428900461</v>
       </c>
       <c r="E66" s="0">
+        <v>1.0249711769980672</v>
+      </c>
+      <c r="F66" s="0">
         <v>0.16654434631848633</v>
       </c>
-      <c r="F66" s="0">
+      <c r="G66" s="0">
         <v>0.44237867442600692</v>
       </c>
-      <c r="G66" s="0">
+      <c r="H66" s="0">
         <v>-4.4157315784181934</v>
       </c>
-      <c r="H66" s="0">
+      <c r="I66" s="0">
         <v>34.399999999999991</v>
       </c>
     </row>
@@ -1826,15 +2028,18 @@
         <v>0.1811301023346501</v>
       </c>
       <c r="E67" s="0">
+        <v>1.0403515064208164</v>
+      </c>
+      <c r="F67" s="0">
         <v>0.16914658664500604</v>
       </c>
-      <c r="F67" s="0">
+      <c r="G67" s="0">
         <v>0.43870844581142088</v>
       </c>
-      <c r="G67" s="0">
+      <c r="H67" s="0">
         <v>-4.5195467388365067</v>
       </c>
-      <c r="H67" s="0">
+      <c r="I67" s="0">
         <v>34</v>
       </c>
     </row>
@@ -1852,15 +2057,18 @@
         <v>0.18158373330404803</v>
       </c>
       <c r="E68" s="0">
+        <v>1.055671710081896</v>
+      </c>
+      <c r="F68" s="0">
         <v>0.17174882750610396</v>
       </c>
-      <c r="F68" s="0">
+      <c r="G68" s="0">
         <v>0.43537158301864015</v>
       </c>
-      <c r="G68" s="0">
+      <c r="H68" s="0">
         <v>-4.6228933517305277</v>
       </c>
-      <c r="H68" s="0">
+      <c r="I68" s="0">
         <v>33.599999999999994</v>
       </c>
     </row>
@@ -1878,15 +2086,18 @@
         <v>0.18203961513851954</v>
       </c>
       <c r="E69" s="0">
+        <v>1.0709309113477692</v>
+      </c>
+      <c r="F69" s="0">
         <v>0.1743510688862232</v>
       </c>
-      <c r="F69" s="0">
+      <c r="G69" s="0">
         <v>0.43236217565990676</v>
       </c>
-      <c r="G69" s="0">
+      <c r="H69" s="0">
         <v>-4.7257303744104933</v>
       </c>
-      <c r="H69" s="0">
+      <c r="I69" s="0">
         <v>33.200000000000003</v>
       </c>
     </row>
@@ -1904,15 +2115,18 @@
         <v>0.18249774577895736</v>
       </c>
       <c r="E70" s="0">
+        <v>1.0861282693642744</v>
+      </c>
+      <c r="F70" s="0">
         <v>0.17695331076992646</v>
       </c>
-      <c r="F70" s="0">
+      <c r="G70" s="0">
         <v>0.42772828675515046</v>
       </c>
-      <c r="G70" s="0">
+      <c r="H70" s="0">
         <v>-4.8289228271456084</v>
       </c>
-      <c r="H70" s="0">
+      <c r="I70" s="0">
         <v>32.849999999999994</v>
       </c>
     </row>
@@ -1930,15 +2144,18 @@
         <v>0.18295812316584409</v>
       </c>
       <c r="E71" s="0">
+        <v>1.1012629780183514</v>
+      </c>
+      <c r="F71" s="0">
         <v>0.17955555314190624</v>
       </c>
-      <c r="F71" s="0">
+      <c r="G71" s="0">
         <v>0.42535490793783037</v>
       </c>
-      <c r="G71" s="0">
+      <c r="H71" s="0">
         <v>-4.9306418187573122</v>
       </c>
-      <c r="H71" s="0">
+      <c r="I71" s="0">
         <v>32.450000000000003</v>
       </c>
     </row>
@@ -1956,15 +2173,18 @@
         <v>0.18342074523926999</v>
       </c>
       <c r="E72" s="0">
+        <v>1.1163342649326122</v>
+      </c>
+      <c r="F72" s="0">
         <v>0.18215779598699505</v>
       </c>
-      <c r="F72" s="0">
+      <c r="G72" s="0">
         <v>0.42134278156729477</v>
       </c>
-      <c r="G72" s="0">
+      <c r="H72" s="0">
         <v>-5.0326742101531909</v>
       </c>
-      <c r="H72" s="0">
+      <c r="I72" s="0">
         <v>32.099999999999994</v>
       </c>
     </row>
@@ -1982,15 +2202,18 @@
         <v>0.18388560993895162</v>
       </c>
       <c r="E73" s="0">
+        <v>1.1313413904915608</v>
+      </c>
+      <c r="F73" s="0">
         <v>0.18476003929017495</v>
       </c>
-      <c r="F73" s="0">
+      <c r="G73" s="0">
         <v>0.41763221487144342</v>
       </c>
-      <c r="G73" s="0">
+      <c r="H73" s="0">
         <v>-5.1340820244927556</v>
       </c>
-      <c r="H73" s="0">
+      <c r="I73" s="0">
         <v>31.750000000000007</v>
       </c>
     </row>
@@ -2008,15 +2231,18 @@
         <v>0.18435271520424959</v>
       </c>
       <c r="E74" s="0">
+        <v>1.1462836468983157</v>
+      </c>
+      <c r="F74" s="0">
         <v>0.18736228303658684</v>
       </c>
-      <c r="F74" s="0">
+      <c r="G74" s="0">
         <v>0.41226613176445126</v>
       </c>
-      <c r="G74" s="0">
+      <c r="H74" s="0">
         <v>-5.2357932253941817</v>
       </c>
-      <c r="H74" s="0">
+      <c r="I74" s="0">
         <v>31.450000000000003</v>
       </c>
     </row>
@@ -2034,15 +2260,18 @@
         <v>0.18482205897418685</v>
       </c>
       <c r="E75" s="0">
+        <v>1.1611603572607392</v>
+      </c>
+      <c r="F75" s="0">
         <v>0.18996452721153961</v>
       </c>
-      <c r="F75" s="0">
+      <c r="G75" s="0">
         <v>0.40914046278633437</v>
       </c>
-      <c r="G75" s="0">
+      <c r="H75" s="0">
         <v>-5.3358715727987223</v>
       </c>
-      <c r="H75" s="0">
+      <c r="I75" s="0">
         <v>31.099999999999994</v>
       </c>
     </row>
@@ -2060,15 +2289,18 @@
         <v>0.18529363918746683</v>
       </c>
       <c r="E76" s="0">
+        <v>1.1759708747059008</v>
+      </c>
+      <c r="F76" s="0">
         <v>0.19256677180051868</v>
       </c>
-      <c r="F76" s="0">
+      <c r="G76" s="0">
         <v>0.40434542858648048</v>
       </c>
-      <c r="G76" s="0">
+      <c r="H76" s="0">
         <v>-5.4362188437445482</v>
       </c>
-      <c r="H76" s="0">
+      <c r="I76" s="0">
         <v>30.799999999999997</v>
       </c>
     </row>
@@ -2086,15 +2318,18 @@
         <v>0.18576745378249152</v>
       </c>
       <c r="E77" s="0">
+        <v>1.1907145815218763</v>
+      </c>
+      <c r="F77" s="0">
         <v>0.19516901678919446</v>
       </c>
-      <c r="F77" s="0">
+      <c r="G77" s="0">
         <v>0.40178242842506739</v>
       </c>
-      <c r="G77" s="0">
+      <c r="H77" s="0">
         <v>-5.5348518575067729</v>
       </c>
-      <c r="H77" s="0">
+      <c r="I77" s="0">
         <v>30.450000000000003</v>
       </c>
     </row>
@@ -2112,15 +2347,18 @@
         <v>0.18624350069737988</v>
       </c>
       <c r="E78" s="0">
+        <v>1.2053908883258901</v>
+      </c>
+      <c r="F78" s="0">
         <v>0.19777126216343049</v>
       </c>
-      <c r="F78" s="0">
+      <c r="G78" s="0">
         <v>0.39753661396625067</v>
       </c>
-      <c r="G78" s="0">
+      <c r="H78" s="0">
         <v>-5.6337256471035495</v>
       </c>
-      <c r="H78" s="0">
+      <c r="I78" s="0">
         <v>30.149999999999995</v>
       </c>
     </row>
@@ -2138,15 +2376,18 @@
         <v>0.18672177786998559</v>
       </c>
       <c r="E79" s="0">
+        <v>1.2199992332578795</v>
+      </c>
+      <c r="F79" s="0">
         <v>0.20037350790929109</v>
       </c>
-      <c r="F79" s="0">
+      <c r="G79" s="0">
         <v>0.39355671104912282</v>
       </c>
-      <c r="G79" s="0">
+      <c r="H79" s="0">
         <v>-5.7318304634372126</v>
       </c>
-      <c r="H79" s="0">
+      <c r="I79" s="0">
         <v>29.849999999999994</v>
       </c>
     </row>
@@ -2164,15 +2405,18 @@
         <v>0.18720228323791571</v>
       </c>
       <c r="E80" s="0">
+        <v>1.2345390811985582</v>
+      </c>
+      <c r="F80" s="0">
         <v>0.20297575401304857</v>
       </c>
-      <c r="F80" s="0">
+      <c r="G80" s="0">
         <v>0.38983747369434962</v>
       </c>
-      <c r="G80" s="0">
+      <c r="H80" s="0">
         <v>-5.8291429693090544</v>
       </c>
-      <c r="H80" s="0">
+      <c r="I80" s="0">
         <v>29.550000000000001</v>
       </c>
     </row>
@@ -2190,15 +2434,18 @@
         <v>0.1876850147385484</v>
       </c>
       <c r="E81" s="0">
+        <v>1.2490099230111411</v>
+      </c>
+      <c r="F81" s="0">
         <v>0.20557800046119057</v>
       </c>
-      <c r="F81" s="0">
+      <c r="G81" s="0">
         <v>0.38441332306307607</v>
       </c>
-      <c r="G81" s="0">
+      <c r="H81" s="0">
         <v>-5.9266814041740847</v>
       </c>
-      <c r="H81" s="0">
+      <c r="I81" s="0">
         <v>29.299999999999997</v>
       </c>
     </row>
@@ -2216,15 +2463,18 @@
         <v>0.18816997030905147</v>
       </c>
       <c r="E82" s="0">
+        <v>1.2634112748058741</v>
+      </c>
+      <c r="F82" s="0">
         <v>0.20818024724042672</v>
       </c>
-      <c r="F82" s="0">
+      <c r="G82" s="0">
         <v>0.38119880462508149</v>
       </c>
-      <c r="G82" s="0">
+      <c r="H82" s="0">
         <v>-6.0223555964232949</v>
       </c>
-      <c r="H82" s="0">
+      <c r="I82" s="0">
         <v>29</v>
       </c>
     </row>
@@ -2242,15 +2492,18 @@
         <v>0.18865714788640039</v>
       </c>
       <c r="E83" s="0">
+        <v>1.2777426772265859</v>
+      </c>
+      <c r="F83" s="0">
         <v>0.21078249433769497</v>
       </c>
-      <c r="F83" s="0">
+      <c r="G83" s="0">
         <v>0.37822964088389305</v>
       </c>
-      <c r="G83" s="0">
+      <c r="H83" s="0">
         <v>-6.1171746239656075</v>
       </c>
-      <c r="H83" s="0">
+      <c r="I83" s="0">
         <v>28.700000000000003</v>
       </c>
     </row>
@@ -2268,15 +2521,18 @@
         <v>0.18914654540739645</v>
       </c>
       <c r="E84" s="0">
+        <v>1.2920036947584896</v>
+      </c>
+      <c r="F84" s="0">
         <v>0.21338474174016792</v>
       </c>
-      <c r="F84" s="0">
+      <c r="G84" s="0">
         <v>0.37353695846167356</v>
       </c>
-      <c r="G84" s="0">
+      <c r="H84" s="0">
         <v>-6.2121907151257796</v>
       </c>
-      <c r="H84" s="0">
+      <c r="I84" s="0">
         <v>28.450000000000006</v>
       </c>
     </row>
@@ -2294,15 +2550,18 @@
         <v>0.18963816080868512</v>
       </c>
       <c r="E85" s="0">
+        <v>1.3061939150564934</v>
+      </c>
+      <c r="F85" s="0">
         <v>0.21598698943525821</v>
       </c>
-      <c r="F85" s="0">
+      <c r="G85" s="0">
         <v>0.36907750367662351</v>
       </c>
-      <c r="G85" s="0">
+      <c r="H85" s="0">
         <v>-6.3063345080115116</v>
       </c>
-      <c r="H85" s="0">
+      <c r="I85" s="0">
         <v>28.200000000000003</v>
       </c>
     </row>
@@ -2320,15 +2579,18 @@
         <v>0.19013199202677392</v>
       </c>
       <c r="E86" s="0">
+        <v>1.3203129482933187</v>
+      </c>
+      <c r="F86" s="0">
         <v>0.21858923741062425</v>
       </c>
-      <c r="F86" s="0">
+      <c r="G86" s="0">
         <v>0.36484657667179987</v>
       </c>
-      <c r="G86" s="0">
+      <c r="H86" s="0">
         <v>-6.3995896313960152</v>
       </c>
-      <c r="H86" s="0">
+      <c r="I86" s="0">
         <v>27.950000000000003</v>
       </c>
     </row>
@@ -2346,15 +2608,18 @@
         <v>0.19062803699805111</v>
       </c>
       <c r="E87" s="0">
+        <v>1.3343604265267381</v>
+      </c>
+      <c r="F87" s="0">
         <v>0.22119148565417543</v>
       </c>
-      <c r="F87" s="0">
+      <c r="G87" s="0">
         <v>0.36280705696126003</v>
       </c>
-      <c r="G87" s="0">
+      <c r="H87" s="0">
         <v>-6.4908470792161745</v>
       </c>
-      <c r="H87" s="0">
+      <c r="I87" s="0">
         <v>27.649999999999991</v>
       </c>
     </row>
@@ -2372,15 +2637,18 @@
         <v>0.19112629365880351</v>
       </c>
       <c r="E88" s="0">
+        <v>1.348336003085284</v>
+      </c>
+      <c r="F88" s="0">
         <v>0.22379373415407647</v>
       </c>
-      <c r="F88" s="0">
+      <c r="G88" s="0">
         <v>0.35902049119460144</v>
       </c>
-      <c r="G88" s="0">
+      <c r="H88" s="0">
         <v>-6.5822717544571461</v>
       </c>
-      <c r="H88" s="0">
+      <c r="I88" s="0">
         <v>27.399999999999991</v>
       </c>
     </row>
@@ -2398,15 +2666,18 @@
         <v>0.19162675994523481</v>
       </c>
       <c r="E89" s="0">
+        <v>1.3622393519717924</v>
+      </c>
+      <c r="F89" s="0">
         <v>0.22639598289875243</v>
       </c>
-      <c r="F89" s="0">
+      <c r="G89" s="0">
         <v>0.3534790495811384</v>
       </c>
-      <c r="G89" s="0">
+      <c r="H89" s="0">
         <v>-6.6738732910499259</v>
       </c>
-      <c r="H89" s="0">
+      <c r="I89" s="0">
         <v>27.200000000000003</v>
       </c>
     </row>
@@ -2424,15 +2695,18 @@
         <v>0.19212943379348382</v>
       </c>
       <c r="E90" s="0">
+        <v>1.3760701672841837</v>
+      </c>
+      <c r="F90" s="0">
         <v>0.22899823187689239</v>
       </c>
-      <c r="F90" s="0">
+      <c r="G90" s="0">
         <v>0.35011669455022565</v>
       </c>
-      <c r="G90" s="0">
+      <c r="H90" s="0">
         <v>-6.7634284210783351</v>
       </c>
-      <c r="H90" s="0">
+      <c r="I90" s="0">
         <v>26.949999999999999</v>
       </c>
     </row>
@@ -2450,15 +2724,18 @@
         <v>0.19263431313964266</v>
       </c>
       <c r="E91" s="0">
+        <v>1.3898281626528963</v>
+      </c>
+      <c r="F91" s="0">
         <v>0.2316004810774534</v>
       </c>
-      <c r="F91" s="0">
+      <c r="G91" s="0">
         <v>0.34696047566859423</v>
       </c>
-      <c r="G91" s="0">
+      <c r="H91" s="0">
         <v>-6.852026463714779</v>
       </c>
-      <c r="H91" s="0">
+      <c r="I91" s="0">
         <v>26.700000000000003</v>
       </c>
     </row>
@@ -2476,15 +2753,18 @@
         <v>0.19314139591977503</v>
       </c>
       <c r="E92" s="0">
+        <v>1.4035130706944101</v>
+      </c>
+      <c r="F92" s="0">
         <v>0.23420273048966411</v>
       </c>
-      <c r="F92" s="0">
+      <c r="G92" s="0">
         <v>0.34400614490681236</v>
       </c>
-      <c r="G92" s="0">
+      <c r="H92" s="0">
         <v>-6.9396561460970094</v>
       </c>
-      <c r="H92" s="0">
+      <c r="I92" s="0">
         <v>26.450000000000003</v>
       </c>
     </row>
@@ -2502,15 +2782,18 @@
         <v>0.19365068006993438</v>
       </c>
       <c r="E93" s="0">
+        <v>1.4171246424803283</v>
+      </c>
+      <c r="F93" s="0">
         <v>0.23680498010302792</v>
       </c>
-      <c r="F93" s="0">
+      <c r="G93" s="0">
         <v>0.33927567438566131</v>
       </c>
-      <c r="G93" s="0">
+      <c r="H93" s="0">
         <v>-7.0274441190313421</v>
       </c>
-      <c r="H93" s="0">
+      <c r="I93" s="0">
         <v>26.25</v>
       </c>
     </row>
@@ -2528,15 +2811,18 @@
         <v>0.1941621635261821</v>
       </c>
       <c r="E94" s="0">
+        <v>1.4306626470214969</v>
+      </c>
+      <c r="F94" s="0">
         <v>0.23940722990732546</v>
       </c>
-      <c r="F94" s="0">
+      <c r="G94" s="0">
         <v>0.33671180098203585</v>
       </c>
-      <c r="G94" s="0">
+      <c r="H94" s="0">
         <v>-7.1131148584485597</v>
       </c>
-      <c r="H94" s="0">
+      <c r="I94" s="0">
         <v>26.000000000000004</v>
       </c>
     </row>
@@ -2554,15 +2840,18 @@
         <v>0.19467584422460585</v>
       </c>
       <c r="E95" s="0">
+        <v>1.4441268707666619</v>
+      </c>
+      <c r="F95" s="0">
         <v>0.2420094798926174</v>
       </c>
-      <c r="F95" s="0">
+      <c r="G95" s="0">
         <v>0.33236173864891583</v>
       </c>
-      <c r="G95" s="0">
+      <c r="H95" s="0">
         <v>-7.1989371871893555</v>
       </c>
-      <c r="H95" s="0">
+      <c r="I95" s="0">
         <v>25.799999999999997</v>
       </c>
     </row>
@@ -2580,15 +2869,18 @@
         <v>0.19519172010133767</v>
       </c>
       <c r="E96" s="0">
+        <v>1.4575171171151955</v>
+      </c>
+      <c r="F96" s="0">
         <v>0.24461173004924661</v>
       </c>
-      <c r="F96" s="0">
+      <c r="G96" s="0">
         <v>0.3281955141392664</v>
       </c>
-      <c r="G96" s="0">
+      <c r="H96" s="0">
         <v>-7.2837657719424698</v>
       </c>
-      <c r="H96" s="0">
+      <c r="I96" s="0">
         <v>25.599999999999994</v>
       </c>
     </row>
@@ -2606,15 +2898,18 @@
         <v>0.19570978909257233</v>
       </c>
       <c r="E97" s="0">
+        <v>1.4708332059434153</v>
+      </c>
+      <c r="F97" s="0">
         <v>0.24721398036783993</v>
       </c>
-      <c r="F97" s="0">
+      <c r="G97" s="0">
         <v>0.32420936904567177</v>
       </c>
-      <c r="G97" s="0">
+      <c r="H97" s="0">
         <v>-7.3675931147590843</v>
       </c>
-      <c r="H97" s="0">
+      <c r="I97" s="0">
         <v>25.399999999999991</v>
       </c>
     </row>
@@ -2632,15 +2927,18 @@
         <v>0.19623004913458536</v>
       </c>
       <c r="E98" s="0">
+        <v>1.4840749731440708</v>
+      </c>
+      <c r="F98" s="0">
         <v>0.24981623083930962</v>
       </c>
-      <c r="F98" s="0">
+      <c r="G98" s="0">
         <v>0.32237850826571002</v>
       </c>
-      <c r="G98" s="0">
+      <c r="H98" s="0">
         <v>-7.4492521476088021</v>
       </c>
-      <c r="H98" s="0">
+      <c r="I98" s="0">
         <v>25.149999999999991</v>
       </c>
     </row>
@@ -2658,15 +2956,18 @@
         <v>0.1967524981637517</v>
       </c>
       <c r="E99" s="0">
+        <v>1.4972422701785515</v>
+      </c>
+      <c r="F99" s="0">
         <v>0.25241848145485457</v>
       </c>
-      <c r="F99" s="0">
+      <c r="G99" s="0">
         <v>0.31874248878986866</v>
       </c>
-      <c r="G99" s="0">
+      <c r="H99" s="0">
         <v>-7.5310530812336864</v>
       </c>
-      <c r="H99" s="0">
+      <c r="I99" s="0">
         <v>24.950000000000003</v>
       </c>
     </row>
@@ -2684,15 +2985,18 @@
         <v>0.19727713411656342</v>
       </c>
       <c r="E100" s="0">
+        <v>1.5103349636414312</v>
+      </c>
+      <c r="F100" s="0">
         <v>0.25502073220596128</v>
       </c>
-      <c r="F100" s="0">
+      <c r="G100" s="0">
         <v>0.31527567863647743</v>
       </c>
-      <c r="G100" s="0">
+      <c r="H100" s="0">
         <v>-7.6118336661404395</v>
       </c>
-      <c r="H100" s="0">
+      <c r="I100" s="0">
         <v>24.750000000000004</v>
       </c>
     </row>
@@ -2710,15 +3014,18 @@
         <v>0.19780395492964825</v>
       </c>
       <c r="E101" s="0">
+        <v>1.523352934836927</v>
+      </c>
+      <c r="F101" s="0">
         <v>0.25762298308440462</v>
       </c>
-      <c r="F101" s="0">
+      <c r="G101" s="0">
         <v>0.31197461048105241</v>
       </c>
-      <c r="G101" s="0">
+      <c r="H101" s="0">
         <v>-7.6915886478820488</v>
       </c>
-      <c r="H101" s="0">
+      <c r="I101" s="0">
         <v>24.549999999999997</v>
       </c>
     </row>
@@ -2736,15 +3043,18 @@
         <v>0.19833295853978775</v>
       </c>
       <c r="E102" s="0">
+        <v>1.5362960793669094</v>
+      </c>
+      <c r="F102" s="0">
         <v>0.2602252340822469</v>
       </c>
-      <c r="F102" s="0">
+      <c r="G102" s="0">
         <v>0.30685338080817753</v>
       </c>
-      <c r="G102" s="0">
+      <c r="H102" s="0">
         <v>-7.7714894521431459</v>
       </c>
-      <c r="H102" s="0">
+      <c r="I102" s="0">
         <v>24.399999999999991</v>
       </c>
     </row>
@@ -2762,15 +3072,18 @@
         <v>0.19886414288393578</v>
       </c>
       <c r="E103" s="0">
+        <v>1.5491643067300929</v>
+      </c>
+      <c r="F103" s="0">
         <v>0.26282748519183952</v>
       </c>
-      <c r="F103" s="0">
+      <c r="G103" s="0">
         <v>0.30387284753375288</v>
       </c>
-      <c r="G103" s="0">
+      <c r="H103" s="0">
         <v>-7.8491837817103818</v>
       </c>
-      <c r="H103" s="0">
+      <c r="I103" s="0">
         <v>24.200000000000003</v>
       </c>
     </row>
@@ -2788,15 +3101,18 @@
         <v>0.19939750589923616</v>
       </c>
       <c r="E104" s="0">
+        <v>1.561957539932056</v>
+      </c>
+      <c r="F104" s="0">
         <v>0.26542973640582074</v>
       </c>
-      <c r="F104" s="0">
+      <c r="G104" s="0">
         <v>0.30104810566129658</v>
       </c>
-      <c r="G104" s="0">
+      <c r="H104" s="0">
         <v>-7.9258398078418733</v>
       </c>
-      <c r="H104" s="0">
+      <c r="I104" s="0">
         <v>24</v>
       </c>
     </row>
@@ -2814,15 +3130,18 @@
         <v>0.19993304552304164</v>
       </c>
       <c r="E105" s="0">
+        <v>1.5746757151057456</v>
+      </c>
+      <c r="F105" s="0">
         <v>0.26803198771711639</v>
       </c>
-      <c r="F105" s="0">
+      <c r="G105" s="0">
         <v>0.29837596721809878</v>
       </c>
-      <c r="G105" s="0">
+      <c r="H105" s="0">
         <v>-8.0014541547562672</v>
       </c>
-      <c r="H105" s="0">
+      <c r="I105" s="0">
         <v>23.799999999999997</v>
       </c>
     </row>
@@ -2840,15 +3159,18 @@
         <v>0.20047075969293143</v>
       </c>
       <c r="E106" s="0">
+        <v>1.5873187811421461</v>
+      </c>
+      <c r="F106" s="0">
         <v>0.27063423911893747</v>
       </c>
-      <c r="F106" s="0">
+      <c r="G106" s="0">
         <v>0.29386743583357022</v>
       </c>
-      <c r="G106" s="0">
+      <c r="H106" s="0">
         <v>-8.0772120784707973</v>
       </c>
-      <c r="H106" s="0">
+      <c r="I106" s="0">
         <v>23.649999999999991</v>
       </c>
     </row>
@@ -2866,15 +3188,18 @@
         <v>0.20101064634673008</v>
       </c>
       <c r="E107" s="0">
+        <v>1.5998866993307914</v>
+      </c>
+      <c r="F107" s="0">
         <v>0.27323649060477967</v>
       </c>
-      <c r="F107" s="0">
+      <c r="G107" s="0">
         <v>0.29149048496631369</v>
       </c>
-      <c r="G107" s="0">
+      <c r="H107" s="0">
         <v>-8.1507394877692292</v>
       </c>
-      <c r="H107" s="0">
+      <c r="I107" s="0">
         <v>23.450000000000003</v>
       </c>
     </row>
@@ -2892,15 +3217,18 @@
         <v>0.20155270342252532</v>
       </c>
       <c r="E108" s="0">
+        <v>1.6123794430098224</v>
+      </c>
+      <c r="F108" s="0">
         <v>0.2758387421684213</v>
       </c>
-      <c r="F108" s="0">
+      <c r="G108" s="0">
         <v>0.28726949764565612</v>
       </c>
-      <c r="G108" s="0">
+      <c r="H108" s="0">
         <v>-8.2244095427122037</v>
       </c>
-      <c r="H108" s="0">
+      <c r="I108" s="0">
         <v>23.299999999999997</v>
       </c>
     </row>
@@ -2918,15 +3246,18 @@
         <v>0.20209692885868638</v>
       </c>
       <c r="E109" s="0">
+        <v>1.6247969972252889</v>
+      </c>
+      <c r="F109" s="0">
         <v>0.27844099380392073</v>
       </c>
-      <c r="F109" s="0">
+      <c r="G109" s="0">
         <v>0.28517587995928195</v>
       </c>
-      <c r="G109" s="0">
+      <c r="H109" s="0">
         <v>-8.2958419058985164</v>
       </c>
-      <c r="H109" s="0">
+      <c r="I109" s="0">
         <v>23.099999999999994</v>
       </c>
     </row>
@@ -2944,15 +3275,18 @@
         <v>0.20264332059388226</v>
       </c>
       <c r="E110" s="0">
+        <v>1.6371393583994247</v>
+      </c>
+      <c r="F110" s="0">
         <v>0.28104324550561471</v>
       </c>
-      <c r="F110" s="0">
+      <c r="G110" s="0">
         <v>0.28123093793649356</v>
       </c>
-      <c r="G110" s="0">
+      <c r="H110" s="0">
         <v>-8.3674179275015632</v>
       </c>
-      <c r="H110" s="0">
+      <c r="I110" s="0">
         <v>22.949999999999989</v>
       </c>
     </row>
@@ -2970,15 +3304,18 @@
         <v>0.20319187656710008</v>
       </c>
       <c r="E111" s="0">
+        <v>1.6494065340076152</v>
+      </c>
+      <c r="F111" s="0">
         <v>0.28364549726811517</v>
       </c>
-      <c r="F111" s="0">
+      <c r="G111" s="0">
         <v>0.27940930558659749</v>
       </c>
-      <c r="G111" s="0">
+      <c r="H111" s="0">
         <v>-8.4367500421451052</v>
       </c>
-      <c r="H111" s="0">
+      <c r="I111" s="0">
         <v>22.75</v>
       </c>
     </row>
@@ -2996,15 +3333,18 @@
         <v>0.20374259471766307</v>
       </c>
       <c r="E112" s="0">
+        <v>1.6615985422637958</v>
+      </c>
+      <c r="F112" s="0">
         <v>0.28624774908630618</v>
       </c>
-      <c r="F112" s="0">
+      <c r="G112" s="0">
         <v>0.2757294013957754</v>
       </c>
-      <c r="G112" s="0">
+      <c r="H112" s="0">
         <v>-8.5062286830401561</v>
       </c>
-      <c r="H112" s="0">
+      <c r="I112" s="0">
         <v>22.599999999999991</v>
       </c>
     </row>
@@ -3022,15 +3362,18 @@
         <v>0.20429547298524905</v>
       </c>
       <c r="E113" s="0">
+        <v>1.6737154118140345</v>
+      </c>
+      <c r="F113" s="0">
         <v>0.28885000095534058</v>
       </c>
-      <c r="F113" s="0">
+      <c r="G113" s="0">
         <v>0.27217764853493243</v>
       </c>
-      <c r="G113" s="0">
+      <c r="H113" s="0">
         <v>-8.5746577906013481</v>
       </c>
-      <c r="H113" s="0">
+      <c r="I113" s="0">
         <v>22.449999999999989</v>
       </c>
     </row>
@@ -3048,15 +3391,18 @@
         <v>0.20485050930990853</v>
       </c>
       <c r="E114" s="0">
+        <v>1.6857571814380499</v>
+      </c>
+      <c r="F114" s="0">
         <v>0.29145225287063603</v>
       </c>
-      <c r="F114" s="0">
+      <c r="G114" s="0">
         <v>0.26875149429820516</v>
       </c>
-      <c r="G114" s="0">
+      <c r="H114" s="0">
         <v>-8.6420375755900221</v>
       </c>
-      <c r="H114" s="0">
+      <c r="I114" s="0">
         <v>22.299999999999994</v>
       </c>
     </row>
@@ -3074,15 +3420,18 @@
         <v>0.20540770163208302</v>
       </c>
       <c r="E115" s="0">
+        <v>1.6977238997584294</v>
+      </c>
+      <c r="F115" s="0">
         <v>0.2940545048278716</v>
       </c>
-      <c r="F115" s="0">
+      <c r="G115" s="0">
         <v>0.26744117940800766</v>
       </c>
-      <c r="G115" s="0">
+      <c r="H115" s="0">
         <v>-8.7071700653589623</v>
       </c>
-      <c r="H115" s="0">
+      <c r="I115" s="0">
         <v>22.099999999999994</v>
       </c>
     </row>
@@ -3100,15 +3449,18 @@
         <v>0.20596704789262321</v>
       </c>
       <c r="E116" s="0">
+        <v>1.7096156249573218</v>
+      </c>
+      <c r="F116" s="0">
         <v>0.29665675682298248</v>
       </c>
-      <c r="F116" s="0">
+      <c r="G116" s="0">
         <v>0.26425949823926187</v>
       </c>
-      <c r="G116" s="0">
+      <c r="H116" s="0">
         <v>-8.7724535126622794</v>
       </c>
-      <c r="H116" s="0">
+      <c r="I116" s="0">
         <v>21.949999999999992</v>
       </c>
     </row>
@@ -3126,15 +3478,18 @@
         <v>0.20652854603280729</v>
       </c>
       <c r="E117" s="0">
+        <v>1.7214324245003854</v>
+      </c>
+      <c r="F117" s="0">
         <v>0.29925900885215567</v>
       </c>
-      <c r="F117" s="0">
+      <c r="G117" s="0">
         <v>0.2611960668209759</v>
       </c>
-      <c r="G117" s="0">
+      <c r="H117" s="0">
         <v>-8.8366898797515265</v>
       </c>
-      <c r="H117" s="0">
+      <c r="I117" s="0">
         <v>21.799999999999997</v>
       </c>
     </row>
@@ -3152,15 +3507,18 @@
         <v>0.2070921939943591</v>
       </c>
       <c r="E118" s="0">
+        <v>1.7331743748677804</v>
+      </c>
+      <c r="F118" s="0">
         <v>0.3018612609118253</v>
       </c>
-      <c r="F118" s="0">
+      <c r="G118" s="0">
         <v>0.25824854965424315</v>
       </c>
-      <c r="G118" s="0">
+      <c r="H118" s="0">
         <v>-8.8998804721481406</v>
       </c>
-      <c r="H118" s="0">
+      <c r="I118" s="0">
         <v>21.649999999999995</v>
       </c>
     </row>
@@ -3178,15 +3536,18 @@
         <v>0.20765798971946628</v>
       </c>
       <c r="E119" s="0">
+        <v>1.7448415612920003</v>
+      </c>
+      <c r="F119" s="0">
         <v>0.30446351299866636</v>
       </c>
-      <c r="F119" s="0">
+      <c r="G119" s="0">
         <v>0.25541466280084824</v>
       </c>
-      <c r="G119" s="0">
+      <c r="H119" s="0">
         <v>-8.962026840533337</v>
       </c>
-      <c r="H119" s="0">
+      <c r="I119" s="0">
         <v>21.5</v>
       </c>
     </row>
@@ -3204,15 +3565,18 @@
         <v>0.20822593115079879</v>
       </c>
       <c r="E120" s="0">
+        <v>1.7564340775023457</v>
+      </c>
+      <c r="F120" s="0">
         <v>0.30706576510958977</v>
       </c>
-      <c r="F120" s="0">
+      <c r="G120" s="0">
         <v>0.25269217286708301</v>
       </c>
-      <c r="G120" s="0">
+      <c r="H120" s="0">
         <v>-9.0231307699445864</v>
       </c>
-      <c r="H120" s="0">
+      <c r="I120" s="0">
         <v>21.349999999999998</v>
       </c>
     </row>
@@ -3230,15 +3594,18 @@
         <v>0.20879601623152677</v>
       </c>
       <c r="E121" s="0">
+        <v>1.7679520254758521</v>
+      </c>
+      <c r="F121" s="0">
         <v>0.30966801724173582</v>
       </c>
-      <c r="F121" s="0">
+      <c r="G121" s="0">
         <v>0.25007889598778882</v>
       </c>
-      <c r="G121" s="0">
+      <c r="H121" s="0">
         <v>-9.0831942694695726</v>
       </c>
-      <c r="H121" s="0">
+      <c r="I121" s="0">
         <v>21.199999999999989</v>
       </c>
     </row>
@@ -3256,15 +3623,18 @@
         <v>0.2093682429053392</v>
       </c>
       <c r="E122" s="0">
+        <v>1.779395515194486</v>
+      </c>
+      <c r="F122" s="0">
         <v>0.31227026939246832</v>
       </c>
-      <c r="F122" s="0">
+      <c r="G122" s="0">
         <v>0.24757269681280625</v>
       </c>
-      <c r="G122" s="0">
+      <c r="H122" s="0">
         <v>-9.1422195624118938</v>
       </c>
-      <c r="H122" s="0">
+      <c r="I122" s="0">
         <v>21.050000000000001</v>
       </c>
     </row>
@@ -3282,15 +3652,18 @@
         <v>0.20994260911646159</v>
       </c>
       <c r="E123" s="0">
+        <v>1.790764664408431</v>
+      </c>
+      <c r="F123" s="0">
         <v>0.31487252155936724</v>
       </c>
-      <c r="F123" s="0">
+      <c r="G123" s="0">
         <v>0.24317358391516436</v>
       </c>
-      <c r="G123" s="0">
+      <c r="H123" s="0">
         <v>-9.2014064320879729</v>
       </c>
-      <c r="H123" s="0">
+      <c r="I123" s="0">
         <v>20.949999999999989</v>
       </c>
     </row>
@@ -3308,15 +3681,18 @@
         <v>0.21051911280967478</v>
       </c>
       <c r="E124" s="0">
+        <v>1.8020595984052958</v>
+      </c>
+      <c r="F124" s="0">
         <v>0.3174747737402222</v>
       </c>
-      <c r="F124" s="0">
+      <c r="G124" s="0">
         <v>0.2408747554814506</v>
       </c>
-      <c r="G124" s="0">
+      <c r="H124" s="0">
         <v>-9.2583631677223561</v>
       </c>
-      <c r="H124" s="0">
+      <c r="I124" s="0">
         <v>20.799999999999997</v>
       </c>
     </row>
@@ -3334,15 +3710,18 @@
         <v>0.21109775193033262</v>
       </c>
       <c r="E125" s="0">
+        <v>1.8132804497850772</v>
+      </c>
+      <c r="F125" s="0">
         <v>0.32007702593302484</v>
       </c>
-      <c r="F125" s="0">
+      <c r="G125" s="0">
         <v>0.23867689514937257</v>
       </c>
-      <c r="G125" s="0">
+      <c r="H125" s="0">
         <v>-9.3142896829702266</v>
       </c>
-      <c r="H125" s="0">
+      <c r="I125" s="0">
         <v>20.649999999999991</v>
       </c>
     </row>
@@ -3360,15 +3739,18 @@
         <v>0.21167852442438045</v>
       </c>
       <c r="E126" s="0">
+        <v>1.8244273582407149</v>
+      </c>
+      <c r="F126" s="0">
         <v>0.32267927813596137</v>
       </c>
-      <c r="F126" s="0">
+      <c r="G126" s="0">
         <v>0.23657805109710026</v>
       </c>
-      <c r="G126" s="0">
+      <c r="H126" s="0">
         <v>-9.3691889701075279</v>
       </c>
-      <c r="H126" s="0">
+      <c r="I126" s="0">
         <v>20.5</v>
       </c>
     </row>
@@ -3386,15 +3768,18 @@
         <v>0.21226142823837349</v>
       </c>
       <c r="E127" s="0">
+        <v>1.8355004703440856</v>
+      </c>
+      <c r="F127" s="0">
         <v>0.32528153034740398</v>
       </c>
-      <c r="F127" s="0">
+      <c r="G127" s="0">
         <v>0.23257607830163052</v>
       </c>
-      <c r="G127" s="0">
+      <c r="H127" s="0">
         <v>-9.4242565537383722</v>
       </c>
-      <c r="H127" s="0">
+      <c r="I127" s="0">
         <v>20.399999999999991</v>
       </c>
     </row>
@@ -3412,15 +3797,18 @@
         <v>0.2128464613194947</v>
       </c>
       <c r="E128" s="0">
+        <v>1.8464999393372914</v>
+      </c>
+      <c r="F128" s="0">
         <v>0.32788378256590356</v>
       </c>
-      <c r="F128" s="0">
+      <c r="G128" s="0">
         <v>0.23066907730227867</v>
       </c>
-      <c r="G128" s="0">
+      <c r="H128" s="0">
         <v>-9.4771118750041765</v>
       </c>
-      <c r="H128" s="0">
+      <c r="I128" s="0">
         <v>20.25</v>
       </c>
     </row>
@@ -3438,15 +3826,18 @@
         <v>0.21343362161557325</v>
       </c>
       <c r="E129" s="0">
+        <v>1.8574259249290872</v>
+      </c>
+      <c r="F129" s="0">
         <v>0.33048603479017963</v>
       </c>
-      <c r="F129" s="0">
+      <c r="G129" s="0">
         <v>0.22885550812308875</v>
       </c>
-      <c r="G129" s="0">
+      <c r="H129" s="0">
         <v>-9.528950071862285</v>
       </c>
-      <c r="H129" s="0">
+      <c r="I129" s="0">
         <v>20.099999999999994</v>
       </c>
     </row>
@@ -3464,15 +3855,18 @@
         <v>0.21402290707510238</v>
       </c>
       <c r="E130" s="0">
+        <v>1.8682785930963213</v>
+      </c>
+      <c r="F130" s="0">
         <v>0.33308828701911275</v>
       </c>
-      <c r="F130" s="0">
+      <c r="G130" s="0">
         <v>0.22513172100842188</v>
       </c>
-      <c r="G130" s="0">
+      <c r="H130" s="0">
         <v>-9.5809626800770182</v>
       </c>
-      <c r="H130" s="0">
+      <c r="I130" s="0">
         <v>20</v>
       </c>
     </row>
@@ -3490,15 +3884,18 @@
         <v>0.21461431564725805</v>
       </c>
       <c r="E131" s="0">
+        <v>1.8790581158902355</v>
+      </c>
+      <c r="F131" s="0">
         <v>0.33569053925173387</v>
       </c>
-      <c r="F131" s="0">
+      <c r="G131" s="0">
         <v>0.22349923725049689</v>
       </c>
-      <c r="G131" s="0">
+      <c r="H131" s="0">
         <v>-9.630778864801087</v>
       </c>
-      <c r="H131" s="0">
+      <c r="I131" s="0">
         <v>19.849999999999991</v>
       </c>
     </row>
@@ -3516,15 +3913,18 @@
         <v>0.21520784528191686</v>
       </c>
       <c r="E132" s="0">
+        <v>1.8897646712475147</v>
+      </c>
+      <c r="F132" s="0">
         <v>0.33829279148721586</v>
       </c>
-      <c r="F132" s="0">
+      <c r="G132" s="0">
         <v>0.21995203419763976</v>
       </c>
-      <c r="G132" s="0">
+      <c r="H132" s="0">
         <v>-9.6807723644230332</v>
       </c>
-      <c r="H132" s="0">
+      <c r="I132" s="0">
         <v>19.75</v>
       </c>
     </row>
@@ -3542,15 +3942,18 @@
         <v>0.21580349392967429</v>
       </c>
       <c r="E133" s="0">
+        <v>1.9003984428059415</v>
+      </c>
+      <c r="F133" s="0">
         <v>0.34089504372486273</v>
       </c>
-      <c r="F133" s="0">
+      <c r="G133" s="0">
         <v>0.21849386408467888</v>
       </c>
-      <c r="G133" s="0">
+      <c r="H133" s="0">
         <v>-9.7285826845995018</v>
       </c>
-      <c r="H133" s="0">
+      <c r="I133" s="0">
         <v>19.599999999999994</v>
       </c>
     </row>
@@ -3568,15 +3971,18 @@
         <v>0.2164012595418629</v>
       </c>
       <c r="E134" s="0">
+        <v>1.9109596197245435</v>
+      </c>
+      <c r="F134" s="0">
         <v>0.34349729596409939</v>
       </c>
-      <c r="F134" s="0">
+      <c r="G134" s="0">
         <v>0.21511667735267259</v>
       </c>
-      <c r="G134" s="0">
+      <c r="H134" s="0">
         <v>-9.7765741390488312</v>
       </c>
-      <c r="H134" s="0">
+      <c r="I134" s="0">
         <v>19.5</v>
       </c>
     </row>
@@ -3594,15 +4000,18 @@
         <v>0.21700114007057039</v>
       </c>
       <c r="E135" s="0">
+        <v>1.9214483965081144</v>
+      </c>
+      <c r="F135" s="0">
         <v>0.34609954820446154</v>
       </c>
-      <c r="F135" s="0">
+      <c r="G135" s="0">
         <v>0.21382634499076658</v>
       </c>
-      <c r="G135" s="0">
+      <c r="H135" s="0">
         <v>-9.8223957752629065</v>
       </c>
-      <c r="H135" s="0">
+      <c r="I135" s="0">
         <v>19.349999999999998</v>
       </c>
     </row>
@@ -3620,15 +4029,18 @@
         <v>0.21760313346865803</v>
       </c>
       <c r="E136" s="0">
+        <v>1.9318649728359816</v>
+      </c>
+      <c r="F136" s="0">
         <v>0.34870180044558419</v>
       </c>
-      <c r="F136" s="0">
+      <c r="G136" s="0">
         <v>0.21061289245289663</v>
       </c>
-      <c r="G136" s="0">
+      <c r="H136" s="0">
         <v>-9.8684032461854443</v>
       </c>
-      <c r="H136" s="0">
+      <c r="I136" s="0">
         <v>19.250000000000004</v>
       </c>
     </row>
@@ -3646,15 +4058,18 @@
         <v>0.21820723768977862</v>
       </c>
       <c r="E137" s="0">
+        <v>1.9422095533949288</v>
+      </c>
+      <c r="F137" s="0">
         <v>0.35130405268719017</v>
       </c>
-      <c r="F137" s="0">
+      <c r="G137" s="0">
         <v>0.20948420449562721</v>
       </c>
-      <c r="G137" s="0">
+      <c r="H137" s="0">
         <v>-9.9122543191278485</v>
       </c>
-      <c r="H137" s="0">
+      <c r="I137" s="0">
         <v>19.099999999999994</v>
       </c>
     </row>
@@ -3672,15 +4087,18 @@
         <v>0.21881345068839489</v>
       </c>
       <c r="E138" s="0">
+        <v>1.9524823477161508</v>
+      </c>
+      <c r="F138" s="0">
         <v>0.3539063049290796</v>
       </c>
-      <c r="F138" s="0">
+      <c r="G138" s="0">
         <v>0.20642847682094309</v>
       </c>
-      <c r="G138" s="0">
+      <c r="H138" s="0">
         <v>-9.9562967749209061</v>
       </c>
-      <c r="H138" s="0">
+      <c r="I138" s="0">
         <v>19</v>
       </c>
     </row>
@@ -3698,15 +4116,18 @@
         <v>0.21942177041979716</v>
       </c>
       <c r="E139" s="0">
+        <v>1.9626835700161407</v>
+      </c>
+      <c r="F139" s="0">
         <v>0.3565085571711164</v>
       </c>
-      <c r="F139" s="0">
+      <c r="G139" s="0">
         <v>0.20344918765742259</v>
       </c>
-      <c r="G139" s="0">
+      <c r="H139" s="0">
         <v>-9.9993613215411816</v>
       </c>
-      <c r="H139" s="0">
+      <c r="I139" s="0">
         <v>18.899999999999991</v>
       </c>
     </row>
@@ -3724,15 +4145,18 @@
         <v>0.2200321948401221</v>
       </c>
       <c r="E140" s="0">
+        <v>1.9728134390414083</v>
+      </c>
+      <c r="F140" s="0">
         <v>0.35911080941321732</v>
       </c>
-      <c r="F140" s="0">
+      <c r="G140" s="0">
         <v>0.20255175786493995</v>
       </c>
-      <c r="G140" s="0">
+      <c r="H140" s="0">
         <v>-10.040293491589569</v>
       </c>
-      <c r="H140" s="0">
+      <c r="I140" s="0">
         <v>18.750000000000004</v>
       </c>
     </row>
@@ -3750,15 +4174,18 @@
         <v>0.22064472190637069</v>
       </c>
       <c r="E141" s="0">
+        <v>1.9828721779169303</v>
+      </c>
+      <c r="F141" s="0">
         <v>0.36171306165533851</v>
       </c>
-      <c r="F141" s="0">
+      <c r="G141" s="0">
         <v>0.19972167532623739</v>
       </c>
-      <c r="G141" s="0">
+      <c r="H141" s="0">
         <v>-10.081423083852981</v>
       </c>
-      <c r="H141" s="0">
+      <c r="I141" s="0">
         <v>18.649999999999991</v>
       </c>
     </row>
@@ -3776,15 +4203,18 @@
         <v>0.22125934957642601</v>
       </c>
       <c r="E142" s="0">
+        <v>1.9928600139982453</v>
+      </c>
+      <c r="F142" s="0">
         <v>0.36431531389746313</v>
       </c>
-      <c r="F142" s="0">
+      <c r="G142" s="0">
         <v>0.19696392826349268</v>
       </c>
-      <c r="G142" s="0">
+      <c r="H142" s="0">
         <v>-10.121590342192961</v>
       </c>
-      <c r="H142" s="0">
+      <c r="I142" s="0">
         <v>18.549999999999997</v>
       </c>
     </row>
@@ -3802,15 +4232,18 @@
         <v>0.22187607580907193</v>
       </c>
       <c r="E143" s="0">
+        <v>2.0027771787270825</v>
+      </c>
+      <c r="F143" s="0">
         <v>0.36691756613958776</v>
       </c>
-      <c r="F143" s="0">
+      <c r="G143" s="0">
         <v>0.19628531164421209</v>
       </c>
-      <c r="G143" s="0">
+      <c r="H143" s="0">
         <v>-10.159649204337335</v>
       </c>
-      <c r="H143" s="0">
+      <c r="I143" s="0">
         <v>18.399999999999991</v>
       </c>
     </row>
@@ -3828,15 +4261,18 @@
         <v>0.22249489856401078</v>
       </c>
       <c r="E144" s="0">
+        <v>2.0126239074904602</v>
+      </c>
+      <c r="F144" s="0">
         <v>0.36951981838170883</v>
       </c>
-      <c r="F144" s="0">
+      <c r="G144" s="0">
         <v>0.19366879711779439</v>
       </c>
-      <c r="G144" s="0">
+      <c r="H144" s="0">
         <v>-10.19791316961004</v>
       </c>
-      <c r="H144" s="0">
+      <c r="I144" s="0">
         <v>18.299999999999997</v>
       </c>
     </row>
@@ -3854,15 +4290,18 @@
         <v>0.22311581580188194</v>
       </c>
       <c r="E145" s="0">
+        <v>2.0224004394831407</v>
+      </c>
+      <c r="F145" s="0">
         <v>0.3721220706238092</v>
       </c>
-      <c r="F145" s="0">
+      <c r="G145" s="0">
         <v>0.19112077606482225</v>
       </c>
-      <c r="G145" s="0">
+      <c r="H145" s="0">
         <v>-10.235231121531747</v>
       </c>
-      <c r="H145" s="0">
+      <c r="I145" s="0">
         <v>18.199999999999989</v>
       </c>
     </row>
@@ -3880,15 +4319,18 @@
         <v>0.22373882548427931</v>
       </c>
       <c r="E146" s="0">
+        <v>2.0321070175733871</v>
+      </c>
+      <c r="F146" s="0">
         <v>0.3747243228658429</v>
       </c>
-      <c r="F146" s="0">
+      <c r="G146" s="0">
         <v>0.18864002617079259</v>
       </c>
-      <c r="G146" s="0">
+      <c r="H146" s="0">
         <v>-10.271608673459296</v>
       </c>
-      <c r="H146" s="0">
+      <c r="I146" s="0">
         <v>18.099999999999994</v>
       </c>
     </row>
@@ -3906,15 +4348,18 @@
         <v>0.22436392557377033</v>
       </c>
       <c r="E147" s="0">
+        <v>2.0417438881719034</v>
+      </c>
+      <c r="F147" s="0">
         <v>0.37732657510772188</v>
       </c>
-      <c r="F147" s="0">
+      <c r="G147" s="0">
         <v>0.18622535128757783</v>
       </c>
-      <c r="G147" s="0">
+      <c r="H147" s="0">
         <v>-10.307051506028564</v>
       </c>
-      <c r="H147" s="0">
+      <c r="I147" s="0">
         <v>18</v>
       </c>
     </row>
@@ -3932,15 +4377,18 @@
         <v>0.22499111403391306</v>
       </c>
       <c r="E148" s="0">
+        <v>2.0513113011039219</v>
+      </c>
+      <c r="F148" s="0">
         <v>0.37992882734929989</v>
       </c>
-      <c r="F148" s="0">
+      <c r="G148" s="0">
         <v>0.18588570651158928</v>
       </c>
-      <c r="G148" s="0">
+      <c r="H148" s="0">
         <v>-10.34043079845293</v>
       </c>
-      <c r="H148" s="0">
+      <c r="I148" s="0">
         <v>17.849999999999991</v>
       </c>
     </row>
@@ -3958,15 +4406,18 @@
         <v>0.22562038882927513</v>
       </c>
       <c r="E149" s="0">
+        <v>2.0608095094843204</v>
+      </c>
+      <c r="F149" s="0">
         <v>0.38253107959035826</v>
       </c>
-      <c r="F149" s="0">
+      <c r="G149" s="0">
         <v>0.1836000949072506</v>
       </c>
-      <c r="G149" s="0">
+      <c r="H149" s="0">
         <v>-10.374026175665081</v>
       </c>
-      <c r="H149" s="0">
+      <c r="I149" s="0">
         <v>17.75</v>
       </c>
     </row>
@@ -3984,15 +4435,18 @@
         <v>0.22625174792545144</v>
       </c>
       <c r="E150" s="0">
+        <v>2.0702387695957243</v>
+      </c>
+      <c r="F150" s="0">
         <v>0.38513333183058984</v>
       </c>
-      <c r="F150" s="0">
+      <c r="G150" s="0">
         <v>0.18137711170453402</v>
       </c>
-      <c r="G150" s="0">
+      <c r="H150" s="0">
         <v>-10.40670415818046</v>
       </c>
-      <c r="H150" s="0">
+      <c r="I150" s="0">
         <v>17.649999999999988</v>
       </c>
     </row>
@@ -4010,15 +4464,18 @@
         <v>0.22688518928908219</v>
       </c>
       <c r="E151" s="0">
+        <v>2.0795993407695037</v>
+      </c>
+      <c r="F151" s="0">
         <v>0.38773558406958308</v>
       </c>
-      <c r="F151" s="0">
+      <c r="G151" s="0">
         <v>0.17921565975852669</v>
       </c>
-      <c r="G151" s="0">
+      <c r="H151" s="0">
         <v>-10.438470659104372</v>
       </c>
-      <c r="H151" s="0">
+      <c r="I151" s="0">
         <v>17.549999999999994</v>
       </c>
     </row>
@@ -4036,15 +4493,18 @@
         <v>0.22752071088787135</v>
       </c>
       <c r="E152" s="0">
+        <v>2.0888914852696039</v>
+      </c>
+      <c r="F152" s="0">
         <v>0.39033783630680624</v>
       </c>
-      <c r="F152" s="0">
+      <c r="G152" s="0">
         <v>0.17711466517150637</v>
       </c>
-      <c r="G152" s="0">
+      <c r="H152" s="0">
         <v>-10.469331641564661</v>
       </c>
-      <c r="H152" s="0">
+      <c r="I152" s="0">
         <v>17.449999999999985</v>
       </c>
     </row>
@@ -4062,15 +4522,18 @@
         <v>0.22815831069060405</v>
       </c>
       <c r="E153" s="0">
+        <v>2.0981154681791416</v>
+      </c>
+      <c r="F153" s="0">
         <v>0.39294008854159063</v>
       </c>
-      <c r="F153" s="0">
+      <c r="G153" s="0">
         <v>0.1750730767493649</v>
       </c>
-      <c r="G153" s="0">
+      <c r="H153" s="0">
         <v>-10.499293115613279</v>
       </c>
-      <c r="H153" s="0">
+      <c r="I153" s="0">
         <v>17.349999999999991</v>
       </c>
     </row>
@@ -4088,15 +4551,18 @@
         <v>0.22879798666716553</v>
       </c>
       <c r="E154" s="0">
+        <v>2.1072715572896872</v>
+      </c>
+      <c r="F154" s="0">
         <v>0.39554234077311384</v>
       </c>
-      <c r="F154" s="0">
+      <c r="G154" s="0">
         <v>0.17308986547028063</v>
       </c>
-      <c r="G154" s="0">
+      <c r="H154" s="0">
         <v>-10.528361135239967</v>
       </c>
-      <c r="H154" s="0">
+      <c r="I154" s="0">
         <v>17.249999999999996</v>
       </c>
     </row>
@@ -4114,15 +4580,18 @@
         <v>0.22943973678855836</v>
       </c>
       <c r="E155" s="0">
+        <v>2.1163600229931907</v>
+      </c>
+      <c r="F155" s="0">
         <v>0.39814459300038263</v>
       </c>
-      <c r="F155" s="0">
+      <c r="G155" s="0">
         <v>0.17116402396545194</v>
       </c>
-      <c r="G155" s="0">
+      <c r="H155" s="0">
         <v>-10.556541795493725</v>
       </c>
-      <c r="H155" s="0">
+      <c r="I155" s="0">
         <v>17.149999999999988</v>
       </c>
     </row>
@@ -4140,15 +4609,18 @@
         <v>0.23008355902692101</v>
       </c>
       <c r="E156" s="0">
+        <v>2.1253811381764685</v>
+      </c>
+      <c r="F156" s="0">
         <v>0.40074684522221526</v>
       </c>
-      <c r="F156" s="0">
+      <c r="G156" s="0">
         <v>0.1692945660117379</v>
       </c>
-      <c r="G156" s="0">
+      <c r="H156" s="0">
         <v>-10.583841229707271</v>
       </c>
-      <c r="H156" s="0">
+      <c r="I156" s="0">
         <v>17.049999999999994</v>
       </c>
     </row>
@@ -4166,15 +4638,18 @@
         <v>0.23072945135554593</v>
       </c>
       <c r="E157" s="0">
+        <v>2.1343351781182012</v>
+      </c>
+      <c r="F157" s="0">
         <v>0.40334909743722408</v>
       </c>
-      <c r="F157" s="0">
+      <c r="G157" s="0">
         <v>0.16748052603602342</v>
       </c>
-      <c r="G157" s="0">
+      <c r="H157" s="0">
         <v>-10.610265606820255</v>
       </c>
-      <c r="H157" s="0">
+      <c r="I157" s="0">
         <v>16.949999999999989</v>
       </c>
     </row>
@@ -4192,15 +4667,18 @@
         <v>0.23137741174889703</v>
       </c>
       <c r="E158" s="0">
+        <v>2.1432224203883825</v>
+      </c>
+      <c r="F158" s="0">
         <v>0.40595134964379714</v>
       </c>
-      <c r="F158" s="0">
+      <c r="G158" s="0">
         <v>0.16572095863111164</v>
       </c>
-      <c r="G158" s="0">
+      <c r="H158" s="0">
         <v>-10.635821128797309</v>
       </c>
-      <c r="H158" s="0">
+      <c r="I158" s="0">
         <v>16.849999999999991</v>
       </c>
     </row>
@@ -4218,15 +4696,18 @@
         <v>0.23202743818262836</v>
       </c>
       <c r="E159" s="0">
+        <v>2.152043144750154</v>
+      </c>
+      <c r="F159" s="0">
         <v>0.40855360184007972</v>
       </c>
-      <c r="F159" s="0">
+      <c r="G159" s="0">
         <v>0.16401493808296871</v>
       </c>
-      <c r="G159" s="0">
+      <c r="H159" s="0">
         <v>-10.660514028136925</v>
       </c>
-      <c r="H159" s="0">
+      <c r="I159" s="0">
         <v>16.749999999999996</v>
       </c>
     </row>
@@ -4244,15 +4725,18 @@
         <v>0.23267952863360164</v>
       </c>
       <c r="E160" s="0">
+        <v>2.1607976330639813</v>
+      </c>
+      <c r="F160" s="0">
         <v>0.41115585402395549</v>
       </c>
-      <c r="F160" s="0">
+      <c r="G160" s="0">
         <v>0.16236155790910975</v>
       </c>
-      <c r="G160" s="0">
+      <c r="H160" s="0">
         <v>-10.684350565467582</v>
       </c>
-      <c r="H160" s="0">
+      <c r="I160" s="0">
         <v>16.649999999999991</v>
       </c>
     </row>
@@ -4270,15 +4754,18 @@
         <v>0.23333368107990474</v>
       </c>
       <c r="E161" s="0">
+        <v>2.1694861691941041</v>
+      </c>
+      <c r="F161" s="0">
         <v>0.413758106193028</v>
       </c>
-      <c r="F161" s="0">
+      <c r="G161" s="0">
         <v>0.1607599304079313</v>
       </c>
-      <c r="G161" s="0">
+      <c r="H161" s="0">
         <v>-10.707337027227599</v>
       </c>
-      <c r="H161" s="0">
+      <c r="I161" s="0">
         <v>16.549999999999994</v>
       </c>
     </row>
@@ -4296,15 +4783,18 @@
         <v>0.23398989350086899</v>
       </c>
       <c r="E162" s="0">
+        <v>2.1781090389172286</v>
+      </c>
+      <c r="F162" s="0">
         <v>0.41636035834460067</v>
       </c>
-      <c r="F162" s="0">
+      <c r="G162" s="0">
         <v>0.15920918621878727</v>
       </c>
-      <c r="G162" s="0">
+      <c r="H162" s="0">
         <v>-10.729479723425447</v>
       </c>
-      <c r="H162" s="0">
+      <c r="I162" s="0">
         <v>16.449999999999989</v>
       </c>
     </row>
@@ -4322,15 +4812,18 @@
         <v>0.23464816387708803</v>
       </c>
       <c r="E163" s="0">
+        <v>2.1866665298333743</v>
+      </c>
+      <c r="F163" s="0">
         <v>0.41896261047565753</v>
       </c>
-      <c r="F163" s="0">
+      <c r="G163" s="0">
         <v>0.15770847389260398</v>
       </c>
-      <c r="G163" s="0">
+      <c r="H163" s="0">
         <v>-10.750784985477289</v>
       </c>
-      <c r="H163" s="0">
+      <c r="I163" s="0">
         <v>16.349999999999994</v>
       </c>
     </row>
@@ -4348,15 +4841,18 @@
         <v>0.23530849019043501</v>
       </c>
       <c r="E164" s="0">
+        <v>2.1951589312788644</v>
+      </c>
+      <c r="F164" s="0">
         <v>0.42156486258284226</v>
       </c>
-      <c r="F164" s="0">
+      <c r="G164" s="0">
         <v>0.15424139104679738</v>
       </c>
-      <c r="G164" s="0">
+      <c r="H164" s="0">
         <v>-10.772329000191331</v>
       </c>
-      <c r="H164" s="0">
+      <c r="I164" s="0">
         <v>16.299999999999997</v>
       </c>
     </row>
@@ -4374,15 +4870,18 @@
         <v>0.23597087042408119</v>
       </c>
       <c r="E165" s="0">
+        <v>2.2035865342413916</v>
+      </c>
+      <c r="F165" s="0">
         <v>0.42416711466243934</v>
       </c>
-      <c r="F165" s="0">
+      <c r="G165" s="0">
         <v>0.1528379754799713</v>
       </c>
-      <c r="G165" s="0">
+      <c r="H165" s="0">
         <v>-10.791975154418768</v>
       </c>
-      <c r="H165" s="0">
+      <c r="I165" s="0">
         <v>16.199999999999989</v>
       </c>
     </row>
@@ -4400,15 +4899,18 @@
         <v>0.23663530256251333</v>
       </c>
       <c r="E166" s="0">
+        <v>2.2119496312771085</v>
+      </c>
+      <c r="F166" s="0">
         <v>0.42676936671035204</v>
       </c>
-      <c r="F166" s="0">
+      <c r="G166" s="0">
         <v>0.15148214646858463</v>
       </c>
-      <c r="G166" s="0">
+      <c r="H166" s="0">
         <v>-10.810803062366768</v>
       </c>
-      <c r="H166" s="0">
+      <c r="I166" s="0">
         <v>16.099999999999994</v>
       </c>
     </row>
@@ -4426,15 +4928,18 @@
         <v>0.23730178459155205</v>
       </c>
       <c r="E167" s="0">
+        <v>2.2202485164297019</v>
+      </c>
+      <c r="F167" s="0">
         <v>0.42937161872208196</v>
       </c>
-      <c r="F167" s="0">
+      <c r="G167" s="0">
         <v>0.15017311996581822</v>
       </c>
-      <c r="G167" s="0">
+      <c r="H167" s="0">
         <v>-10.828819120481654</v>
       </c>
-      <c r="H167" s="0">
+      <c r="I167" s="0">
         <v>16</v>
       </c>
     </row>
@@ -4452,15 +4957,18 @@
         <v>0.23797031449836969</v>
       </c>
       <c r="E168" s="0">
+        <v>2.2284834851514113</v>
+      </c>
+      <c r="F168" s="0">
         <v>0.43197387069270782</v>
       </c>
-      <c r="F168" s="0">
+      <c r="G168" s="0">
         <v>0.1489101278459703</v>
       </c>
-      <c r="G168" s="0">
+      <c r="H168" s="0">
         <v>-10.846029736818425</v>
       </c>
-      <c r="H168" s="0">
+      <c r="I168" s="0">
         <v>15.89999999999999</v>
       </c>
     </row>
@@ -4478,15 +4986,18 @@
         <v>0.23864089027150817</v>
       </c>
       <c r="E169" s="0">
+        <v>2.2366548342259374</v>
+      </c>
+      <c r="F169" s="0">
         <v>0.43457612261686351</v>
       </c>
-      <c r="F169" s="0">
+      <c r="G169" s="0">
         <v>0.1456754097908341</v>
       </c>
-      <c r="G169" s="0">
+      <c r="H169" s="0">
         <v>-10.86348713350578</v>
       </c>
-      <c r="H169" s="0">
+      <c r="I169" s="0">
         <v>15.849999999999994</v>
       </c>
     </row>
@@ -4504,15 +5015,18 @@
         <v>0.23931350990089686</v>
       </c>
       <c r="E170" s="0">
+        <v>2.2447628616932063</v>
+      </c>
+      <c r="F170" s="0">
         <v>0.43717837448871649</v>
       </c>
-      <c r="F170" s="0">
+      <c r="G170" s="0">
         <v>0.14450198974053166</v>
       </c>
-      <c r="G170" s="0">
+      <c r="H170" s="0">
         <v>-10.879103231014808</v>
       </c>
-      <c r="H170" s="0">
+      <c r="I170" s="0">
         <v>15.75</v>
       </c>
     </row>
@@ -4530,15 +5044,18 @@
         <v>0.23998817137787062</v>
       </c>
       <c r="E171" s="0">
+        <v>2.2528078667759397</v>
+      </c>
+      <c r="F171" s="0">
         <v>0.43978062630194525</v>
       </c>
-      <c r="F171" s="0">
+      <c r="G171" s="0">
         <v>0.14337239652399603</v>
       </c>
-      <c r="G171" s="0">
+      <c r="H171" s="0">
         <v>-10.893933247060529</v>
       </c>
-      <c r="H171" s="0">
+      <c r="I171" s="0">
         <v>15.649999999999991</v>
       </c>
     </row>
@@ -4556,15 +5073,18 @@
         <v>0.24066487269518769</v>
       </c>
       <c r="E172" s="0">
+        <v>2.2607901498079968</v>
+      </c>
+      <c r="F172" s="0">
         <v>0.44238287804971665</v>
       </c>
-      <c r="F172" s="0">
+      <c r="G172" s="0">
         <v>0.14228592195583412</v>
       </c>
-      <c r="G172" s="0">
+      <c r="H172" s="0">
         <v>-10.907983618527011</v>
       </c>
-      <c r="H172" s="0">
+      <c r="I172" s="0">
         <v>15.549999999999997</v>
       </c>
     </row>
@@ -4582,15 +5102,18 @@
         <v>0.24134361184704756</v>
       </c>
       <c r="E173" s="0">
+        <v>2.2687100121644508</v>
+      </c>
+      <c r="F173" s="0">
         <v>0.44498512972466331</v>
       </c>
-      <c r="F173" s="0">
+      <c r="G173" s="0">
         <v>0.13922379798180612</v>
       </c>
-      <c r="G173" s="0">
+      <c r="H173" s="0">
         <v>-10.92228711703391</v>
       </c>
-      <c r="H173" s="0">
+      <c r="I173" s="0">
         <v>15.5</v>
       </c>
     </row>
@@ -4608,15 +5131,18 @@
         <v>0.24202438682910854</v>
       </c>
       <c r="E174" s="0">
+        <v>2.2765677561933519</v>
+      </c>
+      <c r="F174" s="0">
         <v>0.44758738131886039</v>
       </c>
-      <c r="F174" s="0">
+      <c r="G174" s="0">
         <v>0.13822125824270698</v>
       </c>
-      <c r="G174" s="0">
+      <c r="H174" s="0">
         <v>-10.934794946286857</v>
       </c>
-      <c r="H174" s="0">
+      <c r="I174" s="0">
         <v>15.399999999999991</v>
       </c>
     </row>
@@ -4634,15 +5160,18 @@
         <v>0.2427071956385064</v>
       </c>
       <c r="E175" s="0">
+        <v>2.2843636851491427</v>
+      </c>
+      <c r="F175" s="0">
         <v>0.45018963282380181</v>
       </c>
-      <c r="F175" s="0">
+      <c r="G175" s="0">
         <v>0.13725980071275734</v>
       </c>
-      <c r="G175" s="0">
+      <c r="H175" s="0">
         <v>-10.946542537520767</v>
       </c>
-      <c r="H175" s="0">
+      <c r="I175" s="0">
         <v>15.299999999999995</v>
       </c>
     </row>
@@ -4660,15 +5189,18 @@
         <v>0.24339203627387132</v>
       </c>
       <c r="E176" s="0">
+        <v>2.292098103127699</v>
+      </c>
+      <c r="F176" s="0">
         <v>0.45279188423037636</v>
       </c>
-      <c r="F176" s="0">
+      <c r="G176" s="0">
         <v>0.13633877180986975</v>
       </c>
-      <c r="G176" s="0">
+      <c r="H176" s="0">
         <v>-10.957536331635069</v>
       </c>
-      <c r="H176" s="0">
+      <c r="I176" s="0">
         <v>15.199999999999989</v>
       </c>
     </row>
@@ -4686,15 +5218,18 @@
         <v>0.24407890673534638</v>
       </c>
       <c r="E177" s="0">
+        <v>2.2997713150029457</v>
+      </c>
+      <c r="F177" s="0">
         <v>0.45539413552884372</v>
       </c>
-      <c r="F177" s="0">
+      <c r="G177" s="0">
         <v>0.13343847184017504</v>
       </c>
-      <c r="G177" s="0">
+      <c r="H177" s="0">
         <v>-10.968790862316581</v>
       </c>
-      <c r="H177" s="0">
+      <c r="I177" s="0">
         <v>15.149999999999991</v>
       </c>
     </row>
@@ -4712,15 +5247,18 @@
         <v>0.24476780502460516</v>
       </c>
       <c r="E178" s="0">
+        <v>2.3073836263650209</v>
+      </c>
+      <c r="F178" s="0">
         <v>0.45799638670881015</v>
       </c>
-      <c r="F178" s="0">
+      <c r="G178" s="0">
         <v>0.1325961744037582</v>
       </c>
-      <c r="G178" s="0">
+      <c r="H178" s="0">
         <v>-10.978294112928815</v>
       </c>
-      <c r="H178" s="0">
+      <c r="I178" s="0">
         <v>15.049999999999997</v>
       </c>
     </row>
@@ -4738,15 +5276,18 @@
         <v>0.2454587291448693</v>
       </c>
       <c r="E179" s="0">
+        <v>2.3149353434599576</v>
+      </c>
+      <c r="F179" s="0">
         <v>0.46059863775920329</v>
       </c>
-      <c r="F179" s="0">
+      <c r="G179" s="0">
         <v>0.13179242510143024</v>
       </c>
-      <c r="G179" s="0">
+      <c r="H179" s="0">
         <v>-10.987062949112982</v>
       </c>
-      <c r="H179" s="0">
+      <c r="I179" s="0">
         <v>14.94999999999999</v>
       </c>
     </row>
@@ -4764,15 +5305,18 @@
         <v>0.24615167710092695</v>
       </c>
       <c r="E180" s="0">
+        <v>2.3224267731308377</v>
+      </c>
+      <c r="F180" s="0">
         <v>0.46320088866824738</v>
       </c>
-      <c r="F180" s="0">
+      <c r="G180" s="0">
         <v>0.12900685310817978</v>
       </c>
-      <c r="G180" s="0">
+      <c r="H180" s="0">
         <v>-10.996096899576488</v>
       </c>
-      <c r="H180" s="0">
+      <c r="I180" s="0">
         <v>14.899999999999991</v>
       </c>
     </row>
@@ -4790,15 +5334,18 @@
         <v>0.24684664689914998</v>
       </c>
       <c r="E181" s="0">
+        <v>2.3298582227603961</v>
+      </c>
+      <c r="F181" s="0">
         <v>0.46580313942343754</v>
       </c>
-      <c r="F181" s="0">
+      <c r="G181" s="0">
         <v>0.12827819641977245</v>
       </c>
-      <c r="G181" s="0">
+      <c r="H181" s="0">
         <v>-11.003414136165249</v>
       </c>
-      <c r="H181" s="0">
+      <c r="I181" s="0">
         <v>14.799999999999997</v>
       </c>
     </row>
@@ -4816,15 +5363,18 @@
         <v>0.2475436365475121</v>
       </c>
       <c r="E182" s="0">
+        <v>2.3372300002150483</v>
+      </c>
+      <c r="F182" s="0">
         <v>0.46840539001151416</v>
       </c>
-      <c r="F182" s="0">
+      <c r="G182" s="0">
         <v>0.12758631517515859</v>
       </c>
-      <c r="G182" s="0">
+      <c r="H182" s="0">
         <v>-11.010016282018611</v>
       </c>
-      <c r="H182" s="0">
+      <c r="I182" s="0">
         <v>14.699999999999989</v>
       </c>
     </row>
@@ -4842,15 +5392,18 @@
         <v>0.24824264405560628</v>
       </c>
       <c r="E183" s="0">
+        <v>2.3445424137902893</v>
+      </c>
+      <c r="F183" s="0">
         <v>0.47100764041843729</v>
       </c>
-      <c r="F183" s="0">
+      <c r="G183" s="0">
         <v>0.12491020442850206</v>
       </c>
-      <c r="G183" s="0">
+      <c r="H183" s="0">
         <v>-11.016888511946883</v>
       </c>
-      <c r="H183" s="0">
+      <c r="I183" s="0">
         <v>14.649999999999993</v>
       </c>
     </row>
@@ -4868,15 +5421,18 @@
         <v>0.24894366743466315</v>
       </c>
       <c r="E184" s="0">
+        <v>2.3517957721574576</v>
+      </c>
+      <c r="F184" s="0">
         <v>0.47360989062935949</v>
       </c>
-      <c r="F184" s="0">
+      <c r="G184" s="0">
         <v>0.12428998430920563</v>
       </c>
-      <c r="G184" s="0">
+      <c r="H184" s="0">
         <v>-11.02207784729239</v>
       </c>
-      <c r="H184" s="0">
+      <c r="I184" s="0">
         <v>14.549999999999994</v>
       </c>
     </row>
@@ -4894,15 +5450,18 @@
         <v>0.24964670469756786</v>
       </c>
       <c r="E185" s="0">
+        <v>2.3589903843118236</v>
+      </c>
+      <c r="F185" s="0">
         <v>0.47621214062859962</v>
       </c>
-      <c r="F185" s="0">
+      <c r="G185" s="0">
         <v>0.12168398525614793</v>
       </c>
-      <c r="G185" s="0">
+      <c r="H185" s="0">
         <v>-11.027538091325438</v>
       </c>
-      <c r="H185" s="0">
+      <c r="I185" s="0">
         <v>14.5</v>
       </c>
     </row>
@@ -4920,15 +5479,18 @@
         <v>0.25035175385887865</v>
       </c>
       <c r="E186" s="0">
+        <v>2.3661265595219692</v>
+      </c>
+      <c r="F186" s="0">
         <v>0.47881439039961593</v>
       </c>
-      <c r="F186" s="0">
+      <c r="G186" s="0">
         <v>0.12113324943866544</v>
       </c>
-      <c r="G186" s="0">
+      <c r="H186" s="0">
         <v>-11.031340408018627</v>
       </c>
-      <c r="H186" s="0">
+      <c r="I186" s="0">
         <v>14.399999999999991</v>
       </c>
     </row>
@@ -4946,15 +5508,18 @@
         <v>0.25105881293484411</v>
       </c>
       <c r="E187" s="0">
+        <v>2.3732046072804414</v>
+      </c>
+      <c r="F187" s="0">
         <v>0.48141663992497852</v>
       </c>
-      <c r="F187" s="0">
+      <c r="G187" s="0">
         <v>0.12061655605250809</v>
       </c>
-      <c r="G187" s="0">
+      <c r="H187" s="0">
         <v>-11.034459650276311</v>
       </c>
-      <c r="H187" s="0">
+      <c r="I187" s="0">
         <v>14.299999999999997</v>
       </c>
     </row>
@@ -4972,15 +5537,18 @@
         <v>0.25176787994342092</v>
       </c>
       <c r="E188" s="0">
+        <v>2.3802248372556498</v>
+      </c>
+      <c r="F188" s="0">
         <v>0.48401888918634206</v>
       </c>
-      <c r="F188" s="0">
+      <c r="G188" s="0">
         <v>0.11811189742542544</v>
       </c>
-      <c r="G188" s="0">
+      <c r="H188" s="0">
         <v>-11.037855662073826</v>
       </c>
-      <c r="H188" s="0">
+      <c r="I188" s="0">
         <v>14.25</v>
       </c>
     </row>
@@ -4998,15 +5566,18 @@
         <v>0.25247895290429168</v>
       </c>
       <c r="E189" s="0">
+        <v>2.3871875592449694</v>
+      </c>
+      <c r="F189" s="0">
         <v>0.48662113816441738</v>
       </c>
-      <c r="F189" s="0">
+      <c r="G189" s="0">
         <v>0.11766157237528055</v>
       </c>
-      <c r="G189" s="0">
+      <c r="H189" s="0">
         <v>-11.039626285706422</v>
       </c>
-      <c r="H189" s="0">
+      <c r="I189" s="0">
         <v>14.149999999999991</v>
       </c>
     </row>
@@ -5024,15 +5595,18 @@
         <v>0.2531920298388825</v>
       </c>
       <c r="E190" s="0">
+        <v>2.3940930831290421</v>
+      </c>
+      <c r="F190" s="0">
         <v>0.48922338683894373</v>
       </c>
-      <c r="F190" s="0">
+      <c r="G190" s="0">
         <v>0.11522187285117622</v>
       </c>
-      <c r="G190" s="0">
+      <c r="H190" s="0">
         <v>-11.041675055632329</v>
       </c>
-      <c r="H190" s="0">
+      <c r="I190" s="0">
         <v>14.099999999999994</v>
       </c>
     </row>
@@ -5050,15 +5624,18 @@
         <v>0.25390710877038081</v>
       </c>
       <c r="E191" s="0">
+        <v>2.4009417188272355</v>
+      </c>
+      <c r="F191" s="0">
         <v>0.4918256351886599</v>
       </c>
-      <c r="F191" s="0">
+      <c r="G191" s="0">
         <v>0.1148359378100659</v>
       </c>
-      <c r="G191" s="0">
+      <c r="H191" s="0">
         <v>-11.042122542348068</v>
       </c>
-      <c r="H191" s="0">
+      <c r="I191" s="0">
         <v>14</v>
       </c>
     </row>
@@ -5076,15 +5653,18 @@
         <v>0.25462418772375267</v>
       </c>
       <c r="E192" s="0">
+        <v>2.4077337762542452</v>
+      </c>
+      <c r="F192" s="0">
         <v>0.49442788319127623</v>
       </c>
-      <c r="F192" s="0">
+      <c r="G192" s="0">
         <v>0.1124592711357455</v>
       </c>
-      <c r="G192" s="0">
+      <c r="H192" s="0">
         <v>-11.042849753825594</v>
       </c>
-      <c r="H192" s="0">
+      <c r="I192" s="0">
         <v>13.949999999999989</v>
       </c>
     </row>
@@ -5102,15 +5682,18 @@
         <v>0.25534326472576091</v>
       </c>
       <c r="E193" s="0">
+        <v>2.4144695652777983</v>
+      </c>
+      <c r="F193" s="0">
         <v>0.49703013082344372</v>
       </c>
-      <c r="F193" s="0">
+      <c r="G193" s="0">
         <v>0.11213582109772521</v>
       </c>
-      <c r="G193" s="0">
+      <c r="H193" s="0">
         <v>-11.041999435992329</v>
       </c>
-      <c r="H193" s="0">
+      <c r="I193" s="0">
         <v>13.849999999999994</v>
       </c>
     </row>
@@ -5128,15 +5711,18 @@
         <v>0.25606433780498211</v>
       </c>
       <c r="E194" s="0">
+        <v>2.4211493956774714</v>
+      </c>
+      <c r="F194" s="0">
         <v>0.49963237806072641</v>
       </c>
-      <c r="F194" s="0">
+      <c r="G194" s="0">
         <v>0.10982033198494021</v>
       </c>
-      <c r="G194" s="0">
+      <c r="H194" s="0">
         <v>-11.041430613467533</v>
       </c>
-      <c r="H194" s="0">
+      <c r="I194" s="0">
         <v>13.799999999999997</v>
       </c>
     </row>
@@ -5154,15 +5740,18 @@
         <v>0.25678740499182506</v>
       </c>
       <c r="E195" s="0">
+        <v>2.4277735771045448</v>
+      </c>
+      <c r="F195" s="0">
         <v>0.50223462487757087</v>
       </c>
-      <c r="F195" s="0">
+      <c r="G195" s="0">
         <v>0.1095575320843544</v>
       </c>
-      <c r="G195" s="0">
+      <c r="H195" s="0">
         <v>-11.039307661380583</v>
       </c>
-      <c r="H195" s="0">
+      <c r="I195" s="0">
         <v>13.699999999999989</v>
       </c>
     </row>
@@ -5180,15 +5769,18 @@
         <v>0.25751246431854746</v>
       </c>
       <c r="E196" s="0">
+        <v>2.4343424190429284</v>
+      </c>
+      <c r="F196" s="0">
         <v>0.50483687124727583</v>
       </c>
-      <c r="F196" s="0">
+      <c r="G196" s="0">
         <v>0.10730143315176963</v>
       </c>
-      <c r="G196" s="0">
+      <c r="H196" s="0">
         <v>-11.037468157724289</v>
       </c>
-      <c r="H196" s="0">
+      <c r="I196" s="0">
         <v>13.649999999999991</v>
       </c>
     </row>
@@ -5206,15 +5798,18 @@
         <v>0.25823951381927407</v>
       </c>
       <c r="E197" s="0">
+        <v>2.4408562307710917</v>
+      </c>
+      <c r="F197" s="0">
         <v>0.50743911714196255</v>
       </c>
-      <c r="F197" s="0">
+      <c r="G197" s="0">
         <v>0.10709751563486869</v>
       </c>
-      <c r="G197" s="0">
+      <c r="H197" s="0">
         <v>-11.034097567789054</v>
       </c>
-      <c r="H197" s="0">
+      <c r="I197" s="0">
         <v>13.549999999999997</v>
       </c>
     </row>
@@ -5232,15 +5827,18 @@
         <v>0.25896855153001425</v>
       </c>
       <c r="E198" s="0">
+        <v>2.4473153213250001</v>
+      </c>
+      <c r="F198" s="0">
         <v>0.51004136253254306</v>
       </c>
-      <c r="F198" s="0">
+      <c r="G198" s="0">
         <v>0.10489908449561788</v>
       </c>
-      <c r="G198" s="0">
+      <c r="H198" s="0">
         <v>-11.031012552615348</v>
       </c>
-      <c r="H198" s="0">
+      <c r="I198" s="0">
         <v>13.5</v>
       </c>
     </row>
@@ -5258,15 +5856,18 @@
         <v>0.25969957548867917</v>
       </c>
       <c r="E199" s="0">
+        <v>2.4537199994620336</v>
+      </c>
+      <c r="F199" s="0">
         <v>0.51264360738869086</v>
       </c>
-      <c r="F199" s="0">
+      <c r="G199" s="0">
         <v>0.10475234583698328</v>
       </c>
-      <c r="G199" s="0">
+      <c r="H199" s="0">
         <v>-11.0264191363921</v>
       </c>
-      <c r="H199" s="0">
+      <c r="I199" s="0">
         <v>13.399999999999991</v>
       </c>
     </row>
@@ -5284,15 +5885,18 @@
         <v>0.26043258373509964</v>
       </c>
       <c r="E200" s="0">
+        <v>2.4600705736258588</v>
+      </c>
+      <c r="F200" s="0">
         <v>0.51524585167880788</v>
       </c>
-      <c r="F200" s="0">
+      <c r="G200" s="0">
         <v>0.10260992232464072</v>
       </c>
-      <c r="G200" s="0">
+      <c r="H200" s="0">
         <v>-11.022113585241145</v>
       </c>
-      <c r="H200" s="0">
+      <c r="I200" s="0">
         <v>13.349999999999994</v>
       </c>
     </row>
@@ -5310,15 +5914,18 @@
         <v>0.26116757431104365</v>
       </c>
       <c r="E201" s="0">
+        <v>2.4663673519122371</v>
+      </c>
+      <c r="F201" s="0">
         <v>0.51784809536999388</v>
       </c>
-      <c r="F201" s="0">
+      <c r="G201" s="0">
         <v>0.10251872048118332</v>
       </c>
-      <c r="G201" s="0">
+      <c r="H201" s="0">
         <v>-11.016321959303024</v>
       </c>
-      <c r="H201" s="0">
+      <c r="I201" s="0">
         <v>13.25</v>
       </c>
     </row>
@@ -5336,15 +5943,18 @@
         <v>0.26190454526023349</v>
       </c>
       <c r="E202" s="0">
+        <v>2.4726106420357561</v>
+      </c>
+      <c r="F202" s="0">
         <v>0.52045033842801458</v>
       </c>
-      <c r="F202" s="0">
+      <c r="G202" s="0">
         <v>0.10043070400729404</v>
       </c>
-      <c r="G202" s="0">
+      <c r="H202" s="0">
         <v>-11.010820643639118</v>
       </c>
-      <c r="H202" s="0">
+      <c r="I202" s="0">
         <v>13.199999999999989</v>
       </c>
     </row>
@@ -5362,15 +5972,18 @@
         <v>0.26264349462836389</v>
       </c>
       <c r="E203" s="0">
+        <v>2.4788007512974604</v>
+      </c>
+      <c r="F203" s="0">
         <v>0.52305258081726924</v>
       </c>
-      <c r="F203" s="0">
+      <c r="G203" s="0">
         <v>0.098369217273466952</v>
       </c>
-      <c r="G203" s="0">
+      <c r="H203" s="0">
         <v>-11.004726172800162</v>
       </c>
-      <c r="H203" s="0">
+      <c r="I203" s="0">
         <v>13.149999999999991</v>
       </c>
     </row>
@@ -5388,15 +6001,18 @@
         <v>0.26338442046311894</v>
       </c>
       <c r="E204" s="0">
+        <v>2.4849379865533492</v>
+      </c>
+      <c r="F204" s="0">
         <v>0.5256548225007579</v>
       </c>
-      <c r="F204" s="0">
+      <c r="G204" s="0">
         <v>0.098358302839603451</v>
       </c>
-      <c r="G204" s="0">
+      <c r="H204" s="0">
         <v>-10.997182698177022</v>
       </c>
-      <c r="H204" s="0">
+      <c r="I204" s="0">
         <v>13.049999999999997</v>
       </c>
     </row>
@@ -5414,15 +6030,18 @@
         <v>0.26412732081418966</v>
       </c>
       <c r="E205" s="0">
+        <v>2.4910226541837592</v>
+      </c>
+      <c r="F205" s="0">
         <v>0.52825706344004952</v>
       </c>
-      <c r="F205" s="0">
+      <c r="G205" s="0">
         <v>0.096348931554341433</v>
       </c>
-      <c r="G205" s="0">
+      <c r="H205" s="0">
         <v>-10.989929281858332</v>
       </c>
-      <c r="H205" s="0">
+      <c r="I205" s="0">
         <v>13.000000000000002</v>
       </c>
     </row>
@@ -5440,15 +6059,18 @@
         <v>0.26487219373329157</v>
       </c>
       <c r="E206" s="0">
+        <v>2.4970550600635577</v>
+      </c>
+      <c r="F206" s="0">
         <v>0.53085930359524736</v>
       </c>
-      <c r="F206" s="0">
+      <c r="G206" s="0">
         <v>0.096389703155380868</v>
       </c>
-      <c r="G206" s="0">
+      <c r="H206" s="0">
         <v>-10.981248284398175</v>
       </c>
-      <c r="H206" s="0">
+      <c r="I206" s="0">
         <v>12.899999999999991</v>
       </c>
     </row>
@@ -5466,15 +6088,18 @@
         <v>0.26561903727418207</v>
       </c>
       <c r="E207" s="0">
+        <v>2.503035509533194</v>
+      </c>
+      <c r="F207" s="0">
         <v>0.53346154292495773</v>
       </c>
-      <c r="F207" s="0">
+      <c r="G207" s="0">
         <v>0.094430984779436566</v>
       </c>
-      <c r="G207" s="0">
+      <c r="H207" s="0">
         <v>-10.972860144265368</v>
       </c>
-      <c r="H207" s="0">
+      <c r="I207" s="0">
         <v>12.849999999999994</v>
       </c>
     </row>
@@ -5492,15 +6117,18 @@
         <v>0.26636784949267794</v>
       </c>
       <c r="E208" s="0">
+        <v>2.5089643073705288</v>
+      </c>
+      <c r="F208" s="0">
         <v>0.53606378138625432</v>
       </c>
-      <c r="F208" s="0">
+      <c r="G208" s="0">
         <v>0.094521995667229103</v>
       </c>
-      <c r="G208" s="0">
+      <c r="H208" s="0">
         <v>-10.963065487238751</v>
       </c>
-      <c r="H208" s="0">
+      <c r="I208" s="0">
         <v>12.75</v>
       </c>
     </row>
@@ -5518,15 +6146,18 @@
         <v>0.26711862844667245</v>
       </c>
       <c r="E209" s="0">
+        <v>2.5148417577634792</v>
+      </c>
+      <c r="F209" s="0">
         <v>0.53866601893464539</v>
       </c>
-      <c r="F209" s="0">
+      <c r="G209" s="0">
         <v>0.092612518942801841</v>
       </c>
-      <c r="G209" s="0">
+      <c r="H209" s="0">
         <v>-10.953566611612978</v>
       </c>
-      <c r="H209" s="0">
+      <c r="I209" s="0">
         <v>12.699999999999989</v>
       </c>
     </row>
@@ -5544,15 +6175,18 @@
         <v>0.26787137219615298</v>
       </c>
       <c r="E210" s="0">
+        <v>2.5206681642834132</v>
+      </c>
+      <c r="F210" s="0">
         <v>0.54126825552403868</v>
       </c>
-      <c r="F210" s="0">
+      <c r="G210" s="0">
         <v>0.090727068245628234</v>
       </c>
-      <c r="G210" s="0">
+      <c r="H210" s="0">
         <v>-10.943517017129235</v>
       </c>
-      <c r="H210" s="0">
+      <c r="I210" s="0">
         <v>12.649999999999993</v>
       </c>
     </row>
@@ -5570,15 +6204,18 @@
         <v>0.26862607880321826</v>
       </c>
       <c r="E211" s="0">
+        <v>2.5264438298593257</v>
+      </c>
+      <c r="F211" s="0">
         <v>0.54387049110670793</v>
       </c>
-      <c r="F211" s="0">
+      <c r="G211" s="0">
         <v>0.090890775850044597</v>
       </c>
-      <c r="G211" s="0">
+      <c r="H211" s="0">
         <v>-10.932096063547753</v>
       </c>
-      <c r="H211" s="0">
+      <c r="I211" s="0">
         <v>12.549999999999997</v>
       </c>
     </row>
@@ -5596,15 +6233,18 @@
         <v>0.26938274633209586</v>
       </c>
       <c r="E212" s="0">
+        <v>2.5321690567527346</v>
+      </c>
+      <c r="F212" s="0">
         <v>0.54647272563325722</v>
       </c>
-      <c r="F212" s="0">
+      <c r="G212" s="0">
         <v>0.089052544035745473</v>
       </c>
-      <c r="G212" s="0">
+      <c r="H212" s="0">
         <v>-10.920971325387884</v>
       </c>
-      <c r="H212" s="0">
+      <c r="I212" s="0">
         <v>12.5</v>
       </c>
     </row>
@@ -5622,15 +6262,18 @@
         <v>0.27014137284915934</v>
       </c>
       <c r="E213" s="0">
+        <v>2.5378441465333132</v>
+      </c>
+      <c r="F213" s="0">
         <v>0.54907495905258585</v>
       </c>
-      <c r="F213" s="0">
+      <c r="G213" s="0">
         <v>0.087237357427456058</v>
       </c>
-      <c r="G213" s="0">
+      <c r="H213" s="0">
         <v>-10.90931361940479</v>
       </c>
-      <c r="H213" s="0">
+      <c r="I213" s="0">
         <v>12.449999999999989</v>
       </c>
     </row>
@@ -5648,15 +6291,18 @@
         <v>0.27090195642294551</v>
       </c>
       <c r="E214" s="0">
+        <v>2.5434694000552325</v>
+      </c>
+      <c r="F214" s="0">
         <v>0.55167719131185278</v>
       </c>
-      <c r="F214" s="0">
+      <c r="G214" s="0">
         <v>0.087470787793948318</v>
       </c>
-      <c r="G214" s="0">
+      <c r="H214" s="0">
         <v>-10.896318888596513</v>
       </c>
-      <c r="H214" s="0">
+      <c r="I214" s="0">
         <v>12.349999999999994</v>
       </c>
     </row>
@@ -5674,15 +6320,18 @@
         <v>0.27166449512417207</v>
       </c>
       <c r="E215" s="0">
+        <v>2.549045117434197</v>
+      </c>
+      <c r="F215" s="0">
         <v>0.5542794223564419</v>
       </c>
-      <c r="F215" s="0">
+      <c r="G215" s="0">
         <v>0.085700900804970143</v>
       </c>
-      <c r="G215" s="0">
+      <c r="H215" s="0">
         <v>-10.88362106711469</v>
       </c>
-      <c r="H215" s="0">
+      <c r="I215" s="0">
         <v>12.299999999999997</v>
       </c>
     </row>
@@ -5700,15 +6349,18 @@
         <v>0.27242898702575441</v>
       </c>
       <c r="E216" s="0">
+        <v>2.5545715980251589</v>
+      </c>
+      <c r="F216" s="0">
         <v>0.55688165212992469</v>
       </c>
-      <c r="F216" s="0">
+      <c r="G216" s="0">
         <v>0.083953128077166983</v>
       </c>
-      <c r="G216" s="0">
+      <c r="H216" s="0">
         <v>-10.870407740737846</v>
       </c>
-      <c r="H216" s="0">
+      <c r="I216" s="0">
         <v>12.25</v>
       </c>
     </row>
@@ -5726,15 +6378,18 @@
         <v>0.27319543020282328</v>
       </c>
       <c r="E217" s="0">
+        <v>2.5600491404007011</v>
+      </c>
+      <c r="F217" s="0">
         <v>0.55948388057402454</v>
       </c>
-      <c r="F217" s="0">
+      <c r="G217" s="0">
         <v>0.084253458991537827</v>
       </c>
-      <c r="G217" s="0">
+      <c r="H217" s="0">
         <v>-10.855890904074073</v>
       </c>
-      <c r="H217" s="0">
+      <c r="I217" s="0">
         <v>12.149999999999991</v>
       </c>
     </row>
@@ -5752,15 +6407,18 @@
         <v>0.27396382273274156</v>
       </c>
       <c r="E218" s="0">
+        <v>2.565478042330072</v>
+      </c>
+      <c r="F218" s="0">
         <v>0.56208610762858002</v>
       </c>
-      <c r="F218" s="0">
+      <c r="G218" s="0">
         <v>0.082549163865616088</v>
       </c>
-      <c r="G218" s="0">
+      <c r="H218" s="0">
         <v>-10.841671908642144</v>
       </c>
-      <c r="H218" s="0">
+      <c r="I218" s="0">
         <v>12.099999999999994</v>
       </c>
     </row>
@@ -5778,15 +6436,18 @@
         <v>0.27473416269512219</v>
       </c>
       <c r="E219" s="0">
+        <v>2.5708586007588536</v>
+      </c>
+      <c r="F219" s="0">
         <v>0.56468833323150791</v>
       </c>
-      <c r="F219" s="0">
+      <c r="G219" s="0">
         <v>0.080866098933772307</v>
       </c>
-      <c r="G219" s="0">
+      <c r="H219" s="0">
         <v>-10.826954574619325</v>
       </c>
-      <c r="H219" s="0">
+      <c r="I219" s="0">
         <v>12.049999999999997</v>
       </c>
     </row>
@@ -5804,15 +6465,18 @@
         <v>0.27550644817184439</v>
       </c>
       <c r="E220" s="0">
+        <v>2.5761911117892669</v>
+      </c>
+      <c r="F220" s="0">
         <v>0.56729055731876665</v>
       </c>
-      <c r="F220" s="0">
+      <c r="G220" s="0">
         <v>0.081230650755254374</v>
       </c>
-      <c r="G220" s="0">
+      <c r="H220" s="0">
         <v>-10.810966430944216</v>
       </c>
-      <c r="H220" s="0">
+      <c r="I220" s="0">
         <v>11.949999999999989</v>
       </c>
     </row>
@@ -5830,15 +6494,18 @@
         <v>0.27628067724707173</v>
       </c>
       <c r="E221" s="0">
+        <v>2.5814758706610652</v>
+      </c>
+      <c r="F221" s="0">
         <v>0.5698927798243173</v>
       </c>
-      <c r="F221" s="0">
+      <c r="G221" s="0">
         <v>0.079589332821460052</v>
       </c>
-      <c r="G221" s="0">
+      <c r="H221" s="0">
         <v>-10.795277277096726</v>
       </c>
-      <c r="H221" s="0">
+      <c r="I221" s="0">
         <v>11.89999999999999</v>
       </c>
     </row>
@@ -5856,15 +6523,18 @@
         <v>0.27705684800726882</v>
       </c>
       <c r="E222" s="0">
+        <v>2.5867131717330554</v>
+      </c>
+      <c r="F222" s="0">
         <v>0.57249500068008741</v>
       </c>
-      <c r="F222" s="0">
+      <c r="G222" s="0">
         <v>0.077968405097033594</v>
       </c>
-      <c r="G222" s="0">
+      <c r="H222" s="0">
         <v>-10.779106647094233</v>
       </c>
-      <c r="H222" s="0">
+      <c r="I222" s="0">
         <v>11.849999999999994</v>
       </c>
     </row>
@@ -5882,15 +6552,18 @@
         <v>0.27783495854121859</v>
       </c>
       <c r="E223" s="0">
+        <v>2.591903308465175</v>
+      </c>
+      <c r="F223" s="0">
         <v>0.5750972198159322</v>
       </c>
-      <c r="F223" s="0">
+      <c r="G223" s="0">
         <v>0.078394632216205712</v>
       </c>
-      <c r="G223" s="0">
+      <c r="H223" s="0">
         <v>-10.761697101825531</v>
       </c>
-      <c r="H223" s="0">
+      <c r="I223" s="0">
         <v>11.75</v>
       </c>
     </row>
@@ -5908,15 +6581,18 @@
         <v>0.27861500694003932</v>
       </c>
       <c r="E224" s="0">
+        <v>2.5970465734011694</v>
+      </c>
+      <c r="F224" s="0">
         <v>0.57769943715959626</v>
       </c>
-      <c r="F224" s="0">
+      <c r="G224" s="0">
         <v>0.076813806862152056</v>
       </c>
-      <c r="G224" s="0">
+      <c r="H224" s="0">
         <v>-10.744587890943459</v>
       </c>
-      <c r="H224" s="0">
+      <c r="I224" s="0">
         <v>11.699999999999989</v>
       </c>
     </row>
@@ -5934,15 +6610,18 @@
         <v>0.27939699129720175</v>
       </c>
       <c r="E225" s="0">
+        <v>2.602143258151806</v>
+      </c>
+      <c r="F225" s="0">
         <v>0.58030165263667488</v>
       </c>
-      <c r="F225" s="0">
+      <c r="G225" s="0">
         <v>0.07525257320824022</v>
       </c>
-      <c r="G225" s="0">
+      <c r="H225" s="0">
         <v>-10.727013756401931</v>
       </c>
-      <c r="H225" s="0">
+      <c r="I225" s="0">
         <v>11.649999999999991</v>
       </c>
     </row>
@@ -5960,15 +6639,18 @@
         <v>0.28018090970854648</v>
       </c>
       <c r="E226" s="0">
+        <v>2.6071936533786539</v>
+      </c>
+      <c r="F226" s="0">
         <v>0.5829038661705751</v>
       </c>
-      <c r="F226" s="0">
+      <c r="G226" s="0">
         <v>0.075738056083718919</v>
       </c>
-      <c r="G226" s="0">
+      <c r="H226" s="0">
         <v>-10.708231804012815</v>
       </c>
-      <c r="H226" s="0">
+      <c r="I226" s="0">
         <v>11.549999999999997</v>
       </c>
     </row>
@@ -5986,15 +6668,18 @@
         <v>0.28096676027230039</v>
       </c>
       <c r="E227" s="0">
+        <v>2.6121980487783931</v>
+      </c>
+      <c r="F227" s="0">
         <v>0.58550607768247676</v>
       </c>
-      <c r="F227" s="0">
+      <c r="G227" s="0">
         <v>0.074215361077333925</v>
       </c>
-      <c r="G227" s="0">
+      <c r="H227" s="0">
         <v>-10.689751706395979</v>
       </c>
-      <c r="H227" s="0">
+      <c r="I227" s="0">
         <v>11.5</v>
       </c>
     </row>
@@ -6012,15 +6697,18 @@
         <v>0.28175454108909426</v>
       </c>
       <c r="E228" s="0">
+        <v>2.6171567330676524</v>
+      </c>
+      <c r="F228" s="0">
         <v>0.58810828709129293</v>
       </c>
-      <c r="F228" s="0">
+      <c r="G228" s="0">
         <v>0.072711498305114752</v>
       </c>
-      <c r="G228" s="0">
+      <c r="H228" s="0">
         <v>-10.670822922682033</v>
       </c>
-      <c r="H228" s="0">
+      <c r="I228" s="0">
         <v>11.449999999999989</v>
       </c>
     </row>
@@ -6038,15 +6726,18 @@
         <v>0.2825442502619796</v>
       </c>
       <c r="E229" s="0">
+        <v>2.6220699939683563</v>
+      </c>
+      <c r="F229" s="0">
         <v>0.59071049431362987</v>
       </c>
-      <c r="F229" s="0">
+      <c r="G229" s="0">
         <v>0.071226223656023324</v>
       </c>
-      <c r="G229" s="0">
+      <c r="H229" s="0">
         <v>-10.651450814964095</v>
       </c>
-      <c r="H229" s="0">
+      <c r="I229" s="0">
         <v>11.399999999999991</v>
       </c>
     </row>
@@ -6064,15 +6755,18 @@
         <v>0.28333588589644559</v>
       </c>
       <c r="E230" s="0">
+        <v>2.6269381181935816</v>
+      </c>
+      <c r="F230" s="0">
         <v>0.59331269926374719</v>
       </c>
-      <c r="F230" s="0">
+      <c r="G230" s="0">
         <v>0.071787124361782306</v>
       </c>
-      <c r="G230" s="0">
+      <c r="H230" s="0">
         <v>-10.630913873356352</v>
       </c>
-      <c r="H230" s="0">
+      <c r="I230" s="0">
         <v>11.299999999999995</v>
       </c>
     </row>
@@ -6090,15 +6784,18 @@
         <v>0.28412944610043617</v>
       </c>
       <c r="E231" s="0">
+        <v>2.6317613914339031</v>
+      </c>
+      <c r="F231" s="0">
         <v>0.59591490185351736</v>
       </c>
-      <c r="F231" s="0">
+      <c r="G231" s="0">
         <v>0.070338422228247599</v>
       </c>
-      <c r="G231" s="0">
+      <c r="H231" s="0">
         <v>-10.610678346948134</v>
       </c>
-      <c r="H231" s="0">
+      <c r="I231" s="0">
         <v>11.25</v>
       </c>
     </row>
@@ -6116,15 +6813,18 @@
         <v>0.28492492898436678</v>
       </c>
       <c r="E232" s="0">
+        <v>2.6365400983442244</v>
+      </c>
+      <c r="F232" s="0">
         <v>0.59851710199238561</v>
       </c>
-      <c r="F232" s="0">
+      <c r="G232" s="0">
         <v>0.068907597260497111</v>
       </c>
-      <c r="G232" s="0">
+      <c r="H232" s="0">
         <v>-10.590015307757918</v>
       </c>
-      <c r="H232" s="0">
+      <c r="I232" s="0">
         <v>11.199999999999989</v>
       </c>
     </row>
@@ -6142,15 +6842,18 @@
         <v>0.28572233266114155</v>
       </c>
       <c r="E233" s="0">
+        <v>2.6412745225310719</v>
+      </c>
+      <c r="F233" s="0">
         <v>0.60111929958732824</v>
       </c>
-      <c r="F233" s="0">
+      <c r="G233" s="0">
         <v>0.067494420828075191</v>
       </c>
-      <c r="G233" s="0">
+      <c r="H233" s="0">
         <v>-10.568929974375148</v>
       </c>
-      <c r="H233" s="0">
+      <c r="I233" s="0">
         <v>11.149999999999991</v>
       </c>
     </row>
@@ -6168,15 +6871,18 @@
         <v>0.28652165524617035</v>
       </c>
       <c r="E234" s="0">
+        <v>2.6459649465403565</v>
+      </c>
+      <c r="F234" s="0">
         <v>0.6037214945428121</v>
       </c>
-      <c r="F234" s="0">
+      <c r="G234" s="0">
         <v>0.06812691346574698</v>
       </c>
-      <c r="G234" s="0">
+      <c r="H234" s="0">
         <v>-10.546721378593288</v>
       </c>
-      <c r="H234" s="0">
+      <c r="I234" s="0">
         <v>11.049999999999997</v>
       </c>
     </row>
@@ -6194,15 +6900,18 @@
         <v>0.28732289485738505</v>
       </c>
       <c r="E235" s="0">
+        <v>2.650611651845594</v>
+      </c>
+      <c r="F235" s="0">
         <v>0.60632368676075243</v>
       </c>
-      <c r="F235" s="0">
+      <c r="G235" s="0">
         <v>0.066748468325367544</v>
       </c>
-      <c r="G235" s="0">
+      <c r="H235" s="0">
         <v>-10.524814032626619</v>
       </c>
-      <c r="H235" s="0">
+      <c r="I235" s="0">
         <v>10.999999999999998</v>
       </c>
     </row>
@@ -6220,15 +6929,18 @@
         <v>0.28812604961525712</v>
       </c>
       <c r="E236" s="0">
+        <v>2.6552149188365468</v>
+      </c>
+      <c r="F236" s="0">
         <v>0.60892587614047211</v>
       </c>
-      <c r="F236" s="0">
+      <c r="G236" s="0">
         <v>0.065387005594132463</v>
       </c>
-      <c r="G236" s="0">
+      <c r="H236" s="0">
         <v>-10.502499772327187</v>
       </c>
-      <c r="H236" s="0">
+      <c r="I236" s="0">
         <v>10.94999999999999</v>
       </c>
     </row>
@@ -6246,15 +6958,18 @@
         <v>0.28893111764281421</v>
       </c>
       <c r="E237" s="0">
+        <v>2.659775026808314</v>
+      </c>
+      <c r="F237" s="0">
         <v>0.61152806257865888</v>
       </c>
-      <c r="F237" s="0">
+      <c r="G237" s="0">
         <v>0.064042310956289261</v>
       </c>
-      <c r="G237" s="0">
+      <c r="H237" s="0">
         <v>-10.479783671408816</v>
       </c>
-      <c r="H237" s="0">
+      <c r="I237" s="0">
         <v>10.899999999999991</v>
       </c>
     </row>
@@ -6272,15 +6987,18 @@
         <v>0.28973809706565673</v>
       </c>
       <c r="E238" s="0">
+        <v>2.6642922539508445</v>
+      </c>
+      <c r="F238" s="0">
         <v>0.61413024596932331</v>
       </c>
-      <c r="F238" s="0">
+      <c r="G238" s="0">
         <v>0.064742811529440697</v>
       </c>
-      <c r="G238" s="0">
+      <c r="H238" s="0">
         <v>-10.455984494357269</v>
       </c>
-      <c r="H238" s="0">
+      <c r="I238" s="0">
         <v>10.799999999999997</v>
       </c>
     </row>
@@ -6298,15 +7016,18 @@
         <v>0.29054698601197504</v>
       </c>
       <c r="E239" s="0">
+        <v>2.6687668773388467</v>
+      </c>
+      <c r="F239" s="0">
         <v>0.61673242620375579</v>
       </c>
-      <c r="F239" s="0">
+      <c r="G239" s="0">
         <v>0.063431122439878029</v>
       </c>
-      <c r="G239" s="0">
+      <c r="H239" s="0">
         <v>-10.432486638144677</v>
       </c>
-      <c r="H239" s="0">
+      <c r="I239" s="0">
         <v>10.75</v>
       </c>
     </row>
@@ -6324,15 +7045,18 @@
         <v>0.29135778261256612</v>
       </c>
       <c r="E240" s="0">
+        <v>2.6731991729221249</v>
+      </c>
+      <c r="F240" s="0">
         <v>0.61933460317048494</v>
       </c>
-      <c r="F240" s="0">
+      <c r="G240" s="0">
         <v>0.062135576788180852</v>
       </c>
-      <c r="G240" s="0">
+      <c r="H240" s="0">
         <v>-10.408601886713301</v>
       </c>
-      <c r="H240" s="0">
+      <c r="I240" s="0">
         <v>10.699999999999989</v>
       </c>
     </row>
@@ -6350,15 +7074,18 @@
         <v>0.2921704850008503</v>
       </c>
       <c r="E241" s="0">
+        <v>2.6775894155162936</v>
+      </c>
+      <c r="F241" s="0">
         <v>0.62193677675523307</v>
       </c>
-      <c r="F241" s="0">
+      <c r="G241" s="0">
         <v>0.060855973507352001</v>
       </c>
-      <c r="G241" s="0">
+      <c r="H241" s="0">
         <v>-10.384335168141346</v>
       </c>
-      <c r="H241" s="0">
+      <c r="I241" s="0">
         <v>10.649999999999993</v>
       </c>
     </row>
@@ -6376,15 +7103,18 @@
         <v>0.29298509131288802</v>
       </c>
       <c r="E242" s="0">
+        <v>2.6819378787938861</v>
+      </c>
+      <c r="F242" s="0">
         <v>0.62453894684087363</v>
       </c>
-      <c r="F242" s="0">
+      <c r="G242" s="0">
         <v>0.059592114677487845</v>
       </c>
-      <c r="G242" s="0">
+      <c r="H242" s="0">
         <v>-10.359691373964832</v>
       </c>
-      <c r="H242" s="0">
+      <c r="I242" s="0">
         <v>10.599999999999994</v>
       </c>
     </row>
@@ -6402,15 +7132,18 @@
         <v>0.29380159968739644</v>
       </c>
       <c r="E243" s="0">
+        <v>2.6862448352758399</v>
+      </c>
+      <c r="F243" s="0">
         <v>0.6271411133073872</v>
       </c>
-      <c r="F243" s="0">
+      <c r="G243" s="0">
         <v>0.060372905102846652</v>
       </c>
-      <c r="G243" s="0">
+      <c r="H243" s="0">
         <v>-10.33401483377572</v>
       </c>
-      <c r="H243" s="0">
+      <c r="I243" s="0">
         <v>10.5</v>
       </c>
     </row>
@@ -6428,15 +7161,18 @@
         <v>0.29462000826576645</v>
       </c>
       <c r="E244" s="0">
+        <v>2.6905105563233502</v>
+      </c>
+      <c r="F244" s="0">
         <v>0.62974327603181779</v>
       </c>
-      <c r="F244" s="0">
+      <c r="G244" s="0">
         <v>0.059140044600272723</v>
       </c>
-      <c r="G244" s="0">
+      <c r="H244" s="0">
         <v>-10.308638005057308</v>
       </c>
-      <c r="H244" s="0">
+      <c r="I244" s="0">
         <v>10.449999999999989</v>
       </c>
     </row>
@@ -6454,15 +7190,18 @@
         <v>0.29544031519207914</v>
       </c>
       <c r="E245" s="0">
+        <v>2.6947353121300925</v>
+      </c>
+      <c r="F245" s="0">
         <v>0.63234543488822881</v>
       </c>
-      <c r="F245" s="0">
+      <c r="G245" s="0">
         <v>0.057922351416578283</v>
       </c>
-      <c r="G245" s="0">
+      <c r="H245" s="0">
         <v>-10.282898500987111</v>
       </c>
-      <c r="H245" s="0">
+      <c r="I245" s="0">
         <v>10.399999999999991</v>
       </c>
     </row>
@@ -6480,15 +7219,18 @@
         <v>0.29626251861312236</v>
       </c>
       <c r="E246" s="0">
+        <v>2.6989193717147839</v>
+      </c>
+      <c r="F246" s="0">
         <v>0.63494758974765775</v>
       </c>
-      <c r="F246" s="0">
+      <c r="G246" s="0">
         <v>0.056719639675297889</v>
       </c>
-      <c r="G246" s="0">
+      <c r="H246" s="0">
         <v>-10.256801067271972</v>
       </c>
-      <c r="H246" s="0">
+      <c r="I246" s="0">
         <v>10.349999999999994</v>
       </c>
     </row>
@@ -6506,15 +7248,18 @@
         <v>0.29708661667840769</v>
       </c>
       <c r="E247" s="0">
+        <v>2.7030630029141083</v>
+      </c>
+      <c r="F247" s="0">
         <v>0.63754974047807311</v>
       </c>
-      <c r="F247" s="0">
+      <c r="G247" s="0">
         <v>0.055531726362946704</v>
       </c>
-      <c r="G247" s="0">
+      <c r="H247" s="0">
         <v>-10.23035041311984</v>
       </c>
-      <c r="H247" s="0">
+      <c r="I247" s="0">
         <v>10.299999999999997</v>
       </c>
     </row>
@@ -6532,15 +7277,18 @@
         <v>0.29791260754018656</v>
       </c>
       <c r="E248" s="0">
+        <v>2.7071664723759645</v>
+      </c>
+      <c r="F248" s="0">
         <v>0.64015188694432679</v>
       </c>
-      <c r="F248" s="0">
+      <c r="G248" s="0">
         <v>0.054358431275981889</v>
       </c>
-      <c r="G248" s="0">
+      <c r="H248" s="0">
         <v>-10.203551211269309</v>
       </c>
-      <c r="H248" s="0">
+      <c r="I248" s="0">
         <v>10.25</v>
       </c>
     </row>
@@ -6558,15 +7306,18 @@
         <v>0.29874048935346742</v>
       </c>
       <c r="E249" s="0">
+        <v>2.7112300455530534</v>
+      </c>
+      <c r="F249" s="0">
         <v>0.64275402900811218</v>
       </c>
-      <c r="F249" s="0">
+      <c r="G249" s="0">
         <v>0.055229187269359409</v>
       </c>
-      <c r="G249" s="0">
+      <c r="H249" s="0">
         <v>-10.175778464448163</v>
       </c>
-      <c r="H249" s="0">
+      <c r="I249" s="0">
         <v>10.149999999999991</v>
       </c>
     </row>
@@ -6584,15 +7335,18 @@
         <v>0.29957026027603173</v>
       </c>
       <c r="E250" s="0">
+        <v>2.7152539866967831</v>
+      </c>
+      <c r="F250" s="0">
         <v>0.64535616652791561</v>
       </c>
-      <c r="F250" s="0">
+      <c r="G250" s="0">
         <v>0.054084681243818794</v>
       </c>
-      <c r="G250" s="0">
+      <c r="H250" s="0">
         <v>-10.148302323625352</v>
       </c>
-      <c r="H250" s="0">
+      <c r="I250" s="0">
         <v>10.099999999999994</v>
       </c>
     </row>
@@ -6610,15 +7364,18 @@
         <v>0.30040191846845116</v>
       </c>
       <c r="E251" s="0">
+        <v>2.7192385588514973</v>
+      </c>
+      <c r="F251" s="0">
         <v>0.64795829935897231</v>
       </c>
-      <c r="F251" s="0">
+      <c r="G251" s="0">
         <v>0.052954267691462664</v>
       </c>
-      <c r="G251" s="0">
+      <c r="H251" s="0">
         <v>-10.120491382157548</v>
       </c>
-      <c r="H251" s="0">
+      <c r="I251" s="0">
         <v>10.049999999999997</v>
       </c>
     </row>
@@ -6636,15 +7393,18 @@
         <v>0.30123546209410323</v>
       </c>
       <c r="E252" s="0">
+        <v>2.7231840238490022</v>
+      </c>
+      <c r="F252" s="0">
         <v>0.65056042735321951</v>
       </c>
-      <c r="F252" s="0">
+      <c r="G252" s="0">
         <v>0.051837777170071792</v>
       </c>
-      <c r="G252" s="0">
+      <c r="H252" s="0">
         <v>-10.092350167685943</v>
       </c>
-      <c r="H252" s="0">
+      <c r="I252" s="0">
         <v>10</v>
       </c>
     </row>
@@ -6662,15 +7422,18 @@
         <v>0.30207088931918874</v>
       </c>
       <c r="E253" s="0">
+        <v>2.7270906423034025</v>
+      </c>
+      <c r="F253" s="0">
         <v>0.65316255035925108</v>
       </c>
-      <c r="F253" s="0">
+      <c r="G253" s="0">
         <v>0.050735042797951768</v>
       </c>
-      <c r="G253" s="0">
+      <c r="H253" s="0">
         <v>-10.063883171629888</v>
       </c>
-      <c r="H253" s="0">
+      <c r="I253" s="0">
         <v>9.9499999999999886</v>
       </c>
     </row>
@@ -6688,15 +7451,18 @@
         <v>0.30290819831274762</v>
       </c>
       <c r="E254" s="0">
+        <v>2.7309586736062301</v>
+      </c>
+      <c r="F254" s="0">
         <v>0.65576466822226986</v>
       </c>
-      <c r="F254" s="0">
+      <c r="G254" s="0">
         <v>0.049645900207317517</v>
       </c>
-      <c r="G254" s="0">
+      <c r="H254" s="0">
         <v>-10.03509484925385</v>
       </c>
-      <c r="H254" s="0">
+      <c r="I254" s="0">
         <v>9.8999999999999915</v>
       </c>
     </row>
@@ -6714,15 +7480,18 @@
         <v>0.30374738724667566</v>
       </c>
       <c r="E255" s="0">
+        <v>2.7347883759218603</v>
+      </c>
+      <c r="F255" s="0">
         <v>0.65836678078404132</v>
       </c>
-      <c r="F255" s="0">
+      <c r="G255" s="0">
         <v>0.050600262778592336</v>
       </c>
-      <c r="G255" s="0">
+      <c r="H255" s="0">
         <v>-10.00538921679377</v>
       </c>
-      <c r="H255" s="0">
+      <c r="I255" s="0">
         <v>9.7999999999999972</v>
       </c>
     </row>
@@ -6740,15 +7509,18 @@
         <v>0.30458845429574077</v>
       </c>
       <c r="E256" s="0">
+        <v>2.7385800061832106</v>
+      </c>
+      <c r="F256" s="0">
         <v>0.66096888788284669</v>
       </c>
-      <c r="F256" s="0">
+      <c r="G256" s="0">
         <v>0.04953789503149067</v>
       </c>
-      <c r="G256" s="0">
+      <c r="H256" s="0">
         <v>-9.9759774585340928</v>
       </c>
-      <c r="H256" s="0">
+      <c r="I256" s="0">
         <v>9.75</v>
       </c>
     </row>
@@ -6766,15 +7538,18 @@
         <v>0.30543139763759941</v>
       </c>
       <c r="E257" s="0">
+        <v>2.7423338200877128</v>
+      </c>
+      <c r="F257" s="0">
         <v>0.66357098935343495</v>
       </c>
-      <c r="F257" s="0">
+      <c r="G257" s="0">
         <v>0.048488639265180128</v>
       </c>
-      <c r="G257" s="0">
+      <c r="H257" s="0">
         <v>-9.9462574732248434</v>
       </c>
-      <c r="H257" s="0">
+      <c r="I257" s="0">
         <v>9.6999999999999886</v>
       </c>
     </row>
@@ -6792,15 +7567,18 @@
         <v>0.30627621545281314</v>
       </c>
       <c r="E258" s="0">
+        <v>2.746050072093555</v>
+      </c>
+      <c r="F258" s="0">
         <v>0.66617308502697636</v>
       </c>
-      <c r="F258" s="0">
+      <c r="G258" s="0">
         <v>0.047452340746653054</v>
       </c>
-      <c r="G258" s="0">
+      <c r="H258" s="0">
         <v>-9.9162335726544963</v>
       </c>
-      <c r="H258" s="0">
+      <c r="I258" s="0">
         <v>9.6499999999999915</v>
       </c>
     </row>
@@ -6818,15 +7596,18 @@
         <v>0.30712290592486469</v>
       </c>
       <c r="E259" s="0">
+        <v>2.7497290154161895</v>
+      </c>
+      <c r="F259" s="0">
         <v>0.66877517473101311</v>
       </c>
-      <c r="F259" s="0">
+      <c r="G259" s="0">
         <v>0.046428847037425502</v>
       </c>
-      <c r="G259" s="0">
+      <c r="H259" s="0">
         <v>-9.8859100328739942</v>
       </c>
-      <c r="H259" s="0">
+      <c r="I259" s="0">
         <v>9.5999999999999943</v>
       </c>
     </row>
@@ -6844,15 +7625,18 @@
         <v>0.30797146724017466</v>
       </c>
       <c r="E260" s="0">
+        <v>2.7533709020250843</v>
+      </c>
+      <c r="F260" s="0">
         <v>0.67137725828941208</v>
       </c>
-      <c r="F260" s="0">
+      <c r="G260" s="0">
         <v>0.045418007952490819</v>
       </c>
-      <c r="G260" s="0">
+      <c r="H260" s="0">
         <v>-9.8552910942945537</v>
       </c>
-      <c r="H260" s="0">
+      <c r="I260" s="0">
         <v>9.5499999999999972</v>
       </c>
     </row>
@@ -6870,15 +7654,18 @@
         <v>0.30882189758811734</v>
       </c>
       <c r="E261" s="0">
+        <v>2.7569759826407494</v>
+      </c>
+      <c r="F261" s="0">
         <v>0.67397933552231681</v>
       </c>
-      <c r="F261" s="0">
+      <c r="G261" s="0">
         <v>0.044419675520122326</v>
       </c>
-      <c r="G261" s="0">
+      <c r="H261" s="0">
         <v>-9.8243809617903217</v>
       </c>
-      <c r="H261" s="0">
+      <c r="I261" s="0">
         <v>9.5</v>
       </c>
     </row>
@@ -6896,15 +7683,18 @@
         <v>0.30967419516103728</v>
       </c>
       <c r="E262" s="0">
+        <v>2.7605445067319789</v>
+      </c>
+      <c r="F262" s="0">
         <v>0.67658140624609775</v>
       </c>
-      <c r="F262" s="0">
+      <c r="G262" s="0">
         <v>0.045464271319927918</v>
       </c>
-      <c r="G262" s="0">
+      <c r="H262" s="0">
         <v>-9.7926167971591678</v>
       </c>
-      <c r="H262" s="0">
+      <c r="I262" s="0">
         <v>9.3999999999999915</v>
       </c>
     </row>
@@ -6922,15 +7712,18 @@
         <v>0.31052835815426566</v>
       </c>
       <c r="E263" s="0">
+        <v>2.7640767225133516</v>
+      </c>
+      <c r="F263" s="0">
         <v>0.6791834702733045</v>
       </c>
-      <c r="F263" s="0">
+      <c r="G263" s="0">
         <v>0.044490583452790861</v>
       </c>
-      <c r="G263" s="0">
+      <c r="H263" s="0">
         <v>-9.7611424243004734</v>
       </c>
-      <c r="H263" s="0">
+      <c r="I263" s="0">
         <v>9.3499999999999943</v>
       </c>
     </row>
@@ -6948,15 +7741,18 @@
         <v>0.31138438476613628</v>
       </c>
       <c r="E264" s="0">
+        <v>2.7675728769429586</v>
+      </c>
+      <c r="F264" s="0">
         <v>0.68178552741261567</v>
       </c>
-      <c r="F264" s="0">
+      <c r="G264" s="0">
         <v>0.043528970044851373</v>
       </c>
-      <c r="G264" s="0">
+      <c r="H264" s="0">
         <v>-9.7293892124608998</v>
       </c>
-      <c r="H264" s="0">
+      <c r="I264" s="0">
         <v>9.2999999999999972</v>
       </c>
     </row>
@@ -6974,15 +7770,18 @@
         <v>0.31224227319800163</v>
       </c>
       <c r="E265" s="0">
+        <v>2.771033215720363</v>
+      </c>
+      <c r="F265" s="0">
         <v>0.68438757746879064</v>
       </c>
-      <c r="F265" s="0">
+      <c r="G265" s="0">
         <v>0.042579291614200127</v>
       </c>
-      <c r="G265" s="0">
+      <c r="H265" s="0">
         <v>-9.6973612258503703</v>
       </c>
-      <c r="H265" s="0">
+      <c r="I265" s="0">
         <v>9.25</v>
       </c>
     </row>
@@ -7000,15 +7799,18 @@
         <v>0.31310202165424966</v>
       </c>
       <c r="E266" s="0">
+        <v>2.7744579832847664</v>
+      </c>
+      <c r="F266" s="0">
         <v>0.68698962024261856</v>
       </c>
-      <c r="F266" s="0">
+      <c r="G266" s="0">
         <v>0.041641410702841414</v>
       </c>
-      <c r="G266" s="0">
+      <c r="H266" s="0">
         <v>-9.6650624937195317</v>
       </c>
-      <c r="H266" s="0">
+      <c r="I266" s="0">
         <v>9.1999999999999886</v>
       </c>
     </row>
@@ -7026,15 +7828,18 @@
         <v>0.31396362834231911</v>
       </c>
       <c r="E267" s="0">
+        <v>2.7778474228134198</v>
+      </c>
+      <c r="F267" s="0">
         <v>0.68959165553086954</v>
       </c>
-      <c r="F267" s="0">
+      <c r="G267" s="0">
         <v>0.040715191841210946</v>
       </c>
-      <c r="G267" s="0">
+      <c r="H267" s="0">
         <v>-9.6324970104867447</v>
       </c>
-      <c r="H267" s="0">
+      <c r="I267" s="0">
         <v>9.1499999999999915</v>
       </c>
     </row>
@@ -7052,15 +7857,18 @@
         <v>0.31482709147271642</v>
       </c>
       <c r="E268" s="0">
+        <v>2.7812017762202168</v>
+      </c>
+      <c r="F268" s="0">
         <v>0.69219368312624419</v>
       </c>
-      <c r="F268" s="0">
+      <c r="G268" s="0">
         <v>0.03980050151343259</v>
       </c>
-      <c r="G268" s="0">
+      <c r="H268" s="0">
         <v>-9.5996687358688124</v>
       </c>
-      <c r="H268" s="0">
+      <c r="I268" s="0">
         <v>9.0999999999999943</v>
       </c>
     </row>
@@ -7078,15 +7886,18 @@
         <v>0.31569240925903119</v>
       </c>
       <c r="E269" s="0">
+        <v>2.7845212841545144</v>
+      </c>
+      <c r="F269" s="0">
         <v>0.69479570281732317</v>
       </c>
-      <c r="F269" s="0">
+      <c r="G269" s="0">
         <v>0.038897208123268939</v>
       </c>
-      <c r="G269" s="0">
+      <c r="H269" s="0">
         <v>-9.5665815950151654</v>
       </c>
-      <c r="H269" s="0">
+      <c r="I269" s="0">
         <v>9.0499999999999972</v>
       </c>
     </row>
@@ -7104,15 +7915,18 @@
         <v>0.31655957991795264</v>
       </c>
       <c r="E270" s="0">
+        <v>2.7878061860001488</v>
+      </c>
+      <c r="F270" s="0">
         <v>0.6973977143885165</v>
       </c>
-      <c r="F270" s="0">
+      <c r="G270" s="0">
         <v>0.038005181960767742</v>
       </c>
-      <c r="G270" s="0">
+      <c r="H270" s="0">
         <v>-9.5332394786454095</v>
       </c>
-      <c r="H270" s="0">
+      <c r="I270" s="0">
         <v>9</v>
       </c>
     </row>
@@ -7130,15 +7944,18 @@
         <v>0.31742860166928549</v>
       </c>
       <c r="E271" s="0">
+        <v>2.7910567198746419</v>
+      </c>
+      <c r="F271" s="0">
         <v>0.69999971762001267</v>
       </c>
-      <c r="F271" s="0">
+      <c r="G271" s="0">
         <v>0.039155423054071326</v>
       </c>
-      <c r="G271" s="0">
+      <c r="H271" s="0">
         <v>-9.49912132222107</v>
       </c>
-      <c r="H271" s="0">
+      <c r="I271" s="0">
         <v>8.8999999999999915</v>
       </c>
     </row>
@@ -7156,15 +7973,18 @@
         <v>0.31829947273596604</v>
       </c>
       <c r="E272" s="0">
+        <v>2.7942731226286099</v>
+      </c>
+      <c r="F272" s="0">
         <v>0.70260171228772761</v>
       </c>
-      <c r="F272" s="0">
+      <c r="G272" s="0">
         <v>0.038285607027993912</v>
       </c>
-      <c r="G272" s="0">
+      <c r="H272" s="0">
         <v>-9.4652860757322514</v>
       </c>
-      <c r="H272" s="0">
+      <c r="I272" s="0">
         <v>8.8499999999999943</v>
       </c>
     </row>
@@ -7182,15 +8002,18 @@
         <v>0.31917219134407815</v>
       </c>
       <c r="E273" s="0">
+        <v>2.7974556298453561</v>
+      </c>
+      <c r="F273" s="0">
         <v>0.70520369816325368</v>
       </c>
-      <c r="F273" s="0">
+      <c r="G273" s="0">
         <v>0.037426679101182608</v>
       </c>
-      <c r="G273" s="0">
+      <c r="H273" s="0">
         <v>-9.4312072767370605</v>
       </c>
-      <c r="H273" s="0">
+      <c r="I273" s="0">
         <v>8.7999999999999972</v>
       </c>
     </row>
@@ -7208,15 +8031,18 @@
         <v>0.32004675572286917</v>
       </c>
       <c r="E274" s="0">
+        <v>2.800604475840641</v>
+      </c>
+      <c r="F274" s="0">
         <v>0.70780567501380764</v>
       </c>
-      <c r="F274" s="0">
+      <c r="G274" s="0">
         <v>0.036578516806888173</v>
       </c>
-      <c r="G274" s="0">
+      <c r="H274" s="0">
         <v>-9.3968886800475726</v>
       </c>
-      <c r="H274" s="0">
+      <c r="I274" s="0">
         <v>8.75</v>
       </c>
     </row>
@@ -7234,15 +8060,18 @@
         <v>0.32092316410476573</v>
       </c>
       <c r="E275" s="0">
+        <v>2.8037198936626364</v>
+      </c>
+      <c r="F275" s="0">
         <v>0.71040764260217848</v>
       </c>
-      <c r="F275" s="0">
+      <c r="G275" s="0">
         <v>0.035740999407287144</v>
       </c>
-      <c r="G275" s="0">
+      <c r="H275" s="0">
         <v>-9.362334006780106</v>
       </c>
-      <c r="H275" s="0">
+      <c r="I275" s="0">
         <v>8.6999999999999886</v>
       </c>
     </row>
@@ -7260,15 +8089,18 @@
         <v>0.32180141472539014</v>
       </c>
       <c r="E276" s="0">
+        <v>2.8068021150920517</v>
+      </c>
+      <c r="F276" s="0">
         <v>0.71300960068667607</v>
       </c>
-      <c r="F276" s="0">
+      <c r="G276" s="0">
         <v>0.034914007863956237</v>
       </c>
-      <c r="G276" s="0">
+      <c r="H276" s="0">
         <v>-9.3275469445103791</v>
       </c>
-      <c r="H276" s="0">
+      <c r="I276" s="0">
         <v>8.6499999999999915</v>
       </c>
     </row>
@@ -7286,15 +8118,18 @@
         <v>0.32268150582357569</v>
       </c>
       <c r="E277" s="0">
+        <v>2.8098513706424284</v>
+      </c>
+      <c r="F277" s="0">
         <v>0.71561154902107871</v>
       </c>
-      <c r="F277" s="0">
+      <c r="G277" s="0">
         <v>0.034097424808938986</v>
       </c>
-      <c r="G277" s="0">
+      <c r="H277" s="0">
         <v>-9.2925311474312196</v>
       </c>
-      <c r="H277" s="0">
+      <c r="I277" s="0">
         <v>8.5999999999999943</v>
       </c>
     </row>
@@ -7312,15 +8147,18 @@
         <v>0.32356343564138268</v>
       </c>
       <c r="E278" s="0">
+        <v>2.8128678895606032</v>
+      </c>
+      <c r="F278" s="0">
         <v>0.71821348735458013</v>
       </c>
-      <c r="F278" s="0">
+      <c r="G278" s="0">
         <v>0.033291134516383658</v>
       </c>
-      <c r="G278" s="0">
+      <c r="H278" s="0">
         <v>-9.2572902365127554</v>
       </c>
-      <c r="H278" s="0">
+      <c r="I278" s="0">
         <v>8.5499999999999972</v>
       </c>
     </row>
@@ -7338,15 +8176,18 @@
         <v>0.32444720242411457</v>
       </c>
       <c r="E279" s="0">
+        <v>2.8158518998273236</v>
+      </c>
+      <c r="F279" s="0">
         <v>0.72081541543173677</v>
       </c>
-      <c r="F279" s="0">
+      <c r="G279" s="0">
         <v>0.0324950228747449</v>
       </c>
-      <c r="G279" s="0">
+      <c r="H279" s="0">
         <v>-9.2218277996649238</v>
       </c>
-      <c r="H279" s="0">
+      <c r="I279" s="0">
         <v>8.5</v>
       </c>
     </row>
@@ -7364,15 +8205,18 @@
         <v>0.32533280442033335</v>
       </c>
       <c r="E280" s="0">
+        <v>2.818803628158034</v>
+      </c>
+      <c r="F280" s="0">
         <v>0.7234173329924154</v>
       </c>
-      <c r="F280" s="0">
+      <c r="G280" s="0">
         <v>0.03170897735953046</v>
       </c>
-      <c r="G280" s="0">
+      <c r="H280" s="0">
         <v>-9.1861473919023062</v>
       </c>
-      <c r="H280" s="0">
+      <c r="I280" s="0">
         <v>8.4499999999999904</v>
       </c>
     </row>
@@ -7390,15 +8234,18 @@
         <v>0.32622023988187554</v>
       </c>
       <c r="E281" s="0">
+        <v>2.8217233000037982</v>
+      </c>
+      <c r="F281" s="0">
         <v>0.7260192397717391</v>
       </c>
-      <c r="F281" s="0">
+      <c r="G281" s="0">
         <v>0.030932887006588694</v>
       </c>
-      <c r="G281" s="0">
+      <c r="H281" s="0">
         <v>-9.1502525355110063</v>
       </c>
-      <c r="H281" s="0">
+      <c r="I281" s="0">
         <v>8.3999999999999915</v>
       </c>
     </row>
@@ -7416,15 +8263,18 @@
         <v>0.32710950706386777</v>
       </c>
       <c r="E282" s="0">
+        <v>2.8246111395523887</v>
+      </c>
+      <c r="F282" s="0">
         <v>0.72862113550003438</v>
       </c>
-      <c r="F282" s="0">
+      <c r="G282" s="0">
         <v>0.030166642385919235</v>
       </c>
-      <c r="G282" s="0">
+      <c r="H282" s="0">
         <v>-9.1141467202177182</v>
       </c>
-      <c r="H282" s="0">
+      <c r="I282" s="0">
         <v>8.3499999999999943</v>
       </c>
     </row>
@@ -7442,15 +8292,18 @@
         <v>0.32800060422474275</v>
       </c>
       <c r="E283" s="0">
+        <v>2.8274673697295012</v>
+      </c>
+      <c r="F283" s="0">
         <v>0.73122301990277661</v>
       </c>
-      <c r="F283" s="0">
+      <c r="G283" s="0">
         <v>0.031441898950464897</v>
       </c>
-      <c r="G283" s="0">
+      <c r="H283" s="0">
         <v>-9.0773621079397397</v>
       </c>
-      <c r="H283" s="0">
+      <c r="I283" s="0">
         <v>8.25</v>
       </c>
     </row>
@@ -7468,15 +8321,18 @@
         <v>0.32889352962625468</v>
       </c>
       <c r="E284" s="0">
+        <v>2.8302922122001291</v>
+      </c>
+      <c r="F284" s="0">
         <v>0.73382489270053708</v>
       </c>
-      <c r="F284" s="0">
+      <c r="G284" s="0">
         <v>0.030695070726773688</v>
       </c>
-      <c r="G284" s="0">
+      <c r="H284" s="0">
         <v>-9.0408495248783041</v>
       </c>
-      <c r="H284" s="0">
+      <c r="I284" s="0">
         <v>8.1999999999999904</v>
       </c>
     </row>
@@ -7494,15 +8350,18 @@
         <v>0.32978828153349499</v>
       </c>
       <c r="E285" s="0">
+        <v>2.8330858873700642</v>
+      </c>
+      <c r="F285" s="0">
         <v>0.73642675360892795</v>
       </c>
-      <c r="F285" s="0">
+      <c r="G285" s="0">
         <v>0.029957768092135711</v>
       </c>
-      <c r="G285" s="0">
+      <c r="H285" s="0">
         <v>-9.00413621907569</v>
       </c>
-      <c r="H285" s="0">
+      <c r="I285" s="0">
         <v>8.1499999999999932</v>
       </c>
     </row>
@@ -7520,15 +8379,18 @@
         <v>0.33068485821490823</v>
       </c>
       <c r="E286" s="0">
+        <v>2.8358486143875301</v>
+      </c>
+      <c r="F286" s="0">
         <v>0.73902860233854872</v>
       </c>
-      <c r="F286" s="0">
+      <c r="G286" s="0">
         <v>0.029229887515612091</v>
       </c>
-      <c r="G286" s="0">
+      <c r="H286" s="0">
         <v>-8.9672255521140656</v>
       </c>
-      <c r="H286" s="0">
+      <c r="I286" s="0">
         <v>8.0999999999999943</v>
       </c>
     </row>
@@ -7546,15 +8408,18 @@
         <v>0.33158325794230703</v>
       </c>
       <c r="E287" s="0">
+        <v>2.8385806111449594</v>
+      </c>
+      <c r="F287" s="0">
         <v>0.74163043859493061</v>
       </c>
-      <c r="F287" s="0">
+      <c r="G287" s="0">
         <v>0.028511326876642096</v>
       </c>
-      <c r="G287" s="0">
+      <c r="H287" s="0">
         <v>-8.9301208538879866</v>
       </c>
-      <c r="H287" s="0">
+      <c r="I287" s="0">
         <v>8.0499999999999972</v>
       </c>
     </row>
@@ -7572,15 +8437,18 @@
         <v>0.33248347899088843</v>
       </c>
       <c r="E288" s="0">
+        <v>2.8412820942808779</v>
+      </c>
+      <c r="F288" s="0">
         <v>0.74423226207848214</v>
       </c>
-      <c r="F288" s="0">
+      <c r="G288" s="0">
         <v>0.027801985441778143</v>
       </c>
-      <c r="G288" s="0">
+      <c r="H288" s="0">
         <v>-8.8928254227838419</v>
       </c>
-      <c r="H288" s="0">
+      <c r="I288" s="0">
         <v>8</v>
       </c>
     </row>
@@ -7598,15 +8466,18 @@
         <v>0.3333855196392489</v>
       </c>
       <c r="E289" s="0">
+        <v>2.84395327918193</v>
+      </c>
+      <c r="F289" s="0">
         <v>0.74683407248443445</v>
       </c>
-      <c r="F289" s="0">
+      <c r="G289" s="0">
         <v>0.027101763841863691</v>
       </c>
-      <c r="G289" s="0">
+      <c r="H289" s="0">
         <v>-8.8553425258607525</v>
       </c>
-      <c r="H289" s="0">
+      <c r="I289" s="0">
         <v>7.9499999999999886</v>
       </c>
     </row>
@@ -7624,15 +8495,18 @@
         <v>0.33428937816940019</v>
       </c>
       <c r="E290" s="0">
+        <v>2.8465943799850115</v>
+      </c>
+      <c r="F290" s="0">
         <v>0.74943586950278551</v>
       </c>
-      <c r="F290" s="0">
+      <c r="G290" s="0">
         <v>0.026410564049653168</v>
       </c>
-      <c r="G290" s="0">
+      <c r="H290" s="0">
         <v>-8.8176753990327938</v>
       </c>
-      <c r="H290" s="0">
+      <c r="I290" s="0">
         <v>7.8999999999999924</v>
       </c>
     </row>
@@ -7650,15 +8524,18 @@
         <v>0.3351950528667843</v>
       </c>
       <c r="E291" s="0">
+        <v>2.8492056095795286</v>
+      </c>
+      <c r="F291" s="0">
         <v>0.7520376528182442</v>
       </c>
-      <c r="F291" s="0">
+      <c r="G291" s="0">
         <v>0.025728289357861756</v>
       </c>
-      <c r="G291" s="0">
+      <c r="H291" s="0">
         <v>-8.7798272472525696</v>
       </c>
-      <c r="H291" s="0">
+      <c r="I291" s="0">
         <v>7.8499999999999943</v>
       </c>
     </row>
@@ -7676,15 +8553,18 @@
         <v>0.33610254202028955</v>
       </c>
       <c r="E292" s="0">
+        <v>2.8517871796097651</v>
+      </c>
+      <c r="F292" s="0">
         <v>0.75463942211017554</v>
       </c>
-      <c r="F292" s="0">
+      <c r="G292" s="0">
         <v>0.025054844357633888</v>
       </c>
-      <c r="G292" s="0">
+      <c r="H292" s="0">
         <v>-8.7418012446960613</v>
       </c>
-      <c r="H292" s="0">
+      <c r="I292" s="0">
         <v>7.7999999999999963</v>
       </c>
     </row>
@@ -7702,15 +8582,18 @@
         <v>0.33701184392226569</v>
       </c>
       <c r="E293" s="0">
+        <v>2.8543393004773576</v>
+      </c>
+      <c r="F293" s="0">
         <v>0.75724117705254368</v>
       </c>
-      <c r="F293" s="0">
+      <c r="G293" s="0">
         <v>0.024390134917422923</v>
       </c>
-      <c r="G293" s="0">
+      <c r="H293" s="0">
         <v>-8.70360053494848</v>
       </c>
-      <c r="H293" s="0">
+      <c r="I293" s="0">
         <v>7.75</v>
       </c>
     </row>
@@ -7728,15 +8611,18 @@
         <v>0.33792295686853896</v>
       </c>
       <c r="E294" s="0">
+        <v>2.8568621813438893</v>
+      </c>
+      <c r="F294" s="0">
         <v>0.75984291731385711</v>
       </c>
-      <c r="F294" s="0">
+      <c r="G294" s="0">
         <v>0.023734068162273581</v>
       </c>
-      <c r="G294" s="0">
+      <c r="H294" s="0">
         <v>-8.6652282311913726</v>
       </c>
-      <c r="H294" s="0">
+      <c r="I294" s="0">
         <v>7.6999999999999877</v>
       </c>
     </row>
@@ -7754,15 +8640,18 @@
         <v>0.33883587915842839</v>
       </c>
       <c r="E295" s="0">
+        <v>2.8593560301335663</v>
+      </c>
+      <c r="F295" s="0">
         <v>0.76244464255711009</v>
       </c>
-      <c r="F295" s="0">
+      <c r="G295" s="0">
         <v>0.023086552453498083</v>
       </c>
-      <c r="G295" s="0">
+      <c r="H295" s="0">
         <v>-8.6266874163906522</v>
       </c>
-      <c r="H295" s="0">
+      <c r="I295" s="0">
         <v>7.6499999999999915</v>
       </c>
     </row>
@@ -7780,15 +8669,18 @@
         <v>0.33975060909476018</v>
       </c>
       <c r="E296" s="0">
+        <v>2.8618210535360276</v>
+      </c>
+      <c r="F296" s="0">
         <v>0.76504635243972807</v>
       </c>
-      <c r="F296" s="0">
+      <c r="G296" s="0">
         <v>0.022447497368735359</v>
       </c>
-      <c r="G296" s="0">
+      <c r="H296" s="0">
         <v>-8.5879811434855942</v>
       </c>
-      <c r="H296" s="0">
+      <c r="I296" s="0">
         <v>7.5999999999999943</v>
       </c>
     </row>
@@ -7806,15 +8698,18 @@
         <v>0.34066714498388329</v>
       </c>
       <c r="E297" s="0">
+        <v>2.8642574570092183</v>
+      </c>
+      <c r="F297" s="0">
         <v>0.76764804661350994</v>
       </c>
-      <c r="F297" s="0">
+      <c r="G297" s="0">
         <v>0.021816813682391356</v>
       </c>
-      <c r="G297" s="0">
+      <c r="H297" s="0">
         <v>-8.5491124355786834</v>
       </c>
-      <c r="H297" s="0">
+      <c r="I297" s="0">
         <v>7.5499999999999972</v>
       </c>
     </row>
@@ -7832,15 +8727,18 @@
         <v>0.34158548513568521</v>
       </c>
       <c r="E298" s="0">
+        <v>2.8666654447823849</v>
+      </c>
+      <c r="F298" s="0">
         <v>0.77024972472457121</v>
       </c>
-      <c r="F298" s="0">
+      <c r="G298" s="0">
         <v>0.021194413346440982</v>
       </c>
-      <c r="G298" s="0">
+      <c r="H298" s="0">
         <v>-8.510084286126391</v>
       </c>
-      <c r="H298" s="0">
+      <c r="I298" s="0">
         <v>7.4999999999999991</v>
       </c>
     </row>
@@ -7858,15 +8756,18 @@
         <v>0.34250562786360617</v>
       </c>
       <c r="E299" s="0">
+        <v>2.869045219859149</v>
+      </c>
+      <c r="F299" s="0">
         <v>0.77285138641328532</v>
       </c>
-      <c r="F299" s="0">
+      <c r="G299" s="0">
         <v>0.020580209471599359</v>
       </c>
-      <c r="G299" s="0">
+      <c r="H299" s="0">
         <v>-8.470899659130561</v>
       </c>
-      <c r="H299" s="0">
+      <c r="I299" s="0">
         <v>7.4499999999999877</v>
       </c>
     </row>
@@ -7884,15 +8785,18 @@
         <v>0.34342757148465564</v>
       </c>
       <c r="E300" s="0">
+        <v>2.871396984020679</v>
+      </c>
+      <c r="F300" s="0">
         <v>0.7754530313142296</v>
       </c>
-      <c r="F300" s="0">
+      <c r="G300" s="0">
         <v>0.019974116308836082</v>
       </c>
-      <c r="G300" s="0">
+      <c r="H300" s="0">
         <v>-8.431561489330603</v>
       </c>
-      <c r="H300" s="0">
+      <c r="I300" s="0">
         <v>7.3999999999999906</v>
       </c>
     </row>
@@ -7910,15 +8814,18 @@
         <v>0.34435131431942617</v>
       </c>
       <c r="E301" s="0">
+        <v>2.8737209378289377</v>
+      </c>
+      <c r="F301" s="0">
         <v>0.77805465905612303</v>
       </c>
-      <c r="F301" s="0">
+      <c r="G301" s="0">
         <v>0.019376049231247416</v>
       </c>
-      <c r="G301" s="0">
+      <c r="H301" s="0">
         <v>-8.3920726823962717</v>
       </c>
-      <c r="H301" s="0">
+      <c r="I301" s="0">
         <v>7.3499999999999943</v>
       </c>
     </row>
@@ -7936,15 +8843,18 @@
         <v>0.34527685469210967</v>
       </c>
       <c r="E302" s="0">
+        <v>2.8760172806300353</v>
+      </c>
+      <c r="F302" s="0">
         <v>0.78065626926177267</v>
       </c>
-      <c r="F302" s="0">
+      <c r="G302" s="0">
         <v>0.018785924716254343</v>
       </c>
-      <c r="G302" s="0">
+      <c r="H302" s="0">
         <v>-8.3524361151210407</v>
       </c>
-      <c r="H302" s="0">
+      <c r="I302" s="0">
         <v>7.2999999999999972</v>
       </c>
     </row>
@@ -7962,15 +8872,18 @@
         <v>0.34620419093051169</v>
       </c>
       <c r="E303" s="0">
+        <v>2.8782862105576359</v>
+      </c>
+      <c r="F303" s="0">
         <v>0.78325786154801169</v>
       </c>
-      <c r="F303" s="0">
+      <c r="G303" s="0">
         <v>0.018203660328140414</v>
       </c>
-      <c r="G303" s="0">
+      <c r="H303" s="0">
         <v>-8.3126546356160294</v>
       </c>
-      <c r="H303" s="0">
+      <c r="I303" s="0">
         <v>7.25</v>
       </c>
     </row>
@@ -7988,15 +8901,18 @@
         <v>0.34713332136606712</v>
       </c>
       <c r="E304" s="0">
+        <v>2.8805279245364752</v>
+      </c>
+      <c r="F304" s="0">
         <v>0.78585943552564486</v>
       </c>
-      <c r="F304" s="0">
+      <c r="G304" s="0">
         <v>0.017629174700909273</v>
       </c>
-      <c r="G304" s="0">
+      <c r="H304" s="0">
         <v>-8.2727310635042972</v>
       </c>
-      <c r="H304" s="0">
+      <c r="I304" s="0">
         <v>7.1999999999999877</v>
       </c>
     </row>
@@ -8014,15 +8930,18 @@
         <v>0.34806424433385508</v>
       </c>
       <c r="E305" s="0">
+        <v>2.8827426182859233</v>
+      </c>
+      <c r="F305" s="0">
         <v>0.78846099079938636</v>
       </c>
-      <c r="F305" s="0">
+      <c r="G305" s="0">
         <v>0.017062387521460359</v>
       </c>
-      <c r="G305" s="0">
+      <c r="H305" s="0">
         <v>-8.2326681901157333</v>
       </c>
-      <c r="H305" s="0">
+      <c r="I305" s="0">
         <v>7.1499999999999915</v>
       </c>
     </row>
@@ -8040,15 +8959,18 @@
         <v>0.34899695817261345</v>
       </c>
       <c r="E306" s="0">
+        <v>2.8849304863236513</v>
+      </c>
+      <c r="F306" s="0">
         <v>0.79106252696780321</v>
       </c>
-      <c r="F306" s="0">
+      <c r="G306" s="0">
         <v>0.016503219513077205</v>
       </c>
-      <c r="G306" s="0">
+      <c r="H306" s="0">
         <v>-8.1924687786821195</v>
       </c>
-      <c r="H306" s="0">
+      <c r="I306" s="0">
         <v>7.0999999999999934</v>
       </c>
     </row>
@@ -8066,15 +8988,18 @@
         <v>0.34993146122475444</v>
       </c>
       <c r="E307" s="0">
+        <v>2.8870917219693553</v>
+      </c>
+      <c r="F307" s="0">
         <v>0.79366404362325627</v>
       </c>
-      <c r="F307" s="0">
+      <c r="G307" s="0">
         <v>0.015951592419214872</v>
       </c>
-      <c r="G307" s="0">
+      <c r="H307" s="0">
         <v>-8.152135564532653</v>
       </c>
-      <c r="H307" s="0">
+      <c r="I307" s="0">
         <v>7.0499999999999972</v>
       </c>
     </row>
@@ -8092,15 +9017,18 @@
         <v>0.35086775183637947</v>
       </c>
       <c r="E308" s="0">
+        <v>2.8892265173485421</v>
+      </c>
+      <c r="F308" s="0">
         <v>0.79626554035184072</v>
       </c>
-      <c r="F308" s="0">
+      <c r="G308" s="0">
         <v>0.015407428987592425</v>
       </c>
-      <c r="G308" s="0">
+      <c r="H308" s="0">
         <v>-8.1116712552896182</v>
       </c>
-      <c r="H308" s="0">
+      <c r="I308" s="0">
         <v>7</v>
       </c>
     </row>
@@ -8118,15 +9046,18 @@
         <v>0.35180582835729385</v>
       </c>
       <c r="E309" s="0">
+        <v>2.891335063396403</v>
+      </c>
+      <c r="F309" s="0">
         <v>0.7988670167333255</v>
       </c>
-      <c r="F309" s="0">
+      <c r="G309" s="0">
         <v>0.014870652954570684</v>
       </c>
-      <c r="G309" s="0">
+      <c r="H309" s="0">
         <v>-8.0710785310644333</v>
       </c>
-      <c r="H309" s="0">
+      <c r="I309" s="0">
         <v>6.9499999999999886</v>
       </c>
     </row>
@@ -8144,15 +9075,18 @@
         <v>0.35274568914102178</v>
       </c>
       <c r="E310" s="0">
+        <v>2.8934175498617418</v>
+      </c>
+      <c r="F310" s="0">
         <v>0.80146847234109642</v>
       </c>
-      <c r="F310" s="0">
+      <c r="G310" s="0">
         <v>0.014341189029814128</v>
       </c>
-      <c r="G310" s="0">
+      <c r="H310" s="0">
         <v>-8.0303600446536798</v>
       </c>
-      <c r="H310" s="0">
+      <c r="I310" s="0">
         <v>6.8999999999999915</v>
       </c>
     </row>
@@ -8170,15 +9104,18 @@
         <v>0.35368733254482132</v>
       </c>
       <c r="E311" s="0">
+        <v>2.8954741653109641</v>
+      </c>
+      <c r="F311" s="0">
         <v>0.80406990674209367</v>
       </c>
-      <c r="F311" s="0">
+      <c r="G311" s="0">
         <v>0.013818962881241487</v>
       </c>
-      <c r="G311" s="0">
+      <c r="H311" s="0">
         <v>-7.9895184217354132</v>
       </c>
-      <c r="H311" s="0">
+      <c r="I311" s="0">
         <v>6.8499999999999943</v>
       </c>
     </row>
@@ -8196,15 +9133,18 @@
         <v>0.35463075692969925</v>
       </c>
       <c r="E312" s="0">
+        <v>2.8975050971321323</v>
+      </c>
+      <c r="F312" s="0">
         <v>0.8066713194967543</v>
       </c>
-      <c r="F312" s="0">
+      <c r="G312" s="0">
         <v>0.013303901120240297</v>
       </c>
-      <c r="G312" s="0">
+      <c r="H312" s="0">
         <v>-7.948556261065491</v>
       </c>
-      <c r="H312" s="0">
+      <c r="I312" s="0">
         <v>6.7999999999999963</v>
       </c>
     </row>
@@ -8222,15 +9162,18 @@
         <v>0.35557596066042546</v>
       </c>
       <c r="E313" s="0">
+        <v>2.8995105315390792</v>
+      </c>
+      <c r="F313" s="0">
         <v>0.80927271015894975</v>
       </c>
-      <c r="F313" s="0">
+      <c r="G313" s="0">
         <v>0.012795931287153395</v>
       </c>
-      <c r="G313" s="0">
+      <c r="H313" s="0">
         <v>-7.9074761346739093</v>
       </c>
-      <c r="H313" s="0">
+      <c r="I313" s="0">
         <v>6.75</v>
       </c>
     </row>
@@ -8248,15 +9191,18 @@
         <v>0.35652294210554802</v>
       </c>
       <c r="E314" s="0">
+        <v>2.901490653575578</v>
+      </c>
+      <c r="F314" s="0">
         <v>0.81187407827592739</v>
       </c>
-      <c r="F314" s="0">
+      <c r="G314" s="0">
         <v>0.012294981837029373</v>
       </c>
-      <c r="G314" s="0">
+      <c r="H314" s="0">
         <v>-7.8662805880612625</v>
       </c>
-      <c r="H314" s="0">
+      <c r="I314" s="0">
         <v>6.6999999999999877</v>
       </c>
     </row>
@@ -8274,15 +9220,18 @@
         <v>0.35747169963740827</v>
       </c>
       <c r="E315" s="0">
+        <v>2.9034456471195651</v>
+      </c>
+      <c r="F315" s="0">
         <v>0.81447542338824952</v>
       </c>
-      <c r="F315" s="0">
+      <c r="G315" s="0">
         <v>0.011800982125625276</v>
       </c>
-      <c r="G315" s="0">
+      <c r="H315" s="0">
         <v>-7.8249721403950074</v>
       </c>
-      <c r="H315" s="0">
+      <c r="I315" s="0">
         <v>6.6499999999999915</v>
       </c>
     </row>
@@ -8300,15 +9249,18 @@
         <v>0.3584222316321547</v>
       </c>
       <c r="E316" s="0">
+        <v>2.9053756948874216</v>
+      </c>
+      <c r="F316" s="0">
         <v>0.81707674502973138</v>
       </c>
-      <c r="F316" s="0">
+      <c r="G316" s="0">
         <v>0.011313862395667312</v>
       </c>
-      <c r="G316" s="0">
+      <c r="H316" s="0">
         <v>-7.7835532847057607</v>
       </c>
-      <c r="H316" s="0">
+      <c r="I316" s="0">
         <v>6.5999999999999943</v>
       </c>
     </row>
@@ -8326,15 +9278,18 @@
         <v>0.35937453646975825</v>
       </c>
       <c r="E317" s="0">
+        <v>2.9072809784383011</v>
+      </c>
+      <c r="F317" s="0">
         <v>0.81967804272738243</v>
       </c>
-      <c r="F317" s="0">
+      <c r="G317" s="0">
         <v>0.010833553763353293</v>
       </c>
-      <c r="G317" s="0">
+      <c r="H317" s="0">
         <v>-7.7420264880834324</v>
       </c>
-      <c r="H317" s="0">
+      <c r="I317" s="0">
         <v>6.5499999999999972</v>
       </c>
     </row>
@@ -8352,15 +9307,18 @@
         <v>0.36032861253402682</v>
       </c>
       <c r="E318" s="0">
+        <v>2.9091616781785072</v>
+      </c>
+      <c r="F318" s="0">
         <v>0.82227931600134319</v>
       </c>
-      <c r="F318" s="0">
+      <c r="G318" s="0">
         <v>0.010359988205099424</v>
       </c>
-      <c r="G318" s="0">
+      <c r="H318" s="0">
         <v>-7.7003941918732446</v>
       </c>
-      <c r="H318" s="0">
+      <c r="I318" s="0">
         <v>6.5000000000000009</v>
       </c>
     </row>
@@ -8378,15 +9336,18 @@
         <v>0.36128445821261945</v>
       </c>
       <c r="E319" s="0">
+        <v>2.9110179733659209</v>
+      </c>
+      <c r="F319" s="0">
         <v>0.82488056436482549</v>
       </c>
-      <c r="F319" s="0">
+      <c r="G319" s="0">
         <v>0.0098930985445223607</v>
       </c>
-      <c r="G319" s="0">
+      <c r="H319" s="0">
         <v>-7.6586588118714811</v>
       </c>
-      <c r="H319" s="0">
+      <c r="I319" s="0">
         <v>6.4499999999999886</v>
       </c>
     </row>
@@ -8404,15 +9365,18 @@
         <v>0.36224207189706165</v>
       </c>
       <c r="E320" s="0">
+        <v>2.9128500421144743</v>
+      </c>
+      <c r="F320" s="0">
         <v>0.82748178732404998</v>
       </c>
-      <c r="F320" s="0">
+      <c r="G320" s="0">
         <v>0.0094328184396511583</v>
       </c>
-      <c r="G320" s="0">
+      <c r="H320" s="0">
         <v>-7.6168227385211189</v>
       </c>
-      <c r="H320" s="0">
+      <c r="I320" s="0">
         <v>6.3999999999999906</v>
       </c>
     </row>
@@ -8430,15 +9394,18 @@
         <v>0.36320145198275922</v>
       </c>
       <c r="E321" s="0">
+        <v>2.9146580613986632</v>
+      </c>
+      <c r="F321" s="0">
         <v>0.8300829843781854</v>
       </c>
-      <c r="F321" s="0">
+      <c r="G321" s="0">
         <v>0.0089790823703724265</v>
       </c>
-      <c r="G321" s="0">
+      <c r="H321" s="0">
         <v>-7.574888337107101</v>
       </c>
-      <c r="H321" s="0">
+      <c r="I321" s="0">
         <v>6.3499999999999943</v>
       </c>
     </row>
@@ -8456,15 +9423,18 @@
         <v>0.36416259686901292</v>
       </c>
       <c r="E322" s="0">
+        <v>2.916442207058108</v>
+      </c>
+      <c r="F322" s="0">
         <v>0.83268415501928494</v>
       </c>
-      <c r="F322" s="0">
+      <c r="G322" s="0">
         <v>0.0085318256260918934</v>
       </c>
-      <c r="G322" s="0">
+      <c r="H322" s="0">
         <v>-7.5328579479514266</v>
       </c>
-      <c r="H322" s="0">
+      <c r="I322" s="0">
         <v>6.2999999999999972</v>
       </c>
     </row>
@@ -8482,15 +9452,18 @@
         <v>0.3651255049590334</v>
       </c>
       <c r="E323" s="0">
+        <v>2.9182026538021497</v>
+      </c>
+      <c r="F323" s="0">
         <v>0.83528529873222757</v>
       </c>
-      <c r="F323" s="0">
+      <c r="G323" s="0">
         <v>0.0080909842936168486</v>
       </c>
-      <c r="G323" s="0">
+      <c r="H323" s="0">
         <v>-7.4907338866077957</v>
       </c>
-      <c r="H323" s="0">
+      <c r="I323" s="0">
         <v>6.25</v>
       </c>
     </row>
@@ -8508,15 +9481,18 @@
         <v>0.36609017465995486</v>
       </c>
       <c r="E324" s="0">
+        <v>2.9199395752144905</v>
+      </c>
+      <c r="F324" s="0">
         <v>0.83788641499465144</v>
       </c>
-      <c r="F324" s="0">
+      <c r="G324" s="0">
         <v>0.0076564952452518598</v>
       </c>
-      <c r="G324" s="0">
+      <c r="H324" s="0">
         <v>-7.448518444056015</v>
       </c>
-      <c r="H324" s="0">
+      <c r="I324" s="0">
         <v>6.1999999999999886</v>
       </c>
     </row>
@@ -8534,15 +9510,18 @@
         <v>0.36705660438285026</v>
       </c>
       <c r="E325" s="0">
+        <v>2.9216531437578639</v>
+      </c>
+      <c r="F325" s="0">
         <v>0.84048750327689525</v>
       </c>
-      <c r="F325" s="0">
+      <c r="G325" s="0">
         <v>0.0072282961271026847</v>
       </c>
-      <c r="G325" s="0">
+      <c r="H325" s="0">
         <v>-7.4062138868959577</v>
       </c>
-      <c r="H325" s="0">
+      <c r="I325" s="0">
         <v>6.1499999999999915</v>
       </c>
     </row>
@@ -8560,15 +9539,18 @@
         <v>0.36802479254274467</v>
       </c>
       <c r="E326" s="0">
+        <v>2.9233435307787516</v>
+      </c>
+      <c r="F326" s="0">
         <v>0.84308856304193347</v>
       </c>
-      <c r="F326" s="0">
+      <c r="G326" s="0">
         <v>0.0068063253475873498</v>
       </c>
-      <c r="G326" s="0">
+      <c r="H326" s="0">
         <v>-7.3638224575411364</v>
       </c>
-      <c r="H326" s="0">
+      <c r="I326" s="0">
         <v>6.0999999999999934</v>
       </c>
     </row>
@@ -8586,15 +9568,18 @@
         <v>0.36899473755863088</v>
       </c>
       <c r="E327" s="0">
+        <v>2.9250109065121244</v>
+      </c>
+      <c r="F327" s="0">
         <v>0.84568959374531549</v>
       </c>
-      <c r="F327" s="0">
+      <c r="G327" s="0">
         <v>0.0063905220661463202</v>
       </c>
-      <c r="G327" s="0">
+      <c r="H327" s="0">
         <v>-7.3213463744117799</v>
       </c>
-      <c r="H327" s="0">
+      <c r="I327" s="0">
         <v>6.0499999999999972</v>
       </c>
     </row>
@@ -8612,15 +9597,18 @@
         <v>0.36996643785348238</v>
       </c>
       <c r="E328" s="0">
+        <v>2.9266554400862179</v>
+      </c>
+      <c r="F328" s="0">
         <v>0.84829059483509972</v>
       </c>
-      <c r="F328" s="0">
+      <c r="G328" s="0">
         <v>0.0059808261821516218</v>
       </c>
-      <c r="G328" s="0">
+      <c r="H328" s="0">
         <v>-7.278787832127608</v>
       </c>
-      <c r="H328" s="0">
+      <c r="I328" s="0">
         <v>6</v>
       </c>
     </row>
@@ -8638,15 +9626,18 @@
         <v>0.37093989185426846</v>
       </c>
       <c r="E329" s="0">
+        <v>2.9282772995273438</v>
+      </c>
+      <c r="F329" s="0">
         <v>0.85089156575179403</v>
       </c>
-      <c r="F329" s="0">
+      <c r="G329" s="0">
         <v>0.0055771783240072814</v>
       </c>
-      <c r="G329" s="0">
+      <c r="H329" s="0">
         <v>-7.2361490016998591</v>
       </c>
-      <c r="H329" s="0">
+      <c r="I329" s="0">
         <v>5.9499999999999886</v>
       </c>
     </row>
@@ -8664,15 +9655,18 @@
         <v>0.37191509799196837</v>
       </c>
       <c r="E330" s="0">
+        <v>2.9298766517647281</v>
+      </c>
+      <c r="F330" s="0">
         <v>0.85349250592828951</v>
       </c>
-      <c r="F330" s="0">
+      <c r="G330" s="0">
         <v>0.0051795198384380625</v>
       </c>
-      <c r="G330" s="0">
+      <c r="H330" s="0">
         <v>-7.1934320307230637</v>
       </c>
-      <c r="H330" s="0">
+      <c r="I330" s="0">
         <v>5.8999999999999915</v>
       </c>
     </row>
@@ -8690,15 +9684,18 @@
         <v>0.37289205470158499</v>
       </c>
       <c r="E331" s="0">
+        <v>2.931453662635378</v>
+      </c>
+      <c r="F331" s="0">
         <v>0.8560934147897995</v>
       </c>
-      <c r="F331" s="0">
+      <c r="G331" s="0">
         <v>0.0047877927799681863</v>
       </c>
-      <c r="G331" s="0">
+      <c r="H331" s="0">
         <v>-7.1506390435660698</v>
       </c>
-      <c r="H331" s="0">
+      <c r="I331" s="0">
         <v>5.8499999999999943</v>
       </c>
     </row>
@@ -8716,15 +9713,18 @@
         <v>0.3738707604221595</v>
       </c>
       <c r="E332" s="0">
+        <v>2.9330084968889705</v>
+      </c>
+      <c r="F332" s="0">
         <v>0.85869429175379297</v>
       </c>
-      <c r="F332" s="0">
+      <c r="G332" s="0">
         <v>0.0044019399005774118</v>
       </c>
-      <c r="G332" s="0">
+      <c r="H332" s="0">
         <v>-7.1077721415626396</v>
       </c>
-      <c r="H332" s="0">
+      <c r="I332" s="0">
         <v>5.7999999999999963</v>
       </c>
     </row>
@@ -8742,15 +9742,18 @@
         <v>0.3748512135967853</v>
       </c>
       <c r="E333" s="0">
+        <v>2.9345413181927795</v>
+      </c>
+      <c r="F333" s="0">
         <v>0.8612951362299347</v>
       </c>
-      <c r="F333" s="0">
+      <c r="G333" s="0">
         <v>0.0040219046395367497</v>
       </c>
-      <c r="G333" s="0">
+      <c r="H333" s="0">
         <v>-7.0648334032013871</v>
       </c>
-      <c r="H333" s="0">
+      <c r="I333" s="0">
         <v>5.75</v>
       </c>
     </row>
@@ -8768,15 +9771,18 @@
         <v>0.37583341267262205</v>
       </c>
       <c r="E334" s="0">
+        <v>2.9360522891366121</v>
+      </c>
+      <c r="F334" s="0">
         <v>0.86389594762001753</v>
       </c>
-      <c r="F334" s="0">
+      <c r="G334" s="0">
         <v>0.0036476311134200912</v>
       </c>
-      <c r="G334" s="0">
+      <c r="H334" s="0">
         <v>-7.0218248843151105</v>
       </c>
-      <c r="H334" s="0">
+      <c r="I334" s="0">
         <v>5.6999999999999877</v>
       </c>
     </row>
@@ -8794,15 +9800,18 @@
         <v>0.37681735610090972</v>
       </c>
       <c r="E335" s="0">
+        <v>2.9375415712377815</v>
+      </c>
+      <c r="F335" s="0">
         <v>0.8664967253179009</v>
       </c>
-      <c r="F335" s="0">
+      <c r="G335" s="0">
         <v>0.0032790641062830639</v>
       </c>
-      <c r="G335" s="0">
+      <c r="H335" s="0">
         <v>-6.9787486182695329</v>
       </c>
-      <c r="H335" s="0">
+      <c r="I335" s="0">
         <v>5.6499999999999915</v>
       </c>
     </row>
@@ -8820,15 +9829,18 @@
         <v>0.37780304233698259</v>
       </c>
       <c r="E336" s="0">
+        <v>2.9390093249460865</v>
+      </c>
+      <c r="F336" s="0">
         <v>0.86909746870944427</v>
       </c>
-      <c r="F336" s="0">
+      <c r="G336" s="0">
         <v>0.0029161490600179141</v>
       </c>
-      <c r="G336" s="0">
+      <c r="H336" s="0">
         <v>-6.935606616151361</v>
       </c>
-      <c r="H336" s="0">
+      <c r="I336" s="0">
         <v>5.5999999999999943</v>
       </c>
     </row>
@@ -8846,15 +9858,18 @@
         <v>0.37879046984028353</v>
       </c>
       <c r="E337" s="0">
+        <v>2.9404557096488282</v>
+      </c>
+      <c r="F337" s="0">
         <v>0.87169817717244547</v>
       </c>
-      <c r="F337" s="0">
+      <c r="G337" s="0">
         <v>0.0025588320648635976</v>
       </c>
-      <c r="G337" s="0">
+      <c r="H337" s="0">
         <v>-6.8924008669556587</v>
       </c>
-      <c r="H337" s="0">
+      <c r="I337" s="0">
         <v>5.5499999999999972</v>
       </c>
     </row>
@@ -8872,15 +9887,18 @@
         <v>0.37977963707437712</v>
       </c>
       <c r="E338" s="0">
+        <v>2.9418808836758359</v>
+      </c>
+      <c r="F338" s="0">
         <v>0.87429885007657315</v>
       </c>
-      <c r="F338" s="0">
+      <c r="G338" s="0">
         <v>0.002207059850083154</v>
       </c>
-      <c r="G338" s="0">
+      <c r="H338" s="0">
         <v>-6.849133337772547</v>
       </c>
-      <c r="H338" s="0">
+      <c r="I338" s="0">
         <v>5.4999999999999991</v>
       </c>
     </row>
@@ -8898,15 +9916,18 @@
         <v>0.38077054250696474</v>
       </c>
       <c r="E339" s="0">
+        <v>2.9432850043045069</v>
+      </c>
+      <c r="F339" s="0">
         <v>0.87689948678330454</v>
       </c>
-      <c r="F339" s="0">
+      <c r="G339" s="0">
         <v>0.0018607797747993704</v>
       </c>
-      <c r="G339" s="0">
+      <c r="H339" s="0">
         <v>-6.8058059739732055</v>
       </c>
-      <c r="H339" s="0">
+      <c r="I339" s="0">
         <v>5.4499999999999886</v>
       </c>
     </row>
@@ -8924,15 +9945,18 @@
         <v>0.38176318460989722</v>
       </c>
       <c r="E340" s="0">
+        <v>2.9446682277648795</v>
+      </c>
+      <c r="F340" s="0">
         <v>0.87950008664585833</v>
       </c>
-      <c r="F340" s="0">
+      <c r="G340" s="0">
         <v>0.0015199398189801594</v>
       </c>
-      <c r="G340" s="0">
+      <c r="H340" s="0">
         <v>-6.762420699395137</v>
       </c>
-      <c r="H340" s="0">
+      <c r="I340" s="0">
         <v>5.3999999999999906</v>
       </c>
     </row>
@@ -8950,15 +9974,18 @@
         <v>0.38275756185918952</v>
       </c>
       <c r="E341" s="0">
+        <v>2.9460307092447025</v>
+      </c>
+      <c r="F341" s="0">
         <v>0.88210064900913143</v>
       </c>
-      <c r="F341" s="0">
+      <c r="G341" s="0">
         <v>0.0011844885745846412</v>
       </c>
-      <c r="G341" s="0">
+      <c r="H341" s="0">
         <v>-6.7189794165266399</v>
       </c>
-      <c r="H341" s="0">
+      <c r="I341" s="0">
         <v>5.3499999999999943</v>
       </c>
     </row>
@@ -8976,15 +10003,18 @@
         <v>0.38375367273503413</v>
       </c>
       <c r="E342" s="0">
+        <v>2.9473726028945357</v>
+      </c>
+      <c r="F342" s="0">
         <v>0.8847011732096326</v>
       </c>
-      <c r="F342" s="0">
+      <c r="G342" s="0">
         <v>0.00085437523685100158</v>
       </c>
-      <c r="G342" s="0">
+      <c r="H342" s="0">
         <v>-6.6754840066906134</v>
       </c>
-      <c r="H342" s="0">
+      <c r="I342" s="0">
         <v>5.2999999999999972</v>
       </c>
     </row>
